--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA43C440-B05A-4DA8-A003-E331035B4F51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D769890-8B1F-46BC-BD61-E278DDBAE34E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>Bug Log</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>Retreive output table is not aligned properly</t>
+  </si>
+  <si>
+    <t>retrieve($course) in course DAO</t>
+  </si>
+  <si>
+    <t>retrieve($course) in Prerequisite DAO</t>
+  </si>
+  <si>
+    <t>Not all data was called in the select statement which made it impossible to create course objects. Results were also not appended in an array.</t>
+  </si>
+  <si>
+    <t>Not all data was called in the select statement which made it impossible to create prereq object. Results were also not appended in an array.</t>
   </si>
 </sst>
 </file>
@@ -472,9 +484,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,6 +491,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,7 +1121,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1126,16 +1138,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1163,7 +1175,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -1171,21 +1183,38 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="21">
+        <v>5</v>
+      </c>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>2</v>
       </c>
       <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="C4" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="21">
+        <v>5</v>
+      </c>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -1432,7 +1461,7 @@
       <c r="B30" s="27"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21" t="str">
-        <f t="shared" ref="F3:F200" si="0">IF($E30="Critical", 10, IF($E30="High",5, IF($E30="Low",1,"")))</f>
+        <f t="shared" ref="F30:F200" si="0">IF($E30="Critical", 10, IF($E30="High",5, IF($E30="Low",1,"")))</f>
         <v/>
       </c>
     </row>
@@ -6546,16 +6575,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -6594,7 +6623,7 @@
       </c>
       <c r="C3" s="9" t="str">
         <f>'Our Bug Metrics'!$C3</f>
-        <v>Bootstrap</v>
+        <v>retrieve($course) in course DAO</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
@@ -16755,16 +16784,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -16812,7 +16841,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="34">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -16841,7 +16870,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -16864,7 +16893,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -16887,7 +16916,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -16910,7 +16939,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -16933,7 +16962,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -16956,7 +16985,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="34">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -16985,7 +17014,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17008,7 +17037,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17031,7 +17060,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="31"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17054,7 +17083,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="31"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17077,7 +17106,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17100,7 +17129,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -17123,7 +17152,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="34">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -17152,7 +17181,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17175,7 +17204,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17198,7 +17227,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -17221,7 +17250,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="34">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -17249,7 +17278,7 @@
       <c r="F21" s="28">
         <v>5</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17272,7 +17301,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17295,7 +17324,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -22460,16 +22489,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -22508,11 +22537,11 @@
       </c>
       <c r="C3" s="9" t="str">
         <f>'Our Bug Metrics'!$C3</f>
-        <v>Bootstrap</v>
-      </c>
-      <c r="D3" s="10">
+        <v>retrieve($course) in course DAO</v>
+      </c>
+      <c r="D3" s="10" t="str">
         <f>'Our Bug Metrics'!$D3</f>
-        <v>0</v>
+        <v>Not all data was called in the select statement which made it impossible to create course objects. Results were also not appended in an array.</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>26</v>
@@ -22536,13 +22565,13 @@
         <f>'Our Bug Metrics'!$B4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="9" t="str">
         <f>'Our Bug Metrics'!$C4</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
+        <v>retrieve($course) in Prerequisite DAO</v>
+      </c>
+      <c r="D4" s="10" t="str">
         <f>'Our Bug Metrics'!$D4</f>
-        <v>0</v>
+        <v>Not all data was called in the select statement which made it impossible to create prereq object. Results were also not appended in an array.</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>26</v>
@@ -22587,7 +22616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <f>'Our Bug Metrics'!$A6</f>
         <v>4</v>
@@ -22613,7 +22642,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <f>'Our Bug Metrics'!$A7</f>
         <v>5</v>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D769890-8B1F-46BC-BD61-E278DDBAE34E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129E61E9-C8F7-4A9A-92E4-47AA9881BCEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
   <si>
     <t>Bug Log</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>Not all data was called in the select statement which made it impossible to create prereq object. Results were also not appended in an array.</t>
+  </si>
+  <si>
+    <t>Spelling error in function name.</t>
+  </si>
+  <si>
+    <t>Not all data was appended and returned in the results array.</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1217,28 +1223,46 @@
       </c>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>3</v>
       </c>
       <c r="B5" s="21">
         <v>1</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1</v>
+      </c>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>4</v>
       </c>
       <c r="B6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="C6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="21">
+        <v>5</v>
+      </c>
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -22526,7 +22550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <f>'Our Bug Metrics'!$A3</f>
         <v>1</v>
@@ -22556,7 +22580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <f>'Our Bug Metrics'!$A4</f>
         <v>2</v>
@@ -22595,13 +22619,13 @@
         <f>'Our Bug Metrics'!$B5</f>
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="9" t="str">
         <f>'Our Bug Metrics'!$C5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
+        <v>retrieve($course) in Prerequisite DAO</v>
+      </c>
+      <c r="D5" s="10" t="str">
         <f>'Our Bug Metrics'!$D5</f>
-        <v>0</v>
+        <v>Spelling error in function name.</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>26</v>
@@ -22625,13 +22649,13 @@
         <f>'Our Bug Metrics'!$B6</f>
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="9" t="str">
         <f>'Our Bug Metrics'!$C6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
+        <v>retrieve($course) in Prerequisite DAO</v>
+      </c>
+      <c r="D6" s="10" t="str">
         <f>'Our Bug Metrics'!$D6</f>
-        <v>0</v>
+        <v>Not all data was appended and returned in the results array.</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>32</v>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129E61E9-C8F7-4A9A-92E4-47AA9881BCEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF552E7-9AEF-4B74-B6AC-D8E689666ED9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
   <si>
     <t>Bug Log</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Not all data was appended and returned in the results array.</t>
+  </si>
+  <si>
+    <t>retrieve($userid) in StudentDAO</t>
+  </si>
+  <si>
+    <t>Return an array of object instead of one object</t>
   </si>
 </sst>
 </file>
@@ -1126,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1265,16 +1271,25 @@
       </c>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>5</v>
       </c>
       <c r="B7" s="27">
         <v>1</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="C7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -22675,13 +22690,13 @@
         <f>'Our Bug Metrics'!$B7</f>
         <v>1</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="9" t="str">
         <f>'Our Bug Metrics'!$C7</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
+        <v>retrieve($userid) in StudentDAO</v>
+      </c>
+      <c r="D7" s="10" t="str">
         <f>'Our Bug Metrics'!$D7</f>
-        <v>0</v>
+        <v>Return an array of object instead of one object</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>26</v>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C187213C-4DAD-4C18-A60D-38475F8AEBC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167C1ACF-52BC-4F1B-B0A9-AB475127BC6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="86">
   <si>
     <t>Bug Log</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>SA &amp; LW</t>
+  </si>
+  <si>
+    <t>prereqDAO.php</t>
+  </si>
+  <si>
+    <t>When appending object in retrieve($course), wrong class (course) was used</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1322,15 +1328,25 @@
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="B8" s="27">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="21">
+        <v>5</v>
+      </c>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -6626,8 +6642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6762,12 +6778,24 @@
       <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="19"/>
+      <c r="C6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
@@ -22772,15 +22800,15 @@
       </c>
       <c r="B8" s="9">
         <f>'Our Bug Metrics'!$B8</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="str">
         <f>'Our Bug Metrics'!$C8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
+        <v>retrieve($course) in Prerequisite DAO</v>
+      </c>
+      <c r="D8" s="10" t="str">
         <f>'Our Bug Metrics'!$D8</f>
-        <v>0</v>
+        <v>When appending object in retrieve($course), wrong class (course) was used</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>26</v>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Documents\GitHub\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167C1ACF-52BC-4F1B-B0A9-AB475127BC6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223F4F14-BB62-45C8-B024-A74BB3D4CACF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="91">
   <si>
     <t>Bug Log</t>
   </si>
@@ -291,6 +291,21 @@
   <si>
     <t>When appending object in retrieve($course), wrong class (course) was used</t>
   </si>
+  <si>
+    <t>bootstrap.php</t>
+  </si>
+  <si>
+    <t>Wrong sequence for section validation</t>
+  </si>
+  <si>
+    <t>Jaslyn</t>
+  </si>
+  <si>
+    <t>Empty() take 0 as empty, thus does gives the wrong error</t>
+  </si>
+  <si>
+    <t>REsolved</t>
+  </si>
 </sst>
 </file>
 
@@ -442,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -530,6 +545,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1169,7 +1187,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1186,16 +1204,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1349,26 +1367,46 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="27">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -6630,7 +6668,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E24 E30:E200" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E30:E200 E3:E24" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Critical,High,Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6643,7 +6681,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6660,16 +6698,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -6805,12 +6843,24 @@
       <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="19"/>
+      <c r="C7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
@@ -6820,12 +6870,24 @@
       <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="19"/>
+      <c r="C8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
@@ -16905,16 +16967,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -16962,7 +17024,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="37">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -16991,7 +17053,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="36"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17014,7 +17076,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -17037,7 +17099,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17060,7 +17122,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -17083,7 +17145,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="36"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -17106,7 +17168,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="37">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -17135,7 +17197,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17158,7 +17220,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17181,7 +17243,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17204,7 +17266,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17227,7 +17289,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17250,7 +17312,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -17273,7 +17335,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="37">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -17302,7 +17364,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17325,7 +17387,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17348,7 +17410,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -17371,7 +17433,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="37">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -17399,7 +17461,7 @@
       <c r="F21" s="28">
         <v>5</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17422,7 +17484,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17445,7 +17507,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="36"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -22610,16 +22672,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -22830,15 +22892,15 @@
       </c>
       <c r="B9" s="9">
         <f>'Our Bug Metrics'!$B9</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="str">
         <f>'Our Bug Metrics'!$C9</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
+        <v>bootstrap.php</v>
+      </c>
+      <c r="D9" s="10" t="str">
         <f>'Our Bug Metrics'!$D9</f>
-        <v>0</v>
+        <v>Wrong sequence for section validation</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>26</v>
@@ -22860,15 +22922,15 @@
       </c>
       <c r="B10" s="9">
         <f>'Our Bug Metrics'!$B10</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="str">
         <f>'Our Bug Metrics'!$C10</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
+        <v>bootstrap.php</v>
+      </c>
+      <c r="D10" s="10" t="str">
         <f>'Our Bug Metrics'!$D10</f>
-        <v>0</v>
+        <v>Empty() take 0 as empty, thus does gives the wrong error</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>26</v>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167C1ACF-52BC-4F1B-B0A9-AB475127BC6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066CE960-CCAA-4902-A105-7355D40A5299}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>Bug Log</t>
   </si>
@@ -290,6 +290,24 @@
   </si>
   <si>
     <t>When appending object in retrieve($course), wrong class (course) was used</t>
+  </si>
+  <si>
+    <t>retrieve($userid) in BidDAO</t>
+  </si>
+  <si>
+    <t>SQL statement only retrieves userid and amount</t>
+  </si>
+  <si>
+    <t>BidDAO.php</t>
+  </si>
+  <si>
+    <t>26/9/2019</t>
+  </si>
+  <si>
+    <t>remove in BidDAO</t>
+  </si>
+  <si>
+    <t>Remove function in BidDAO only pass in userid</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1349,26 +1367,46 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="21">
+        <v>5</v>
+      </c>
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="27">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="21">
+        <v>5</v>
+      </c>
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -6642,8 +6680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6797,7 +6835,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>'Our Bug Metrics'!$A7</f>
         <v>5</v>
@@ -6805,14 +6843,26 @@
       <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f>'Our Bug Metrics'!$A8</f>
         <v>6</v>
@@ -6820,12 +6870,24 @@
       <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="19"/>
+      <c r="C8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
@@ -22830,15 +22892,15 @@
       </c>
       <c r="B9" s="9">
         <f>'Our Bug Metrics'!$B9</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="str">
         <f>'Our Bug Metrics'!$C9</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
+        <v>retrieve($userid) in BidDAO</v>
+      </c>
+      <c r="D9" s="10" t="str">
         <f>'Our Bug Metrics'!$D9</f>
-        <v>0</v>
+        <v>SQL statement only retrieves userid and amount</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>26</v>
@@ -22860,15 +22922,15 @@
       </c>
       <c r="B10" s="9">
         <f>'Our Bug Metrics'!$B10</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="str">
         <f>'Our Bug Metrics'!$C10</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
+        <v>remove in BidDAO</v>
+      </c>
+      <c r="D10" s="10" t="str">
         <f>'Our Bug Metrics'!$D10</f>
-        <v>0</v>
+        <v>Remove function in BidDAO only pass in userid</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>26</v>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Documents\GitHub\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066CE960-CCAA-4902-A105-7355D40A5299}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587752E1-6E55-4A0B-A24E-3A1C4DDA2E73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="94">
   <si>
     <t>Bug Log</t>
   </si>
@@ -307,7 +307,13 @@
     <t>remove in BidDAO</t>
   </si>
   <si>
-    <t>Remove function in BidDAO only pass in userid</t>
+    <t>Remove function in BidDAO only pass in userid instead of both userid and code</t>
+  </si>
+  <si>
+    <t>Empty function treats 0 as empty. Changed to comparison with ""</t>
+  </si>
+  <si>
+    <t>common.php</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1413,11 +1419,21 @@
       <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="B11" s="27">
+        <v>1</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="21">
+        <v>5</v>
+      </c>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -6680,8 +6696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6862,7 +6878,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f>'Our Bug Metrics'!$A8</f>
         <v>6</v>
@@ -6889,7 +6905,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f>'Our Bug Metrics'!$A9</f>
         <v>7</v>
@@ -6897,12 +6913,24 @@
       <c r="B9" s="9">
         <v>1</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="C9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
@@ -22930,7 +22958,7 @@
       </c>
       <c r="D10" s="10" t="str">
         <f>'Our Bug Metrics'!$D10</f>
-        <v>Remove function in BidDAO only pass in userid</v>
+        <v>Remove function in BidDAO only pass in userid instead of both userid and code</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>26</v>
@@ -22955,9 +22983,9 @@
       <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="10" t="str">
         <f>'Our Bug Metrics'!$D11</f>
-        <v>0</v>
+        <v>Empty function treats 0 as empty. Changed to comparison with ""</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>26</v>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1068E504-3716-4A6E-84EA-4A8F8176E24D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B8DB2D-A605-4480-95C9-D6646C1C5EB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="80">
   <si>
     <t>Bug Log</t>
   </si>
@@ -263,6 +263,15 @@
   <si>
     <t>remove function in BidDAO</t>
   </si>
+  <si>
+    <t>Stopped Current Development and inform the PM. Scheduled another session for debugging.</t>
+  </si>
+  <si>
+    <t>Debugged once the bug is spotted</t>
+  </si>
+  <si>
+    <t>21/9/2019</t>
+  </si>
 </sst>
 </file>
 
@@ -414,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -500,23 +509,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -534,29 +530,228 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="56">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1202,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1220,16 +1415,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -1257,7 +1452,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>1</v>
       </c>
@@ -1276,9 +1471,14 @@
       <c r="F3" s="19">
         <v>5</v>
       </c>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="G3" s="20">
+        <v>5</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -1297,7 +1497,12 @@
       <c r="F4" s="19">
         <v>5</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="G4" s="20">
+        <v>5</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -1318,7 +1523,12 @@
       <c r="F5" s="19">
         <v>1</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
@@ -1339,7 +1549,12 @@
       <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -1360,9 +1575,14 @@
       <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="G7" s="20">
+        <v>1</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>6</v>
       </c>
@@ -1381,9 +1601,14 @@
       <c r="F8" s="19">
         <v>5</v>
       </c>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="G8" s="20">
+        <v>5</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>7</v>
       </c>
@@ -1402,9 +1627,14 @@
       <c r="F9" s="19">
         <v>5</v>
       </c>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="G9" s="20">
+        <v>5</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>8</v>
       </c>
@@ -1423,7 +1653,12 @@
       <c r="F10" s="19">
         <v>5</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="G10" s="20">
+        <v>5</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -1444,7 +1679,12 @@
       <c r="F11" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -6688,9 +6928,54 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="Stop current Development">
+  <conditionalFormatting sqref="H1:H2 H12:H1048576">
+    <cfRule type="containsText" dxfId="55" priority="22" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6707,7 +6992,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6724,16 +7009,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -6762,15 +7047,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <f>'Our Bug Metrics'!$A3</f>
         <v>1</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="31">
         <f>'Our Bug Metrics'!$B3</f>
         <v>1</v>
       </c>
-      <c r="C3" s="35" t="str">
+      <c r="C3" s="31" t="str">
         <f>'Our Bug Metrics'!$C3</f>
         <v>retrieve($course) in course DAO</v>
       </c>
@@ -6778,23 +7063,29 @@
         <f>'Our Bug Metrics'!$D3</f>
         <v>Not all data was called in the select statement which made it impossible to create course objects. Results were also not appended in an array.</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="F3" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35">
+      <c r="A4" s="31">
         <f>'Our Bug Metrics'!$A4</f>
         <v>2</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="31">
         <f>'Our Bug Metrics'!$B4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="str">
+      <c r="C4" s="31" t="str">
         <f>'Our Bug Metrics'!$C4</f>
         <v>retrieve($course) in Prerequisite DAO</v>
       </c>
@@ -6802,23 +7093,29 @@
         <f>'Our Bug Metrics'!$D4</f>
         <v>Not all data was called in the select statement which made it impossible to create prereq object. Results were also not appended in an array.</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <f>'Our Bug Metrics'!$A5</f>
         <v>3</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="31">
         <f>'Our Bug Metrics'!$B5</f>
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="str">
+      <c r="C5" s="31" t="str">
         <f>'Our Bug Metrics'!$C5</f>
         <v>retrieve($course) in Prerequisite DAO</v>
       </c>
@@ -6826,23 +7123,29 @@
         <f>'Our Bug Metrics'!$D5</f>
         <v>Spelling error in function name.</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="F5" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35">
+      <c r="A6" s="31">
         <f>'Our Bug Metrics'!$A6</f>
         <v>4</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="31">
         <f>'Our Bug Metrics'!$B6</f>
         <v>1</v>
       </c>
-      <c r="C6" s="35" t="str">
+      <c r="C6" s="31" t="str">
         <f>'Our Bug Metrics'!$C6</f>
         <v>Bootstrap</v>
       </c>
@@ -6864,15 +7167,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <f>'Our Bug Metrics'!$A7</f>
         <v>5</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="31">
         <f>'Our Bug Metrics'!$B7</f>
         <v>1</v>
       </c>
-      <c r="C7" s="35" t="str">
+      <c r="C7" s="31" t="str">
         <f>'Our Bug Metrics'!$C7</f>
         <v>retrieve($userid) in StudentDAO</v>
       </c>
@@ -6894,15 +7197,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35">
+      <c r="A8" s="31">
         <f>'Our Bug Metrics'!$A8</f>
         <v>6</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="31">
         <f>'Our Bug Metrics'!$B8</f>
         <v>1</v>
       </c>
-      <c r="C8" s="35" t="str">
+      <c r="C8" s="31" t="str">
         <f>'Our Bug Metrics'!$C8</f>
         <v>retrieve($course) in Prerequisite DAO</v>
       </c>
@@ -6910,29 +7213,29 @@
         <f>'Our Bug Metrics'!$D8</f>
         <v>When appending object in retrieve($course), wrong class (course) was used</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35">
+    <row r="9" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31">
         <f>'Our Bug Metrics'!$A9</f>
         <v>7</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="31">
         <f>'Our Bug Metrics'!$B9</f>
         <v>1</v>
       </c>
-      <c r="C9" s="35" t="str">
+      <c r="C9" s="31" t="str">
         <f>'Our Bug Metrics'!$C9</f>
         <v>retrieve($userid) in BidDAO</v>
       </c>
@@ -6940,29 +7243,29 @@
         <f>'Our Bug Metrics'!$D9</f>
         <v>SQL statement only retrieves userid and amount</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35">
+    <row r="10" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31">
         <f>'Our Bug Metrics'!$A10</f>
         <v>8</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="31">
         <f>'Our Bug Metrics'!$B10</f>
         <v>1</v>
       </c>
-      <c r="C10" s="35" t="str">
+      <c r="C10" s="31" t="str">
         <f>'Our Bug Metrics'!$C10</f>
         <v>remove function in BidDAO</v>
       </c>
@@ -6970,50 +7273,50 @@
         <f>'Our Bug Metrics'!$D10</f>
         <v>Remove function in BidDAO only pass in userid instead of both userid and code</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="35">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
         <v>9</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="31">
         <v>4</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="31" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="9" t="str">
         <f>'Our Bug Metrics'!$D11</f>
         <v>Empty function treats 0 as empty. Changed to comparison with ""</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="33" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="9"/>
       <c r="E12" s="30" t="s">
         <v>26</v>
@@ -7029,14 +7332,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="38"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -16913,167 +17216,167 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="34" priority="36">
+    <cfRule type="containsBlanks" dxfId="52" priority="36">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="28" priority="30">
+    <cfRule type="containsBlanks" dxfId="49" priority="30">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="25" priority="27">
+    <cfRule type="containsBlanks" dxfId="46" priority="27">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="22" priority="24">
+    <cfRule type="containsBlanks" dxfId="43" priority="24">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="19" priority="21">
+    <cfRule type="containsBlanks" dxfId="40" priority="21">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="16" priority="18">
+    <cfRule type="containsBlanks" dxfId="37" priority="18">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="13" priority="15">
+    <cfRule type="containsBlanks" dxfId="34" priority="15">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+    <cfRule type="containsBlanks" dxfId="31" priority="12">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="28" priority="9">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="25" priority="6">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
+    <cfRule type="containsBlanks" dxfId="22" priority="3">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17090,8 +17393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4BB8BE-3D13-4259-8D54-ADCE08905D94}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17108,16 +17411,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -17165,7 +17468,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="41">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -17194,7 +17497,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17217,7 +17520,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -17240,7 +17543,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17263,7 +17566,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -17286,7 +17589,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -17309,7 +17612,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="41">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -17338,7 +17641,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17361,7 +17664,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17384,7 +17687,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17407,7 +17710,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17430,7 +17733,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="34"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17453,7 +17756,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="34"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -17476,7 +17779,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="41">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -17505,7 +17808,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17528,7 +17831,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="34"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17551,7 +17854,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -17574,7 +17877,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="41">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -17602,7 +17905,7 @@
       <c r="F21" s="26">
         <v>5</v>
       </c>
-      <c r="G21" s="34"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17625,7 +17928,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="34"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17648,7 +17951,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -22778,7 +23081,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864D7F19-4671-44E6-917A-D8EB2185D2BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581657F3-AF41-40A4-B2B5-BBC565F61A33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
   <si>
     <t>Bug Log</t>
   </si>
@@ -275,6 +275,15 @@
   <si>
     <t>YB &amp; SA</t>
   </si>
+  <si>
+    <t>Round 1 Clearing</t>
+  </si>
+  <si>
+    <t>Sectionstudent table contained all the bids who passed and failed instead of only passes after round 1 clearing.</t>
+  </si>
+  <si>
+    <t>Unresolved</t>
+  </si>
 </sst>
 </file>
 
@@ -426,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -541,6 +550,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1698,15 +1710,31 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>15</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="23"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="H17" s="22"/>
+      <c r="B17" s="24">
+        <v>2</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="18">
+        <v>5</v>
+      </c>
+      <c r="G17" s="19">
+        <v>5</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
@@ -6953,8 +6981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7393,7 +7421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <f>'Our Bug Metrics'!$A16</f>
         <v>14</v>
@@ -7401,11 +7429,13 @@
       <c r="B16" s="8">
         <v>2</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>79</v>
+      <c r="C16" s="30" t="str">
+        <f>'Our Bug Metrics'!$C16</f>
+        <v>Add Bid</v>
+      </c>
+      <c r="D16" s="41" t="str">
+        <f>'Our Bug Metrics'!$D16</f>
+        <v>Variable names in course class differs from bidhome.php</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>26</v>
@@ -7420,31 +7450,46 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="17"/>
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <f>'Our Bug Metrics'!$A17</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="30" t="str">
+        <f>'Our Bug Metrics'!$C17</f>
+        <v>Round 1 Clearing</v>
+      </c>
+      <c r="D17" s="31" t="str">
+        <f>'Our Bug Metrics'!$D17</f>
+        <v>Sectionstudent table contained all the bids who passed and failed instead of only passes after round 1 clearing.</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="17">
+        <v>43565</v>
+      </c>
       <c r="G17" s="17"/>
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="8"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="10"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="8"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="10"/>
       <c r="F19" s="17"/>
       <c r="G19" s="12"/>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581657F3-AF41-40A4-B2B5-BBC565F61A33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B0CF7F-9EDA-4868-AEBE-4C1F89492F9A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="83">
   <si>
     <t>Bug Log</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>Sectionstudent table contained all the bids who passed and failed instead of only passes after round 1 clearing.</t>
-  </si>
-  <si>
-    <t>Unresolved</t>
   </si>
 </sst>
 </file>
@@ -541,6 +538,9 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,9 +550,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,16 +1306,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -6982,7 +6979,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6999,16 +6996,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -7433,7 +7430,7 @@
         <f>'Our Bug Metrics'!$C16</f>
         <v>Add Bid</v>
       </c>
-      <c r="D16" s="41" t="str">
+      <c r="D16" s="37" t="str">
         <f>'Our Bug Metrics'!$D16</f>
         <v>Variable names in course class differs from bidhome.php</v>
       </c>
@@ -7450,28 +7447,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
-        <f>'Our Bug Metrics'!$A17</f>
-        <v>15</v>
-      </c>
-      <c r="B17" s="8">
-        <v>2</v>
-      </c>
-      <c r="C17" s="30" t="str">
-        <f>'Our Bug Metrics'!$C17</f>
-        <v>Round 1 Clearing</v>
-      </c>
-      <c r="D17" s="31" t="str">
-        <f>'Our Bug Metrics'!$D17</f>
-        <v>Sectionstudent table contained all the bids who passed and failed instead of only passes after round 1 clearing.</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="17">
-        <v>43565</v>
-      </c>
+    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="16"/>
     </row>
@@ -17505,16 +17487,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -17562,7 +17544,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="41">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -17591,7 +17573,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17614,7 +17596,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -17637,7 +17619,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17660,7 +17642,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -17683,7 +17665,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -17706,7 +17688,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="41">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -17735,7 +17717,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17758,7 +17740,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17781,7 +17763,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="40"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17804,7 +17786,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17827,7 +17809,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17850,7 +17832,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -17873,7 +17855,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="41">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -17902,7 +17884,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17925,7 +17907,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="40"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17948,7 +17930,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -17971,7 +17953,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="41">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -17999,7 +17981,7 @@
       <c r="F21" s="25">
         <v>5</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18022,7 +18004,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18045,7 +18027,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="40"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen yibing\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098B0FD3-8FC4-4EB1-B6C4-92D37C9ECE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17E1CAD-A380-443B-8D29-244890114467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="0" windowWidth="14976" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="89">
   <si>
     <t>Bug Log</t>
   </si>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t>loops for validating no class time clashed and loops for validating no exam time clashed should not be nested</t>
+  </si>
+  <si>
+    <t>assign the value to username</t>
+  </si>
+  <si>
+    <t>hard code username</t>
+  </si>
+  <si>
+    <t>assign the value to round</t>
+  </si>
+  <si>
+    <t>hard code round</t>
   </si>
 </sst>
 </file>
@@ -6984,8 +6996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7479,25 +7491,57 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="30"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="30"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="11"/>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="30">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="17">
+        <v>43656</v>
+      </c>
+      <c r="G18" s="17">
+        <v>43657</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="30">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="17">
+        <v>43656</v>
+      </c>
+      <c r="G19" s="17">
+        <v>43657</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8"/>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4982296-0D16-480E-918E-87EDF264AB26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A9392-00ED-439C-8142-476CB124B8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="99">
   <si>
     <t>Bug Log</t>
   </si>
@@ -323,6 +323,12 @@
   <si>
     <t>bootstrap_process.php had a missing ?&gt; in the php file</t>
   </si>
+  <si>
+    <t>Edollar is not updated on bidding.php after submit button. Only edollar left is updated.</t>
+  </si>
+  <si>
+    <t>bidding.php shows error as did not code what to display if there are no sections available.</t>
+  </si>
 </sst>
 </file>
 
@@ -474,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -580,6 +586,9 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,7 +603,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="51">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -634,6 +643,16 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1369,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C21"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1387,16 +1406,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -1918,25 +1937,57 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="23"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="24">
+        <v>2</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="37">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="23"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="H23" s="22"/>
+      <c r="B23" s="24">
+        <v>2</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="37">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
@@ -7060,58 +7111,63 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H2 H12:H1048576">
-    <cfRule type="containsText" dxfId="49" priority="22" operator="containsText" text="Stop current Development">
+  <conditionalFormatting sqref="H1:H2 H12:H21 H24:H1048576">
+    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="48" priority="21" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="49" priority="22" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="47" priority="15" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="48" priority="16" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="47" priority="14" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="43" priority="4" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H23">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E24 E30:E200" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E30:E200 E3:E24" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Critical,High,Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7123,8 +7179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7141,16 +7197,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -7563,7 +7619,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <f>'Our Bug Metrics'!$A16</f>
         <v>14</v>
@@ -7774,25 +7830,57 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="11"/>
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="17">
+        <v>43687</v>
+      </c>
+      <c r="G24" s="17">
+        <v>43687</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="17">
+        <v>43687</v>
+      </c>
+      <c r="G25" s="17">
+        <v>43687</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -17549,172 +17637,202 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="37" priority="45">
+    <cfRule type="containsBlanks" dxfId="38" priority="51">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="28" priority="30">
+    <cfRule type="containsBlanks" dxfId="35" priority="36">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="25" priority="27">
+    <cfRule type="containsBlanks" dxfId="32" priority="33">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="22" priority="24">
+    <cfRule type="containsBlanks" dxfId="29" priority="30">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="19" priority="21">
+    <cfRule type="containsBlanks" dxfId="26" priority="27">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="16" priority="18">
+    <cfRule type="containsBlanks" dxfId="23" priority="24">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="13" priority="15">
+    <cfRule type="containsBlanks" dxfId="20" priority="21">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+    <cfRule type="containsBlanks" dxfId="17" priority="18">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="14" priority="15">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="containsBlanks" dxfId="11" priority="12">
+      <formula>LEN(TRIM(E22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(E23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E24">
     <cfRule type="containsBlanks" dxfId="3" priority="6">
-      <formula>LEN(TRIM(E22))=0</formula>
+      <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E25">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E23))=0</formula>
+      <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E23" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E25" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17744,16 +17862,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -17801,7 +17919,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="41">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -17830,7 +17948,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17853,7 +17971,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -17876,7 +17994,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17899,7 +18017,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -17922,7 +18040,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -17945,7 +18063,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="41">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -17974,7 +18092,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17997,7 +18115,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18020,7 +18138,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="40"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18043,7 +18161,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18066,7 +18184,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18089,7 +18207,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -18112,7 +18230,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="41">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -18141,7 +18259,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18164,7 +18282,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="40"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18187,7 +18305,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -18210,7 +18328,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="41">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -18238,7 +18356,7 @@
       <c r="F21" s="25">
         <v>5</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18261,7 +18379,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18284,7 +18402,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="40"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -23414,7 +23532,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A9392-00ED-439C-8142-476CB124B8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE74DB-51E8-49B9-A5DF-232854613569}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="100">
   <si>
     <t>Bug Log</t>
   </si>
@@ -329,6 +329,9 @@
   <si>
     <t>bidding.php shows error as did not code what to display if there are no sections available.</t>
   </si>
+  <si>
+    <t>bid table not cleared during clearing</t>
+  </si>
 </sst>
 </file>
 
@@ -480,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -589,6 +592,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,59 +609,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -894,6 +848,89 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1388,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:H23"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1406,16 +1443,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -1993,18 +2030,34 @@
       <c r="A24" s="18">
         <v>22</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="23"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="str">
+      <c r="B24" s="24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="18">
         <f>IF($E24="Critical", 10, IF($E24="High",5, IF($E24="Low",1,"")))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>23</v>
       </c>
+      <c r="B25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
@@ -7111,59 +7164,64 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H2 H12:H21 H24:H1048576">
-    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="Stop current Development">
+  <conditionalFormatting sqref="H1:H2 H12:H21 H26:H1048576">
+    <cfRule type="containsText" dxfId="54" priority="24" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="49" priority="22" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="53" priority="23" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="48" priority="16" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="47" priority="14" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="49" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="43" priority="4" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="46" priority="4" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7179,8 +7237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7197,16 +7255,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -7847,10 +7905,10 @@
         <v>26</v>
       </c>
       <c r="F24" s="17">
-        <v>43687</v>
+        <v>43746</v>
       </c>
       <c r="G24" s="17">
-        <v>43687</v>
+        <v>43746</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>80</v>
@@ -7873,24 +7931,40 @@
         <v>26</v>
       </c>
       <c r="F25" s="17">
-        <v>43687</v>
+        <v>43746</v>
       </c>
       <c r="G25" s="17">
-        <v>43687</v>
+        <v>43746</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
+    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="12">
+        <v>43749</v>
+      </c>
+      <c r="G26" s="12">
+        <v>43750</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -17637,202 +17711,217 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="38" priority="51">
+    <cfRule type="containsBlanks" dxfId="40" priority="54">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="35" priority="36">
+    <cfRule type="containsBlanks" dxfId="37" priority="39">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="32" priority="33">
+    <cfRule type="containsBlanks" dxfId="34" priority="36">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="29" priority="30">
+    <cfRule type="containsBlanks" dxfId="31" priority="33">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="26" priority="27">
+    <cfRule type="containsBlanks" dxfId="28" priority="30">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="23" priority="24">
+    <cfRule type="containsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="20" priority="21">
+    <cfRule type="containsBlanks" dxfId="22" priority="24">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="17" priority="18">
+    <cfRule type="containsBlanks" dxfId="19" priority="21">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="14" priority="15">
+    <cfRule type="containsBlanks" dxfId="16" priority="18">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="11" priority="12">
+    <cfRule type="containsBlanks" dxfId="13" priority="15">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
+    <cfRule type="containsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
+      <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E25" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E26" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17862,16 +17951,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -17919,7 +18008,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="42">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -17948,7 +18037,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -17971,7 +18060,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -17994,7 +18083,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18017,7 +18106,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -18040,7 +18129,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="41"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -18063,7 +18152,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="42">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -18092,7 +18181,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18115,7 +18204,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="41"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18138,7 +18227,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="41"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18161,7 +18250,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="41"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18184,7 +18273,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="41"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18207,7 +18296,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="41"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -18230,7 +18319,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="42">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -18259,7 +18348,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18282,7 +18371,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18305,7 +18394,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="41"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -18328,7 +18417,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="42">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -18356,7 +18445,7 @@
       <c r="F21" s="25">
         <v>5</v>
       </c>
-      <c r="G21" s="41"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18379,7 +18468,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="41"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18402,7 +18491,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="41"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -23532,7 +23621,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EE5C52-D160-40F1-A1CA-3B2873625924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56303C5-67D7-4E4A-A52B-3506CA05E300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="103">
   <si>
     <t>Bug Log</t>
   </si>
@@ -335,6 +335,12 @@
   <si>
     <t>JT &amp; SA</t>
   </si>
+  <si>
+    <t>Admin Clearing</t>
+  </si>
+  <si>
+    <t>Failed bids are not added to Fail bid table</t>
+  </si>
 </sst>
 </file>
 
@@ -598,6 +604,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,38 +620,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -672,42 +657,23 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1012,6 +978,57 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1526,15 +1543,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:D28"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6328125" style="19" customWidth="1"/>
     <col min="2" max="2" width="8.36328125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="43" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="39" customWidth="1"/>
     <col min="4" max="4" width="74.453125" style="22" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" style="19" customWidth="1"/>
     <col min="6" max="6" width="6.36328125" style="19" customWidth="1"/>
@@ -1544,16 +1561,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -1588,7 +1605,7 @@
       <c r="B3" s="38">
         <v>1</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="22" t="s">
@@ -1614,7 +1631,7 @@
       <c r="B4" s="38">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -1640,7 +1657,7 @@
       <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -1666,7 +1683,7 @@
       <c r="B6" s="38">
         <v>1</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1692,7 +1709,7 @@
       <c r="B7" s="24">
         <v>1</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -1718,7 +1735,7 @@
       <c r="B8" s="24">
         <v>1</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -1744,7 +1761,7 @@
       <c r="B9" s="24">
         <v>1</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -1770,7 +1787,7 @@
       <c r="B10" s="24">
         <v>1</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -1796,7 +1813,7 @@
       <c r="B11" s="24">
         <v>1</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -1822,7 +1839,7 @@
       <c r="B12" s="24">
         <v>1</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -1848,7 +1865,7 @@
       <c r="B13" s="24">
         <v>1</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -1874,7 +1891,7 @@
       <c r="B14" s="24">
         <v>1</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -1900,7 +1917,7 @@
       <c r="B15" s="24">
         <v>1</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="22" t="s">
@@ -1926,7 +1943,7 @@
       <c r="B16" s="24">
         <v>2</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="40" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -2030,7 +2047,7 @@
       <c r="B20" s="8">
         <v>2</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="40" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -2056,7 +2073,7 @@
       <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="40" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="15" t="s">
@@ -2082,7 +2099,7 @@
       <c r="B22" s="8">
         <v>2</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="40" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="22" t="s">
@@ -2108,7 +2125,7 @@
       <c r="B23" s="8">
         <v>2</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="40" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="22" t="s">
@@ -2187,7 +2204,7 @@
       <c r="B26" s="8">
         <v>2</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="40" t="s">
         <v>87</v>
       </c>
       <c r="D26" s="22" t="s">
@@ -2239,7 +2256,7 @@
       <c r="B28" s="38">
         <v>2</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="39" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="22" t="s">
@@ -2258,9 +2275,30 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="18">
         <v>27</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="19">
+        <v>1</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -7348,79 +7386,84 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H2 H12:H21 H29:H1048576">
-    <cfRule type="containsText" dxfId="65" priority="29" operator="containsText" text="Stop current Development">
+  <conditionalFormatting sqref="H1:H2 H12:H21 H30:H1048576">
+    <cfRule type="containsText" dxfId="67" priority="30" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="64" priority="28" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="66" priority="29" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="63" priority="22" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="62" priority="20" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="64" priority="21" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="61" priority="16" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="59" priority="14" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="58" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="59" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="56" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="55" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:H27">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7436,8 +7479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7454,16 +7497,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -8198,7 +8241,7 @@
       <c r="B28" s="38">
         <v>2</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="39" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="22" t="s">
@@ -8218,150 +8261,322 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="11"/>
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="12">
+        <v>43752</v>
+      </c>
+      <c r="G29" s="12">
+        <v>43752</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11"/>
+      <c r="A30" s="30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="30">
+        <f>'Our Bug Metrics'!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="30">
+        <f>'Our Bug Metrics'!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="15">
+        <f>'Our Bug Metrics'!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="13"/>
+      <c r="A31" s="30">
+        <v>29</v>
+      </c>
+      <c r="B31" s="30">
+        <f>'Our Bug Metrics'!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="30">
+        <f>'Our Bug Metrics'!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="15">
+        <f>'Our Bug Metrics'!D31</f>
+        <v>0</v>
+      </c>
       <c r="E31" s="11"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="9"/>
+      <c r="A32" s="30">
+        <v>30</v>
+      </c>
+      <c r="B32" s="30">
+        <f>'Our Bug Metrics'!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="30">
+        <f>'Our Bug Metrics'!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="15">
+        <f>'Our Bug Metrics'!D32</f>
+        <v>0</v>
+      </c>
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="9"/>
+      <c r="A33" s="30">
+        <v>31</v>
+      </c>
+      <c r="B33" s="30">
+        <f>'Our Bug Metrics'!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="30">
+        <f>'Our Bug Metrics'!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="15">
+        <f>'Our Bug Metrics'!D33</f>
+        <v>0</v>
+      </c>
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="A34" s="30">
+        <v>32</v>
+      </c>
+      <c r="B34" s="30">
+        <f>'Our Bug Metrics'!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="30">
+        <f>'Our Bug Metrics'!C34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
+        <f>'Our Bug Metrics'!D34</f>
+        <v>0</v>
+      </c>
       <c r="E34" s="11"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="13"/>
+      <c r="A35" s="30">
+        <v>33</v>
+      </c>
+      <c r="B35" s="30">
+        <f>'Our Bug Metrics'!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="30">
+        <f>'Our Bug Metrics'!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="15">
+        <f>'Our Bug Metrics'!D35</f>
+        <v>0</v>
+      </c>
       <c r="E35" s="11"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="A36" s="30">
+        <v>34</v>
+      </c>
+      <c r="B36" s="30">
+        <f>'Our Bug Metrics'!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="30">
+        <f>'Our Bug Metrics'!C36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="15">
+        <f>'Our Bug Metrics'!D36</f>
+        <v>0</v>
+      </c>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="A37" s="30">
+        <v>35</v>
+      </c>
+      <c r="B37" s="30">
+        <f>'Our Bug Metrics'!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="30">
+        <f>'Our Bug Metrics'!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="15">
+        <f>'Our Bug Metrics'!D37</f>
+        <v>0</v>
+      </c>
       <c r="E37" s="11"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="30">
+        <v>36</v>
+      </c>
+      <c r="B38" s="30">
+        <f>'Our Bug Metrics'!B38</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="30">
+        <f>'Our Bug Metrics'!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="15">
+        <f>'Our Bug Metrics'!D38</f>
+        <v>0</v>
+      </c>
       <c r="E38" s="11"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="13"/>
+      <c r="A39" s="30">
+        <f>'Our Bug Metrics'!B39</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="30">
+        <f>'Our Bug Metrics'!B39</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="30">
+        <f>'Our Bug Metrics'!C39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="15">
+        <f>'Our Bug Metrics'!D39</f>
+        <v>0</v>
+      </c>
       <c r="E39" s="11"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
+      <c r="A40" s="30">
+        <f>'Our Bug Metrics'!B40</f>
+        <v>0</v>
+      </c>
+      <c r="B40" s="30">
+        <f>'Our Bug Metrics'!B40</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="30">
+        <f>'Our Bug Metrics'!C40</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="15">
+        <f>'Our Bug Metrics'!D40</f>
+        <v>0</v>
+      </c>
       <c r="E40" s="11"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
+      <c r="A41" s="30">
+        <f>'Our Bug Metrics'!B41</f>
+        <v>0</v>
+      </c>
+      <c r="B41" s="30">
+        <f>'Our Bug Metrics'!B41</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="30">
+        <f>'Our Bug Metrics'!C41</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="15">
+        <f>'Our Bug Metrics'!D41</f>
+        <v>0</v>
+      </c>
       <c r="E41" s="11"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
+      <c r="A42" s="30">
+        <f>'Our Bug Metrics'!B42</f>
+        <v>0</v>
+      </c>
+      <c r="B42" s="30">
+        <f>'Our Bug Metrics'!B42</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="30">
+        <f>'Our Bug Metrics'!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="15">
+        <f>'Our Bug Metrics'!D42</f>
+        <v>0</v>
+      </c>
       <c r="E42" s="11"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="30">
+        <f>'Our Bug Metrics'!B43</f>
+        <v>0</v>
+      </c>
+      <c r="B43" s="30">
+        <f>'Our Bug Metrics'!B43</f>
+        <v>0</v>
+      </c>
       <c r="C43" s="8"/>
-      <c r="D43" s="13"/>
+      <c r="D43" s="15">
+        <f>'Our Bug Metrics'!D43</f>
+        <v>0</v>
+      </c>
       <c r="E43" s="11"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -8371,7 +8586,10 @@
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
+      <c r="D44" s="15">
+        <f>'Our Bug Metrics'!D44</f>
+        <v>0</v>
+      </c>
       <c r="E44" s="11"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -17942,232 +18160,262 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="51" priority="57">
+    <cfRule type="containsBlanks" dxfId="50" priority="63">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="50" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="48" priority="42">
+    <cfRule type="containsBlanks" dxfId="47" priority="48">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="45" priority="39">
+    <cfRule type="containsBlanks" dxfId="44" priority="45">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="42" priority="36">
+    <cfRule type="containsBlanks" dxfId="41" priority="42">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="39" priority="33">
+    <cfRule type="containsBlanks" dxfId="38" priority="39">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="36" priority="30">
+    <cfRule type="containsBlanks" dxfId="35" priority="36">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="33" priority="27">
+    <cfRule type="containsBlanks" dxfId="32" priority="33">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="30" priority="24">
+    <cfRule type="containsBlanks" dxfId="29" priority="30">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="27" priority="21">
+    <cfRule type="containsBlanks" dxfId="26" priority="27">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="24" priority="18">
+    <cfRule type="containsBlanks" dxfId="23" priority="24">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="21" priority="15">
+    <cfRule type="containsBlanks" dxfId="20" priority="21">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsBlanks" dxfId="18" priority="12">
+    <cfRule type="containsBlanks" dxfId="17" priority="18">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsBlanks" dxfId="15" priority="9">
+    <cfRule type="containsBlanks" dxfId="14" priority="15">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsBlanks" dxfId="12" priority="6">
+    <cfRule type="containsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(E28))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
+      <formula>LEN(TRIM(E29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E30">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E30">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E28))=0</formula>
+      <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E28" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E30" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18197,16 +18445,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -18254,7 +18502,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="44">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -18283,7 +18531,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18306,7 +18554,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -18329,7 +18577,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18352,7 +18600,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="42"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -18375,7 +18623,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -18398,7 +18646,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="44">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -18427,7 +18675,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="42"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18450,7 +18698,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="42"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18473,7 +18721,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18496,7 +18744,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="42"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18519,7 +18767,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="42"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18542,7 +18790,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -18565,7 +18813,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="44">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -18594,7 +18842,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="42"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18617,7 +18865,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="42"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18640,7 +18888,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="42"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -18663,7 +18911,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="44">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -18691,7 +18939,7 @@
       <c r="F21" s="25">
         <v>5</v>
       </c>
-      <c r="G21" s="42"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18714,7 +18962,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="42"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -18737,7 +18985,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="42"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -23867,7 +24115,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56303C5-67D7-4E4A-A52B-3506CA05E300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B0285-D68A-46A8-8BD3-E42ED2230742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="108">
   <si>
     <t>Bug Log</t>
   </si>
@@ -341,6 +341,21 @@
   <si>
     <t>Failed bids are not added to Fail bid table</t>
   </si>
+  <si>
+    <t>Start round message prints 0 when round is 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did not update student's bid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON Start </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON Stop </t>
+  </si>
+  <si>
+    <t>Did not properly print out message with []</t>
+  </si>
 </sst>
 </file>
 
@@ -602,13 +617,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -624,7 +639,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -657,6 +693,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -674,6 +720,16 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -999,6 +1055,58 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1543,19 +1651,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6328125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="38" customWidth="1"/>
     <col min="4" max="4" width="74.453125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="6.36328125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="40" customWidth="1"/>
     <col min="8" max="8" width="34.453125" style="19" customWidth="1"/>
     <col min="9" max="16384" width="14.453125" style="19"/>
   </cols>
@@ -1602,22 +1710,22 @@
       <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="40">
         <v>5</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="40">
         <v>5</v>
       </c>
       <c r="H3" s="22" t="s">
@@ -1628,22 +1736,22 @@
       <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="40">
         <v>5</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="40">
         <v>5</v>
       </c>
       <c r="H4" s="22" t="s">
@@ -1654,22 +1762,22 @@
       <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="37">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="40">
         <v>1</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="40">
         <v>1</v>
       </c>
       <c r="H5" s="22" t="s">
@@ -1680,22 +1788,22 @@
       <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="37">
         <v>1</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="40">
         <v>1</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="40">
         <v>1</v>
       </c>
       <c r="H6" s="22" t="s">
@@ -1709,19 +1817,19 @@
       <c r="B7" s="24">
         <v>1</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="40">
         <v>1</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="40">
         <v>1</v>
       </c>
       <c r="H7" s="22" t="s">
@@ -1735,19 +1843,19 @@
       <c r="B8" s="24">
         <v>1</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="40">
         <v>5</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="40">
         <v>5</v>
       </c>
       <c r="H8" s="22" t="s">
@@ -1761,19 +1869,19 @@
       <c r="B9" s="24">
         <v>1</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="40">
         <v>5</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="40">
         <v>5</v>
       </c>
       <c r="H9" s="22" t="s">
@@ -1787,19 +1895,19 @@
       <c r="B10" s="24">
         <v>1</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="40">
         <v>5</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="40">
         <v>5</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -1813,19 +1921,19 @@
       <c r="B11" s="24">
         <v>1</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="40">
         <v>1</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="40">
         <v>1</v>
       </c>
       <c r="H11" s="22" t="s">
@@ -1839,19 +1947,19 @@
       <c r="B12" s="24">
         <v>1</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="40">
         <v>1</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="40">
         <v>1</v>
       </c>
       <c r="H12" s="22" t="s">
@@ -1865,19 +1973,19 @@
       <c r="B13" s="24">
         <v>1</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="40">
         <v>5</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="40">
         <v>5</v>
       </c>
       <c r="H13" s="22" t="s">
@@ -1891,19 +1999,19 @@
       <c r="B14" s="24">
         <v>1</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="40">
         <v>5</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="40">
         <v>5</v>
       </c>
       <c r="H14" s="22" t="s">
@@ -1917,19 +2025,19 @@
       <c r="B15" s="24">
         <v>1</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="40">
         <v>1</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="40">
         <v>1</v>
       </c>
       <c r="H15" s="22" t="s">
@@ -1943,19 +2051,19 @@
       <c r="B16" s="24">
         <v>2</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="40">
         <v>1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="40">
         <v>1</v>
       </c>
       <c r="H16" s="22" t="s">
@@ -1975,13 +2083,13 @@
       <c r="D17" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="40">
         <v>5</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="40">
         <v>5</v>
       </c>
       <c r="H17" s="22" t="s">
@@ -2001,13 +2109,13 @@
       <c r="D18" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="40">
         <v>1</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="40">
         <v>1</v>
       </c>
       <c r="H18" s="22" t="s">
@@ -2027,13 +2135,13 @@
       <c r="D19" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="40">
         <v>1</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="40">
         <v>1</v>
       </c>
       <c r="H19" s="22" t="s">
@@ -2047,19 +2155,19 @@
       <c r="B20" s="8">
         <v>2</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="40">
         <v>1</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="40">
         <v>1</v>
       </c>
       <c r="H20" s="22" t="s">
@@ -2073,19 +2181,19 @@
       <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="40">
         <v>1</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="40">
         <v>1</v>
       </c>
       <c r="H21" s="22" t="s">
@@ -2099,19 +2207,19 @@
       <c r="B22" s="8">
         <v>2</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="40">
         <v>1</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="40">
         <v>1</v>
       </c>
       <c r="H22" s="22" t="s">
@@ -2125,19 +2233,19 @@
       <c r="B23" s="8">
         <v>2</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="39" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="40">
         <v>1</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="40">
         <v>1</v>
       </c>
       <c r="H23" s="22" t="s">
@@ -2157,14 +2265,14 @@
       <c r="D24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="40">
         <f>IF($E24="Critical", 10, IF($E24="High",5, IF($E24="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="40">
         <v>1</v>
       </c>
       <c r="H24" s="22" t="s">
@@ -2184,13 +2292,13 @@
       <c r="D25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="40">
         <v>1</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="40">
         <v>1</v>
       </c>
       <c r="H25" s="22" t="s">
@@ -2204,19 +2312,19 @@
       <c r="B26" s="8">
         <v>2</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="39" t="s">
         <v>87</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="40">
         <v>1</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="40">
         <v>1</v>
       </c>
       <c r="H26" s="22" t="s">
@@ -2236,13 +2344,13 @@
       <c r="D27" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="40">
         <v>1</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="40">
         <v>1</v>
       </c>
       <c r="H27" s="22" t="s">
@@ -2253,22 +2361,22 @@
       <c r="A28" s="18">
         <v>26</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="37">
         <v>2</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="40">
         <v>1</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="40">
         <v>1</v>
       </c>
       <c r="H28" s="22" t="s">
@@ -2288,13 +2396,13 @@
       <c r="D29" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="40">
         <v>1</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="40">
         <v>1</v>
       </c>
       <c r="H29" s="22" t="s">
@@ -2305,33 +2413,78 @@
       <c r="A30" s="18">
         <v>28</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18" t="str">
-        <f t="shared" ref="F30:F200" si="0">IF($E30="Critical", 10, IF($E30="High",5, IF($E30="Low",1,"")))</f>
-        <v/>
+      <c r="B30" s="24">
+        <v>3</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="40">
+        <v>1</v>
+      </c>
+      <c r="G30" s="40">
+        <v>1</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>29</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B31" s="24">
+        <v>3</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="40">
+        <v>1</v>
+      </c>
+      <c r="G31" s="40">
+        <v>1</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B32" s="24">
+        <v>3</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="40">
+        <v>1</v>
+      </c>
+      <c r="G32" s="40">
+        <v>1</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
@@ -2339,9 +2492,8 @@
         <v>31</v>
       </c>
       <c r="B33" s="24"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="F33" s="40" t="str">
+        <f t="shared" ref="F30:F200" si="0">IF($E33="Critical", 10, IF($E33="High",5, IF($E33="Low",1,"")))</f>
         <v/>
       </c>
     </row>
@@ -2350,8 +2502,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="24"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18" t="str">
+      <c r="F34" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2361,8 +2512,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="24"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18" t="str">
+      <c r="F35" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2372,8 +2522,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="24"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18" t="str">
+      <c r="F36" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2383,8 +2532,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="24"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18" t="str">
+      <c r="F37" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2394,8 +2542,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="24"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18" t="str">
+      <c r="F38" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2405,8 +2552,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="24"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18" t="str">
+      <c r="F39" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2416,8 +2562,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="24"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18" t="str">
+      <c r="F40" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2427,8 +2572,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="24"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18" t="str">
+      <c r="F41" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2438,8 +2582,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="24"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18" t="str">
+      <c r="F42" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2449,8 +2592,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="24"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18" t="str">
+      <c r="F43" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2460,8 +2602,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="24"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18" t="str">
+      <c r="F44" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2471,8 +2612,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="24"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18" t="str">
+      <c r="F45" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2482,8 +2622,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="24"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18" t="str">
+      <c r="F46" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2493,8 +2632,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="24"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18" t="str">
+      <c r="F47" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2504,8 +2642,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="24"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18" t="str">
+      <c r="F48" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2515,8 +2652,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="24"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18" t="str">
+      <c r="F49" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2526,8 +2662,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="24"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18" t="str">
+      <c r="F50" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2537,8 +2672,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="24"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18" t="str">
+      <c r="F51" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2548,8 +2682,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="24"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18" t="str">
+      <c r="F52" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2559,8 +2692,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="24"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18" t="str">
+      <c r="F53" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2570,8 +2702,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="24"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18" t="str">
+      <c r="F54" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2581,8 +2712,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="24"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18" t="str">
+      <c r="F55" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2592,8 +2722,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="24"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18" t="str">
+      <c r="F56" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2603,8 +2732,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="24"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18" t="str">
+      <c r="F57" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2614,8 +2742,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="24"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18" t="str">
+      <c r="F58" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2625,8 +2752,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="24"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18" t="str">
+      <c r="F59" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2636,8 +2762,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="24"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18" t="str">
+      <c r="F60" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2647,8 +2772,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="24"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18" t="str">
+      <c r="F61" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2658,8 +2782,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="24"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18" t="str">
+      <c r="F62" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2669,8 +2792,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="24"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18" t="str">
+      <c r="F63" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2680,8 +2802,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="24"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18" t="str">
+      <c r="F64" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2691,8 +2812,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="24"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18" t="str">
+      <c r="F65" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2702,8 +2822,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="24"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18" t="str">
+      <c r="F66" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2713,8 +2832,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="24"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18" t="str">
+      <c r="F67" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2724,8 +2842,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="24"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18" t="str">
+      <c r="F68" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2735,8 +2852,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="24"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18" t="str">
+      <c r="F69" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2746,8 +2862,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="24"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18" t="str">
+      <c r="F70" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2757,8 +2872,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="24"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18" t="str">
+      <c r="F71" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2768,8 +2882,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="24"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18" t="str">
+      <c r="F72" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2779,8 +2892,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="24"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18" t="str">
+      <c r="F73" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2790,8 +2902,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="24"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18" t="str">
+      <c r="F74" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2801,8 +2912,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="24"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18" t="str">
+      <c r="F75" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2812,8 +2922,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="24"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18" t="str">
+      <c r="F76" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2823,8 +2932,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="24"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18" t="str">
+      <c r="F77" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2834,8 +2942,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="24"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18" t="str">
+      <c r="F78" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2845,8 +2952,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="24"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18" t="str">
+      <c r="F79" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2856,8 +2962,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="24"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18" t="str">
+      <c r="F80" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2867,8 +2972,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="24"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18" t="str">
+      <c r="F81" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2878,8 +2982,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="24"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18" t="str">
+      <c r="F82" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2889,8 +2992,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="24"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18" t="str">
+      <c r="F83" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2900,8 +3002,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="24"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18" t="str">
+      <c r="F84" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2911,8 +3012,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="24"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18" t="str">
+      <c r="F85" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2922,8 +3022,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="24"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18" t="str">
+      <c r="F86" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2933,8 +3032,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="24"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18" t="str">
+      <c r="F87" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2944,8 +3042,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="24"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18" t="str">
+      <c r="F88" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2955,8 +3052,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="24"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18" t="str">
+      <c r="F89" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2966,8 +3062,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="24"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18" t="str">
+      <c r="F90" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2977,8 +3072,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="24"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18" t="str">
+      <c r="F91" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2988,8 +3082,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="24"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18" t="str">
+      <c r="F92" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2999,8 +3092,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="24"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18" t="str">
+      <c r="F93" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3010,8 +3102,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="24"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18" t="str">
+      <c r="F94" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3021,8 +3112,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="24"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18" t="str">
+      <c r="F95" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3032,8 +3122,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="24"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18" t="str">
+      <c r="F96" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3043,8 +3132,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="24"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18" t="str">
+      <c r="F97" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3054,8 +3142,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="24"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18" t="str">
+      <c r="F98" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3065,8 +3152,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="24"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18" t="str">
+      <c r="F99" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3076,8 +3162,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="24"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18" t="str">
+      <c r="F100" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3087,8 +3172,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="24"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18" t="str">
+      <c r="F101" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3098,8 +3182,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="24"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18" t="str">
+      <c r="F102" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3109,8 +3192,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="24"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18" t="str">
+      <c r="F103" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3120,8 +3202,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="24"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18" t="str">
+      <c r="F104" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3131,8 +3212,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="24"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18" t="str">
+      <c r="F105" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3142,8 +3222,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="24"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18" t="str">
+      <c r="F106" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3153,8 +3232,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="24"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18" t="str">
+      <c r="F107" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3164,8 +3242,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="24"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18" t="str">
+      <c r="F108" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3175,8 +3252,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="24"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18" t="str">
+      <c r="F109" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3186,8 +3262,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="24"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18" t="str">
+      <c r="F110" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3197,8 +3272,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="24"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18" t="str">
+      <c r="F111" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3208,8 +3282,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="24"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18" t="str">
+      <c r="F112" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3219,8 +3292,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="24"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18" t="str">
+      <c r="F113" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3230,8 +3302,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="24"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18" t="str">
+      <c r="F114" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3241,8 +3312,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="24"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18" t="str">
+      <c r="F115" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3252,8 +3322,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="24"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18" t="str">
+      <c r="F116" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3263,8 +3332,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="24"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18" t="str">
+      <c r="F117" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3274,8 +3342,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="24"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18" t="str">
+      <c r="F118" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3285,8 +3352,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="24"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18" t="str">
+      <c r="F119" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3296,8 +3362,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="24"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18" t="str">
+      <c r="F120" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3307,8 +3372,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="24"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18" t="str">
+      <c r="F121" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3318,8 +3382,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="24"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18" t="str">
+      <c r="F122" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3329,8 +3392,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="24"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18" t="str">
+      <c r="F123" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3340,8 +3402,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="24"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18" t="str">
+      <c r="F124" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3351,8 +3412,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="24"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18" t="str">
+      <c r="F125" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3362,8 +3422,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="24"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18" t="str">
+      <c r="F126" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3373,8 +3432,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="24"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18" t="str">
+      <c r="F127" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3384,8 +3442,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="24"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18" t="str">
+      <c r="F128" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3395,8 +3452,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="24"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18" t="str">
+      <c r="F129" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3406,8 +3462,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="24"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18" t="str">
+      <c r="F130" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3417,8 +3472,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="24"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18" t="str">
+      <c r="F131" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3428,8 +3482,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="24"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18" t="str">
+      <c r="F132" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3439,8 +3492,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="24"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18" t="str">
+      <c r="F133" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3450,8 +3502,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="24"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18" t="str">
+      <c r="F134" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3461,8 +3512,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="24"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18" t="str">
+      <c r="F135" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3472,8 +3522,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="24"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18" t="str">
+      <c r="F136" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3483,8 +3532,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="24"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18" t="str">
+      <c r="F137" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3494,8 +3542,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="24"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18" t="str">
+      <c r="F138" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3505,8 +3552,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="24"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18" t="str">
+      <c r="F139" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3516,8 +3562,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="24"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18" t="str">
+      <c r="F140" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3527,8 +3572,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="24"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18" t="str">
+      <c r="F141" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3538,8 +3582,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="24"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18" t="str">
+      <c r="F142" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3549,8 +3592,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="24"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18" t="str">
+      <c r="F143" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3560,8 +3602,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="24"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18" t="str">
+      <c r="F144" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3571,8 +3612,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="24"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18" t="str">
+      <c r="F145" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3582,8 +3622,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="24"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18" t="str">
+      <c r="F146" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3593,8 +3632,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="24"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18" t="str">
+      <c r="F147" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3604,8 +3642,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="24"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18" t="str">
+      <c r="F148" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3615,8 +3652,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="24"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18" t="str">
+      <c r="F149" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3626,8 +3662,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="24"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18" t="str">
+      <c r="F150" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3637,8 +3672,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="24"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18" t="str">
+      <c r="F151" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3648,8 +3682,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="24"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18" t="str">
+      <c r="F152" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3659,8 +3692,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="24"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18" t="str">
+      <c r="F153" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3670,8 +3702,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="24"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18" t="str">
+      <c r="F154" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3681,8 +3712,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="24"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18" t="str">
+      <c r="F155" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3692,8 +3722,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="24"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18" t="str">
+      <c r="F156" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3703,8 +3732,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="24"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18" t="str">
+      <c r="F157" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3714,8 +3742,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="24"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18" t="str">
+      <c r="F158" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3725,8 +3752,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="24"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18" t="str">
+      <c r="F159" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3736,8 +3762,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="24"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18" t="str">
+      <c r="F160" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3747,8 +3772,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="24"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18" t="str">
+      <c r="F161" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3758,8 +3782,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="24"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18" t="str">
+      <c r="F162" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3769,8 +3792,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="24"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18" t="str">
+      <c r="F163" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3780,8 +3802,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="24"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18" t="str">
+      <c r="F164" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3791,8 +3812,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="24"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18" t="str">
+      <c r="F165" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3802,8 +3822,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="24"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18" t="str">
+      <c r="F166" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3813,8 +3832,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="24"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18" t="str">
+      <c r="F167" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3824,8 +3842,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="24"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18" t="str">
+      <c r="F168" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3835,8 +3852,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="24"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18" t="str">
+      <c r="F169" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3846,8 +3862,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="24"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18" t="str">
+      <c r="F170" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3857,8 +3872,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="24"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18" t="str">
+      <c r="F171" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3868,8 +3882,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="24"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18" t="str">
+      <c r="F172" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3879,8 +3892,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="24"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18" t="str">
+      <c r="F173" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3890,8 +3902,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="24"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18" t="str">
+      <c r="F174" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3901,8 +3912,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="24"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18" t="str">
+      <c r="F175" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3912,8 +3922,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="24"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18" t="str">
+      <c r="F176" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3923,8 +3932,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="24"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18" t="str">
+      <c r="F177" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3934,8 +3942,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="24"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18" t="str">
+      <c r="F178" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3945,8 +3952,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="24"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18" t="str">
+      <c r="F179" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3956,8 +3962,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="24"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18" t="str">
+      <c r="F180" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3967,8 +3972,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="24"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18" t="str">
+      <c r="F181" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3978,8 +3982,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="24"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18" t="str">
+      <c r="F182" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3989,8 +3992,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="24"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="18" t="str">
+      <c r="F183" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4000,8 +4002,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="24"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18" t="str">
+      <c r="F184" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4011,8 +4012,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="24"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="18" t="str">
+      <c r="F185" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4022,8 +4022,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="24"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18" t="str">
+      <c r="F186" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4033,8 +4032,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="24"/>
-      <c r="E187" s="18"/>
-      <c r="F187" s="18" t="str">
+      <c r="F187" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4044,8 +4042,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="24"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="18" t="str">
+      <c r="F188" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4055,8 +4052,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="24"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18" t="str">
+      <c r="F189" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4066,8 +4062,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="24"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18" t="str">
+      <c r="F190" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4077,8 +4072,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="24"/>
-      <c r="E191" s="18"/>
-      <c r="F191" s="18" t="str">
+      <c r="F191" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4088,8 +4082,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="24"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="18" t="str">
+      <c r="F192" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4099,8 +4092,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="24"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18" t="str">
+      <c r="F193" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4110,8 +4102,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="24"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18" t="str">
+      <c r="F194" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4121,8 +4112,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="24"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18" t="str">
+      <c r="F195" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4132,8 +4122,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="24"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18" t="str">
+      <c r="F196" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4143,8 +4132,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="24"/>
-      <c r="E197" s="18"/>
-      <c r="F197" s="18" t="str">
+      <c r="F197" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4154,8 +4142,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="24"/>
-      <c r="E198" s="18"/>
-      <c r="F198" s="18" t="str">
+      <c r="F198" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4165,8 +4152,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="24"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18" t="str">
+      <c r="F199" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4176,8 +4162,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="24"/>
-      <c r="E200" s="18"/>
-      <c r="F200" s="18" t="str">
+      <c r="F200" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7386,84 +7371,99 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H2 H12:H21 H30:H1048576">
-    <cfRule type="containsText" dxfId="67" priority="30" operator="containsText" text="Stop current Development">
+  <conditionalFormatting sqref="H1:H2 H12:H21 H33:H1048576">
+    <cfRule type="containsText" dxfId="79" priority="33" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="66" priority="29" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="78" priority="32" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="77" priority="26" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="64" priority="21" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="76" priority="24" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="75" priority="20" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="74" priority="19" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="73" priority="18" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="72" priority="14" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="59" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="70" priority="12" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23">
-    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="68" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="55" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:H27">
-    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7479,8 +7479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8238,10 +8238,10 @@
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="37">
         <v>2</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="22" t="s">
@@ -8292,20 +8292,28 @@
       </c>
       <c r="B30" s="30">
         <f>'Our Bug Metrics'!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="30" t="str">
         <f>'Our Bug Metrics'!C30</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="15">
+        <v xml:space="preserve">JSON Start </v>
+      </c>
+      <c r="D30" s="15" t="str">
         <f>'Our Bug Metrics'!D30</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="16"/>
+        <v>Start round message prints 0 when round is 2</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="12">
+        <v>43753</v>
+      </c>
+      <c r="G30" s="12">
+        <v>43753</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="30">
@@ -8313,20 +8321,28 @@
       </c>
       <c r="B31" s="30">
         <f>'Our Bug Metrics'!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="30">
+        <v>3</v>
+      </c>
+      <c r="C31" s="30" t="str">
         <f>'Our Bug Metrics'!C31</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="15">
+        <v xml:space="preserve">JSON Stop </v>
+      </c>
+      <c r="D31" s="15" t="str">
         <f>'Our Bug Metrics'!D31</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="11"/>
+        <v xml:space="preserve">Did not update student's bid </v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="12">
+        <v>43753</v>
+      </c>
+      <c r="G31" s="12">
+        <v>43753</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="30">
@@ -8334,20 +8350,28 @@
       </c>
       <c r="B32" s="30">
         <f>'Our Bug Metrics'!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="30">
+        <v>3</v>
+      </c>
+      <c r="C32" s="30" t="str">
         <f>'Our Bug Metrics'!C32</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="15">
+        <v xml:space="preserve">JSON Start </v>
+      </c>
+      <c r="D32" s="15" t="str">
         <f>'Our Bug Metrics'!D32</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11"/>
+        <v>Did not properly print out message with []</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="12">
+        <v>43753</v>
+      </c>
+      <c r="G32" s="12">
+        <v>43753</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="30">
@@ -18160,262 +18184,292 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="52" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="51" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="50" priority="63">
+    <cfRule type="containsBlanks" dxfId="61" priority="72">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="49" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="47" priority="48">
+    <cfRule type="containsBlanks" dxfId="58" priority="57">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="44" priority="45">
+    <cfRule type="containsBlanks" dxfId="55" priority="54">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="41" priority="42">
+    <cfRule type="containsBlanks" dxfId="52" priority="51">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="38" priority="39">
+    <cfRule type="containsBlanks" dxfId="49" priority="48">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="35" priority="36">
+    <cfRule type="containsBlanks" dxfId="46" priority="45">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="32" priority="33">
+    <cfRule type="containsBlanks" dxfId="43" priority="42">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="29" priority="30">
+    <cfRule type="containsBlanks" dxfId="40" priority="39">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="26" priority="27">
+    <cfRule type="containsBlanks" dxfId="37" priority="36">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="23" priority="24">
+    <cfRule type="containsBlanks" dxfId="34" priority="33">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="20" priority="21">
+    <cfRule type="containsBlanks" dxfId="31" priority="30">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsBlanks" dxfId="17" priority="18">
+    <cfRule type="containsBlanks" dxfId="28" priority="27">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsBlanks" dxfId="14" priority="15">
+    <cfRule type="containsBlanks" dxfId="25" priority="24">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsBlanks" dxfId="11" priority="12">
+    <cfRule type="containsBlanks" dxfId="22" priority="21">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="containsBlanks" dxfId="19" priority="18">
+      <formula>LEN(TRIM(E28))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="containsBlanks" dxfId="16" priority="15">
+      <formula>LEN(TRIM(E29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
     <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E30">
     <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E30">
     <cfRule type="containsBlanks" dxfId="8" priority="9">
-      <formula>LEN(TRIM(E28))=0</formula>
+      <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
-      <formula>LEN(TRIM(E29))=0</formula>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
+      <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E32">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E30))=0</formula>
+      <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E30" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E32" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24115,7 +24169,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B0285-D68A-46A8-8BD3-E42ED2230742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1C545F-1EFD-432A-9DA9-9E9576B73C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,44 +641,22 @@
   </cellStyles>
   <dxfs count="80">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -724,22 +702,23 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1260,6 +1239,36 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1651,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2209,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -2214,16 +2223,16 @@
         <v>91</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F22" s="40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G22" s="40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -2252,7 +2261,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -2266,17 +2275,17 @@
         <v>93</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F24" s="40">
         <f>IF($E24="Critical", 10, IF($E24="High",5, IF($E24="Low",1,"")))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G24" s="40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2305,7 +2314,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -2319,16 +2328,16 @@
         <v>95</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F26" s="40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26" s="40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -2397,13 +2406,13 @@
         <v>102</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F29" s="40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G29" s="40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>64</v>
@@ -2487,17 +2496,21 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>31</v>
       </c>
       <c r="B33" s="24"/>
       <c r="F33" s="40" t="str">
-        <f t="shared" ref="F30:F200" si="0">IF($E33="Critical", 10, IF($E33="High",5, IF($E33="Low",1,"")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F33:F200" si="0">IF($E33="Critical", 10, IF($E33="High",5, IF($E33="Low",1,"")))</f>
+        <v/>
+      </c>
+      <c r="G33" s="40">
+        <f>SUM(G3:G32)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>32</v>
       </c>
@@ -2507,7 +2520,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -2517,7 +2530,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>34</v>
       </c>
@@ -2527,7 +2540,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>35</v>
       </c>
@@ -2537,7 +2550,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -2547,7 +2560,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>37</v>
       </c>
@@ -2557,7 +2570,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>38</v>
       </c>
@@ -2567,7 +2580,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>39</v>
       </c>
@@ -2577,7 +2590,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -2587,7 +2600,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>41</v>
       </c>
@@ -2597,7 +2610,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>42</v>
       </c>
@@ -2607,7 +2620,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>43</v>
       </c>
@@ -2617,7 +2630,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -2627,7 +2640,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>45</v>
       </c>
@@ -2637,7 +2650,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>46</v>
       </c>
@@ -7372,98 +7385,108 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2 H12:H21 H33:H1048576">
-    <cfRule type="containsText" dxfId="79" priority="33" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="79" priority="36" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="78" priority="32" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="78" priority="35" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="77" priority="26" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="77" priority="29" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="76" priority="24" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="76" priority="27" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="75" priority="20" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="74" priority="19" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="74" priority="22" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="73" priority="18" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="72" priority="14" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="71" priority="16" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="70" priority="12" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="70" priority="15" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
-    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="Stop current Development">
+  <conditionalFormatting sqref="H23">
+    <cfRule type="containsText" dxfId="69" priority="14" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="67" priority="12" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="66" priority="9" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="65" priority="8" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="64" priority="7" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="63" priority="6" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="68" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="Stop current Development">
-      <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H27">
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Stop current Development">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="Stop current Development">
-      <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="Stop current Development">
-      <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Stop current Development">
-      <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Stop current Development">
-      <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Stop current Development">
-      <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7479,8 +7502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:H32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18184,287 +18207,287 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="63" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="62" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="61" priority="72">
+    <cfRule type="containsBlanks" dxfId="58" priority="72">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="60" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="59" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="58" priority="57">
+    <cfRule type="containsBlanks" dxfId="55" priority="57">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="57" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="55" priority="54">
+    <cfRule type="containsBlanks" dxfId="52" priority="54">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="54" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="53" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="52" priority="51">
+    <cfRule type="containsBlanks" dxfId="49" priority="51">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="51" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="50" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="49" priority="48">
+    <cfRule type="containsBlanks" dxfId="46" priority="48">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="46" priority="45">
+    <cfRule type="containsBlanks" dxfId="43" priority="45">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="43" priority="42">
+    <cfRule type="containsBlanks" dxfId="40" priority="42">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="42" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="40" priority="39">
+    <cfRule type="containsBlanks" dxfId="37" priority="39">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="39" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="37" priority="36">
+    <cfRule type="containsBlanks" dxfId="34" priority="36">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="34" priority="33">
+    <cfRule type="containsBlanks" dxfId="31" priority="33">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="33" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="31" priority="30">
+    <cfRule type="containsBlanks" dxfId="28" priority="30">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsBlanks" dxfId="28" priority="27">
+    <cfRule type="containsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsBlanks" dxfId="25" priority="24">
+    <cfRule type="containsBlanks" dxfId="22" priority="24">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsBlanks" dxfId="22" priority="21">
+    <cfRule type="containsBlanks" dxfId="19" priority="21">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsBlanks" dxfId="19" priority="18">
+    <cfRule type="containsBlanks" dxfId="16" priority="18">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="16" priority="15">
+    <cfRule type="containsBlanks" dxfId="13" priority="15">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
+    <cfRule type="containsBlanks" dxfId="10" priority="9">
       <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="7" priority="6">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
+    <cfRule type="containsBlanks" dxfId="4" priority="3">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18474,6 +18497,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24169,7 +24193,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1C545F-1EFD-432A-9DA9-9E9576B73C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C755E618-F6C1-4885-8863-85E24EF5B8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="110">
   <si>
     <t>Bug Log</t>
   </si>
@@ -356,6 +356,12 @@
   <si>
     <t>Did not properly print out message with []</t>
   </si>
+  <si>
+    <t>Round 1 Clearing</t>
+  </si>
+  <si>
+    <t>added student object instead of bid object into fail_bid table</t>
+  </si>
 </sst>
 </file>
 
@@ -639,24 +645,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="83">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1269,6 +1276,26 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1660,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A15" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2496,31 +2523,43 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>31</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="F33" s="40" t="str">
-        <f t="shared" ref="F33:F200" si="0">IF($E33="Critical", 10, IF($E33="High",5, IF($E33="Low",1,"")))</f>
-        <v/>
+      <c r="B33" s="24">
+        <v>3</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="40">
+        <v>1</v>
       </c>
       <c r="G33" s="40">
-        <f>SUM(G3:G32)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>32</v>
       </c>
       <c r="B34" s="24"/>
       <c r="F34" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F33:F200" si="0">IF($E34="Critical", 10, IF($E34="High",5, IF($E34="Low",1,"")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -2530,7 +2569,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>34</v>
       </c>
@@ -2540,7 +2579,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>35</v>
       </c>
@@ -2550,7 +2589,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -2560,7 +2599,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>37</v>
       </c>
@@ -2570,7 +2609,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>38</v>
       </c>
@@ -2580,7 +2619,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>39</v>
       </c>
@@ -2590,7 +2629,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -2600,7 +2639,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>41</v>
       </c>
@@ -2610,7 +2649,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>42</v>
       </c>
@@ -2620,7 +2659,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>43</v>
       </c>
@@ -2630,7 +2669,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -2640,7 +2679,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>45</v>
       </c>
@@ -2650,7 +2689,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>46</v>
       </c>
@@ -7384,109 +7423,114 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H2 H12:H21 H33:H1048576">
-    <cfRule type="containsText" dxfId="79" priority="36" operator="containsText" text="Stop current Development">
+  <conditionalFormatting sqref="H1:H2 H12:H21 H34:H1048576">
+    <cfRule type="containsText" dxfId="82" priority="37" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="78" priority="35" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="81" priority="36" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="77" priority="29" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="80" priority="30" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="76" priority="27" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="79" priority="28" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="78" priority="24" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="74" priority="22" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="77" priority="23" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="76" priority="22" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="75" priority="18" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="71" priority="16" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="74" priority="17" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="70" priority="15" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="73" priority="16" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="69" priority="14" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="72" priority="15" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="67" priority="12" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="66" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="70" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="65" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="69" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="64" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="68" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="63" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7503,7 +7547,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7767,7 +7811,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <f>'Our Bug Metrics'!$A10</f>
         <v>8</v>
@@ -8402,20 +8446,28 @@
       </c>
       <c r="B33" s="30">
         <f>'Our Bug Metrics'!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="30">
+        <v>3</v>
+      </c>
+      <c r="C33" s="30" t="str">
         <f>'Our Bug Metrics'!C33</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="15">
+        <v>Round 1 Clearing</v>
+      </c>
+      <c r="D33" s="15" t="str">
         <f>'Our Bug Metrics'!D33</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11"/>
+        <v>added student object instead of bid object into fail_bid table</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="12">
+        <v>43753</v>
+      </c>
+      <c r="G33" s="12">
+        <v>43753</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="30">
@@ -18207,292 +18259,307 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="73" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="74" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="58" priority="72">
+    <cfRule type="containsBlanks" dxfId="59" priority="75">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="55" priority="57">
+    <cfRule type="containsBlanks" dxfId="56" priority="60">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="52" priority="54">
+    <cfRule type="containsBlanks" dxfId="53" priority="57">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="49" priority="51">
+    <cfRule type="containsBlanks" dxfId="50" priority="54">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="46" priority="48">
+    <cfRule type="containsBlanks" dxfId="47" priority="51">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="43" priority="45">
+    <cfRule type="containsBlanks" dxfId="44" priority="48">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="40" priority="42">
+    <cfRule type="containsBlanks" dxfId="41" priority="45">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="37" priority="39">
+    <cfRule type="containsBlanks" dxfId="38" priority="42">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="34" priority="36">
+    <cfRule type="containsBlanks" dxfId="35" priority="39">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="31" priority="33">
+    <cfRule type="containsBlanks" dxfId="32" priority="36">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="28" priority="30">
+    <cfRule type="containsBlanks" dxfId="29" priority="33">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsBlanks" dxfId="25" priority="27">
+    <cfRule type="containsBlanks" dxfId="26" priority="30">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsBlanks" dxfId="22" priority="24">
+    <cfRule type="containsBlanks" dxfId="23" priority="27">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsBlanks" dxfId="19" priority="21">
+    <cfRule type="containsBlanks" dxfId="20" priority="24">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsBlanks" dxfId="16" priority="18">
+    <cfRule type="containsBlanks" dxfId="17" priority="21">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="13" priority="15">
+    <cfRule type="containsBlanks" dxfId="14" priority="18">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsBlanks" dxfId="10" priority="9">
+    <cfRule type="containsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsBlanks" dxfId="7" priority="6">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsBlanks" dxfId="4" priority="3">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(E33))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E32" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E33" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24193,7 +24260,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen yibing\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44FCF55-6584-4427-8F64-CADC8B446C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDF03FC-935E-4F20-B419-DAE39BD3F072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2382" yWindow="0" windowWidth="14976" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="125">
   <si>
     <t>Bug Log</t>
   </si>
@@ -397,6 +397,15 @@
   </si>
   <si>
     <t>18/10/2021</t>
+  </si>
+  <si>
+    <t>misspelling</t>
+  </si>
+  <si>
+    <t>21/10/2021</t>
+  </si>
+  <si>
+    <t>21/10/2022</t>
   </si>
 </sst>
 </file>
@@ -7654,8 +7663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8721,25 +8730,29 @@
     </row>
     <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="30">
-        <f>'Our Bug Metrics'!B39</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B39" s="30">
-        <f>'Our Bug Metrics'!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="30">
-        <f>'Our Bug Metrics'!C39</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="15">
-        <f>'Our Bug Metrics'!D39</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="30">
@@ -18689,23 +18702,23 @@
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E38">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E38">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E38">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="containsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E38" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E39" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070A934D-68BA-4032-B61D-ACF6F3A43405}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEA7127-A059-4CB5-B3BB-7C506BDC1003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7580" yWindow="0" windowWidth="11620" windowHeight="10210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="136">
   <si>
     <t>Bug Log</t>
   </si>
@@ -407,6 +407,39 @@
   <si>
     <t>SH &amp; LW</t>
   </si>
+  <si>
+    <t>JSON Dump</t>
+  </si>
+  <si>
+    <t>JSON output for Dump did not show the correct format for exam start, end and date</t>
+  </si>
+  <si>
+    <t>JT &amp; YB</t>
+  </si>
+  <si>
+    <t>JSON Authenticate</t>
+  </si>
+  <si>
+    <t>JSON output for authenticate is incorrect as we used 'messages' instead of 'message'</t>
+  </si>
+  <si>
+    <t>JSON Bid-dump</t>
+  </si>
+  <si>
+    <t>JSON section-dump</t>
+  </si>
+  <si>
+    <t>JSON update-bid</t>
+  </si>
+  <si>
+    <t>JSON user-dump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON output incorrect for amount as it returns string, not float </t>
+  </si>
+  <si>
+    <t>JSON output did not show Day as days, but instead as numbers</t>
+  </si>
 </sst>
 </file>
 
@@ -562,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -686,6 +719,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,14 +735,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="98">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -732,6 +768,58 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1385,6 +1473,37 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1776,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1794,16 +1913,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -2753,7 +2872,7 @@
       <c r="C38" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="44" t="s">
         <v>119</v>
       </c>
       <c r="E38" s="42" t="s">
@@ -19198,86 +19317,223 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="24"/>
-      <c r="F41" s="40" t="str">
+    <row r="41" spans="1:16384" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="43">
+        <v>39</v>
+      </c>
+      <c r="B41" s="24">
+        <v>4</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="40">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="G41" s="40">
+        <v>5</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="18">
-        <v>38</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="F42" s="40" t="str">
+      <c r="A42" s="43">
+        <v>40</v>
+      </c>
+      <c r="B42" s="24">
+        <v>4</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="40">
+        <v>1</v>
+      </c>
+      <c r="G42" s="40">
+        <v>1</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="24">
+        <v>4</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="40">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
-        <v>39</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="F43" s="40" t="str">
+        <v>1</v>
+      </c>
+      <c r="G43" s="40">
+        <v>1</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="43">
+        <v>42</v>
+      </c>
+      <c r="B44" s="24">
+        <v>4</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="40">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="18">
-        <v>40</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="F44" s="40" t="str">
+        <v>1</v>
+      </c>
+      <c r="G44" s="40">
+        <v>1</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="43">
+        <v>43</v>
+      </c>
+      <c r="B45" s="24">
+        <v>4</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="40">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
-        <v>41</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="F45" s="40" t="str">
+        <v>1</v>
+      </c>
+      <c r="G45" s="40">
+        <v>1</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="43">
+        <v>44</v>
+      </c>
+      <c r="B46" s="24">
+        <v>4</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="40">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
-        <v>42</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="F46" s="40" t="str">
+        <v>1</v>
+      </c>
+      <c r="G46" s="40">
+        <v>1</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="43">
+        <v>45</v>
+      </c>
+      <c r="B47" s="24">
+        <v>4</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="40">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
-        <v>43</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="F47" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="40">
+        <v>1</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
-        <v>44</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="F48" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A48" s="43">
+        <v>46</v>
+      </c>
+      <c r="B48" s="24">
+        <v>4</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="40">
+        <v>1</v>
+      </c>
+      <c r="G48" s="40">
+        <v>1</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="18">
-        <v>45</v>
+      <c r="A49" s="43">
+        <v>47</v>
       </c>
       <c r="B49" s="24"/>
       <c r="F49" s="40" t="str">
@@ -19286,8 +19542,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="18">
-        <v>46</v>
+      <c r="A50" s="43">
+        <v>48</v>
       </c>
       <c r="B50" s="24"/>
       <c r="F50" s="40" t="str">
@@ -19296,8 +19552,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
-        <v>47</v>
+      <c r="A51" s="43">
+        <v>49</v>
       </c>
       <c r="B51" s="24"/>
       <c r="F51" s="40" t="str">
@@ -19306,8 +19562,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
-        <v>48</v>
+      <c r="A52" s="43">
+        <v>50</v>
       </c>
       <c r="B52" s="24"/>
       <c r="F52" s="40" t="str">
@@ -19316,8 +19572,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="18">
-        <v>49</v>
+      <c r="A53" s="43">
+        <v>51</v>
       </c>
       <c r="B53" s="24"/>
       <c r="F53" s="40" t="str">
@@ -19326,8 +19582,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
-        <v>50</v>
+      <c r="A54" s="43">
+        <v>52</v>
       </c>
       <c r="B54" s="24"/>
       <c r="F54" s="40" t="str">
@@ -19336,8 +19592,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="18">
-        <v>51</v>
+      <c r="A55" s="43">
+        <v>53</v>
       </c>
       <c r="B55" s="24"/>
       <c r="F55" s="40" t="str">
@@ -19346,8 +19602,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="18">
-        <v>52</v>
+      <c r="A56" s="43">
+        <v>54</v>
       </c>
       <c r="B56" s="24"/>
       <c r="F56" s="40" t="str">
@@ -19356,8 +19612,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="18">
-        <v>53</v>
+      <c r="A57" s="43">
+        <v>55</v>
       </c>
       <c r="B57" s="24"/>
       <c r="F57" s="40" t="str">
@@ -19366,8 +19622,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
-        <v>54</v>
+      <c r="A58" s="43">
+        <v>56</v>
       </c>
       <c r="B58" s="24"/>
       <c r="F58" s="40" t="str">
@@ -19376,8 +19632,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="18">
-        <v>55</v>
+      <c r="A59" s="43">
+        <v>57</v>
       </c>
       <c r="B59" s="24"/>
       <c r="F59" s="40" t="str">
@@ -19386,8 +19642,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="18">
-        <v>56</v>
+      <c r="A60" s="43">
+        <v>58</v>
       </c>
       <c r="B60" s="24"/>
       <c r="F60" s="40" t="str">
@@ -19396,8 +19652,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="18">
-        <v>57</v>
+      <c r="A61" s="43">
+        <v>59</v>
       </c>
       <c r="B61" s="24"/>
       <c r="F61" s="40" t="str">
@@ -19406,8 +19662,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="18">
-        <v>58</v>
+      <c r="A62" s="43">
+        <v>60</v>
       </c>
       <c r="B62" s="24"/>
       <c r="F62" s="40" t="str">
@@ -19416,8 +19672,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="18">
-        <v>59</v>
+      <c r="A63" s="43">
+        <v>61</v>
       </c>
       <c r="B63" s="24"/>
       <c r="F63" s="40" t="str">
@@ -19426,8 +19682,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="18">
-        <v>60</v>
+      <c r="A64" s="43">
+        <v>62</v>
       </c>
       <c r="B64" s="24"/>
       <c r="F64" s="40" t="str">
@@ -19436,8 +19692,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="18">
-        <v>61</v>
+      <c r="A65" s="43">
+        <v>63</v>
       </c>
       <c r="B65" s="24"/>
       <c r="F65" s="40" t="str">
@@ -19446,8 +19702,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="18">
-        <v>62</v>
+      <c r="A66" s="43">
+        <v>64</v>
       </c>
       <c r="B66" s="24"/>
       <c r="F66" s="40" t="str">
@@ -19456,8 +19712,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="18">
-        <v>63</v>
+      <c r="A67" s="43">
+        <v>65</v>
       </c>
       <c r="B67" s="24"/>
       <c r="F67" s="40" t="str">
@@ -19466,8 +19722,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="18">
-        <v>64</v>
+      <c r="A68" s="43">
+        <v>66</v>
       </c>
       <c r="B68" s="24"/>
       <c r="F68" s="40" t="str">
@@ -19476,8 +19732,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="18">
-        <v>65</v>
+      <c r="A69" s="43">
+        <v>67</v>
       </c>
       <c r="B69" s="24"/>
       <c r="F69" s="40" t="str">
@@ -19486,8 +19742,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="18">
-        <v>66</v>
+      <c r="A70" s="43">
+        <v>68</v>
       </c>
       <c r="B70" s="24"/>
       <c r="F70" s="40" t="str">
@@ -19496,8 +19752,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="18">
-        <v>67</v>
+      <c r="A71" s="43">
+        <v>69</v>
       </c>
       <c r="B71" s="24"/>
       <c r="F71" s="40" t="str">
@@ -19506,8 +19762,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="18">
-        <v>68</v>
+      <c r="A72" s="43">
+        <v>70</v>
       </c>
       <c r="B72" s="24"/>
       <c r="F72" s="40" t="str">
@@ -19516,8 +19772,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="18">
-        <v>69</v>
+      <c r="A73" s="43">
+        <v>71</v>
       </c>
       <c r="B73" s="24"/>
       <c r="F73" s="40" t="str">
@@ -19526,8 +19782,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="18">
-        <v>70</v>
+      <c r="A74" s="43">
+        <v>72</v>
       </c>
       <c r="B74" s="24"/>
       <c r="F74" s="40" t="str">
@@ -19536,8 +19792,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="18">
-        <v>71</v>
+      <c r="A75" s="43">
+        <v>73</v>
       </c>
       <c r="B75" s="24"/>
       <c r="F75" s="40" t="str">
@@ -19546,8 +19802,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="18">
-        <v>72</v>
+      <c r="A76" s="43">
+        <v>74</v>
       </c>
       <c r="B76" s="24"/>
       <c r="F76" s="40" t="str">
@@ -19556,8 +19812,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="18">
-        <v>73</v>
+      <c r="A77" s="43">
+        <v>75</v>
       </c>
       <c r="B77" s="24"/>
       <c r="F77" s="40" t="str">
@@ -19566,8 +19822,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="18">
-        <v>74</v>
+      <c r="A78" s="43">
+        <v>76</v>
       </c>
       <c r="B78" s="24"/>
       <c r="F78" s="40" t="str">
@@ -19576,8 +19832,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="18">
-        <v>75</v>
+      <c r="A79" s="43">
+        <v>77</v>
       </c>
       <c r="B79" s="24"/>
       <c r="F79" s="40" t="str">
@@ -19586,8 +19842,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="18">
-        <v>76</v>
+      <c r="A80" s="43">
+        <v>78</v>
       </c>
       <c r="B80" s="24"/>
       <c r="F80" s="40" t="str">
@@ -19596,8 +19852,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="18">
-        <v>77</v>
+      <c r="A81" s="43">
+        <v>79</v>
       </c>
       <c r="B81" s="24"/>
       <c r="F81" s="40" t="str">
@@ -19606,8 +19862,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="18">
-        <v>78</v>
+      <c r="A82" s="43">
+        <v>80</v>
       </c>
       <c r="B82" s="24"/>
       <c r="F82" s="40" t="str">
@@ -19616,8 +19872,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="18">
-        <v>79</v>
+      <c r="A83" s="43">
+        <v>81</v>
       </c>
       <c r="B83" s="24"/>
       <c r="F83" s="40" t="str">
@@ -19626,8 +19882,8 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="18">
-        <v>80</v>
+      <c r="A84" s="43">
+        <v>82</v>
       </c>
       <c r="B84" s="24"/>
       <c r="F84" s="40" t="str">
@@ -19636,8 +19892,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="18">
-        <v>81</v>
+      <c r="A85" s="43">
+        <v>83</v>
       </c>
       <c r="B85" s="24"/>
       <c r="F85" s="40" t="str">
@@ -19646,8 +19902,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="18">
-        <v>82</v>
+      <c r="A86" s="43">
+        <v>84</v>
       </c>
       <c r="B86" s="24"/>
       <c r="F86" s="40" t="str">
@@ -19656,8 +19912,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="18">
-        <v>83</v>
+      <c r="A87" s="43">
+        <v>85</v>
       </c>
       <c r="B87" s="24"/>
       <c r="F87" s="40" t="str">
@@ -19666,8 +19922,8 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="18">
-        <v>84</v>
+      <c r="A88" s="43">
+        <v>86</v>
       </c>
       <c r="B88" s="24"/>
       <c r="F88" s="40" t="str">
@@ -19676,8 +19932,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="18">
-        <v>85</v>
+      <c r="A89" s="43">
+        <v>87</v>
       </c>
       <c r="B89" s="24"/>
       <c r="F89" s="40" t="str">
@@ -19686,8 +19942,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="18">
-        <v>86</v>
+      <c r="A90" s="43">
+        <v>88</v>
       </c>
       <c r="B90" s="24"/>
       <c r="F90" s="40" t="str">
@@ -19696,8 +19952,8 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="18">
-        <v>87</v>
+      <c r="A91" s="43">
+        <v>89</v>
       </c>
       <c r="B91" s="24"/>
       <c r="F91" s="40" t="str">
@@ -19706,8 +19962,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="18">
-        <v>88</v>
+      <c r="A92" s="43">
+        <v>90</v>
       </c>
       <c r="B92" s="24"/>
       <c r="F92" s="40" t="str">
@@ -19716,8 +19972,8 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="18">
-        <v>89</v>
+      <c r="A93" s="43">
+        <v>91</v>
       </c>
       <c r="B93" s="24"/>
       <c r="F93" s="40" t="str">
@@ -19726,8 +19982,8 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="18">
-        <v>90</v>
+      <c r="A94" s="43">
+        <v>92</v>
       </c>
       <c r="B94" s="24"/>
       <c r="F94" s="40" t="str">
@@ -19736,8 +19992,8 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="18">
-        <v>91</v>
+      <c r="A95" s="43">
+        <v>93</v>
       </c>
       <c r="B95" s="24"/>
       <c r="F95" s="40" t="str">
@@ -19746,8 +20002,8 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="18">
-        <v>92</v>
+      <c r="A96" s="43">
+        <v>94</v>
       </c>
       <c r="B96" s="24"/>
       <c r="F96" s="40" t="str">
@@ -19756,8 +20012,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="18">
-        <v>93</v>
+      <c r="A97" s="43">
+        <v>95</v>
       </c>
       <c r="B97" s="24"/>
       <c r="F97" s="40" t="str">
@@ -19766,8 +20022,8 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="18">
-        <v>94</v>
+      <c r="A98" s="43">
+        <v>96</v>
       </c>
       <c r="B98" s="24"/>
       <c r="F98" s="40" t="str">
@@ -19776,8 +20032,8 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="18">
-        <v>95</v>
+      <c r="A99" s="43">
+        <v>97</v>
       </c>
       <c r="B99" s="24"/>
       <c r="F99" s="40" t="str">
@@ -19786,8 +20042,8 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="18">
-        <v>96</v>
+      <c r="A100" s="43">
+        <v>98</v>
       </c>
       <c r="B100" s="24"/>
       <c r="F100" s="40" t="str">
@@ -19796,8 +20052,8 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="18">
-        <v>97</v>
+      <c r="A101" s="43">
+        <v>99</v>
       </c>
       <c r="B101" s="24"/>
       <c r="F101" s="40" t="str">
@@ -19806,8 +20062,8 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="18">
-        <v>98</v>
+      <c r="A102" s="43">
+        <v>100</v>
       </c>
       <c r="B102" s="24"/>
       <c r="F102" s="40" t="str">
@@ -19816,8 +20072,8 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="18">
-        <v>99</v>
+      <c r="A103" s="43">
+        <v>101</v>
       </c>
       <c r="B103" s="24"/>
       <c r="F103" s="40" t="str">
@@ -19826,8 +20082,8 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="18">
-        <v>100</v>
+      <c r="A104" s="43">
+        <v>102</v>
       </c>
       <c r="B104" s="24"/>
       <c r="F104" s="40" t="str">
@@ -19836,8 +20092,8 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="18">
-        <v>101</v>
+      <c r="A105" s="43">
+        <v>103</v>
       </c>
       <c r="B105" s="24"/>
       <c r="F105" s="40" t="str">
@@ -19846,8 +20102,8 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="18">
-        <v>102</v>
+      <c r="A106" s="43">
+        <v>104</v>
       </c>
       <c r="B106" s="24"/>
       <c r="F106" s="40" t="str">
@@ -19856,8 +20112,8 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="18">
-        <v>103</v>
+      <c r="A107" s="43">
+        <v>105</v>
       </c>
       <c r="B107" s="24"/>
       <c r="F107" s="40" t="str">
@@ -19866,8 +20122,8 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="18">
-        <v>104</v>
+      <c r="A108" s="43">
+        <v>106</v>
       </c>
       <c r="B108" s="24"/>
       <c r="F108" s="40" t="str">
@@ -19876,8 +20132,8 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="18">
-        <v>105</v>
+      <c r="A109" s="43">
+        <v>107</v>
       </c>
       <c r="B109" s="24"/>
       <c r="F109" s="40" t="str">
@@ -19886,8 +20142,8 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="18">
-        <v>106</v>
+      <c r="A110" s="43">
+        <v>108</v>
       </c>
       <c r="B110" s="24"/>
       <c r="F110" s="40" t="str">
@@ -19896,8 +20152,8 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="18">
-        <v>107</v>
+      <c r="A111" s="43">
+        <v>109</v>
       </c>
       <c r="B111" s="24"/>
       <c r="F111" s="40" t="str">
@@ -19906,8 +20162,8 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="18">
-        <v>108</v>
+      <c r="A112" s="43">
+        <v>110</v>
       </c>
       <c r="B112" s="24"/>
       <c r="F112" s="40" t="str">
@@ -19916,8 +20172,8 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="18">
-        <v>109</v>
+      <c r="A113" s="43">
+        <v>111</v>
       </c>
       <c r="B113" s="24"/>
       <c r="F113" s="40" t="str">
@@ -19926,8 +20182,8 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="18">
-        <v>110</v>
+      <c r="A114" s="43">
+        <v>112</v>
       </c>
       <c r="B114" s="24"/>
       <c r="F114" s="40" t="str">
@@ -19936,8 +20192,8 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="18">
-        <v>111</v>
+      <c r="A115" s="43">
+        <v>113</v>
       </c>
       <c r="B115" s="24"/>
       <c r="F115" s="40" t="str">
@@ -19946,8 +20202,8 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="18">
-        <v>112</v>
+      <c r="A116" s="43">
+        <v>114</v>
       </c>
       <c r="B116" s="24"/>
       <c r="F116" s="40" t="str">
@@ -19956,8 +20212,8 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="18">
-        <v>113</v>
+      <c r="A117" s="43">
+        <v>115</v>
       </c>
       <c r="B117" s="24"/>
       <c r="F117" s="40" t="str">
@@ -19966,8 +20222,8 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="18">
-        <v>114</v>
+      <c r="A118" s="43">
+        <v>116</v>
       </c>
       <c r="B118" s="24"/>
       <c r="F118" s="40" t="str">
@@ -19976,8 +20232,8 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="18">
-        <v>115</v>
+      <c r="A119" s="43">
+        <v>117</v>
       </c>
       <c r="B119" s="24"/>
       <c r="F119" s="40" t="str">
@@ -19986,8 +20242,8 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="18">
-        <v>116</v>
+      <c r="A120" s="43">
+        <v>118</v>
       </c>
       <c r="B120" s="24"/>
       <c r="F120" s="40" t="str">
@@ -19996,8 +20252,8 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="18">
-        <v>117</v>
+      <c r="A121" s="43">
+        <v>119</v>
       </c>
       <c r="B121" s="24"/>
       <c r="F121" s="40" t="str">
@@ -20006,8 +20262,8 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="18">
-        <v>118</v>
+      <c r="A122" s="43">
+        <v>120</v>
       </c>
       <c r="B122" s="24"/>
       <c r="F122" s="40" t="str">
@@ -20016,8 +20272,8 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="18">
-        <v>119</v>
+      <c r="A123" s="43">
+        <v>121</v>
       </c>
       <c r="B123" s="24"/>
       <c r="F123" s="40" t="str">
@@ -20026,8 +20282,8 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="18">
-        <v>120</v>
+      <c r="A124" s="43">
+        <v>122</v>
       </c>
       <c r="B124" s="24"/>
       <c r="F124" s="40" t="str">
@@ -20036,8 +20292,8 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="18">
-        <v>121</v>
+      <c r="A125" s="43">
+        <v>123</v>
       </c>
       <c r="B125" s="24"/>
       <c r="F125" s="40" t="str">
@@ -20046,8 +20302,8 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="18">
-        <v>122</v>
+      <c r="A126" s="43">
+        <v>124</v>
       </c>
       <c r="B126" s="24"/>
       <c r="F126" s="40" t="str">
@@ -20056,8 +20312,8 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="18">
-        <v>123</v>
+      <c r="A127" s="43">
+        <v>125</v>
       </c>
       <c r="B127" s="24"/>
       <c r="F127" s="40" t="str">
@@ -20066,8 +20322,8 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="18">
-        <v>124</v>
+      <c r="A128" s="43">
+        <v>126</v>
       </c>
       <c r="B128" s="24"/>
       <c r="F128" s="40" t="str">
@@ -20076,8 +20332,8 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="18">
-        <v>125</v>
+      <c r="A129" s="43">
+        <v>127</v>
       </c>
       <c r="B129" s="24"/>
       <c r="F129" s="40" t="str">
@@ -20086,8 +20342,8 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="18">
-        <v>126</v>
+      <c r="A130" s="43">
+        <v>128</v>
       </c>
       <c r="B130" s="24"/>
       <c r="F130" s="40" t="str">
@@ -20096,8 +20352,8 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="18">
-        <v>127</v>
+      <c r="A131" s="43">
+        <v>129</v>
       </c>
       <c r="B131" s="24"/>
       <c r="F131" s="40" t="str">
@@ -20106,8 +20362,8 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="18">
-        <v>128</v>
+      <c r="A132" s="43">
+        <v>130</v>
       </c>
       <c r="B132" s="24"/>
       <c r="F132" s="40" t="str">
@@ -20116,8 +20372,8 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="18">
-        <v>129</v>
+      <c r="A133" s="43">
+        <v>131</v>
       </c>
       <c r="B133" s="24"/>
       <c r="F133" s="40" t="str">
@@ -20126,8 +20382,8 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="18">
-        <v>130</v>
+      <c r="A134" s="43">
+        <v>132</v>
       </c>
       <c r="B134" s="24"/>
       <c r="F134" s="40" t="str">
@@ -20136,8 +20392,8 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="18">
-        <v>131</v>
+      <c r="A135" s="43">
+        <v>133</v>
       </c>
       <c r="B135" s="24"/>
       <c r="F135" s="40" t="str">
@@ -20146,8 +20402,8 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="18">
-        <v>132</v>
+      <c r="A136" s="43">
+        <v>134</v>
       </c>
       <c r="B136" s="24"/>
       <c r="F136" s="40" t="str">
@@ -20156,8 +20412,8 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="18">
-        <v>133</v>
+      <c r="A137" s="43">
+        <v>135</v>
       </c>
       <c r="B137" s="24"/>
       <c r="F137" s="40" t="str">
@@ -20166,8 +20422,8 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="18">
-        <v>134</v>
+      <c r="A138" s="43">
+        <v>136</v>
       </c>
       <c r="B138" s="24"/>
       <c r="F138" s="40" t="str">
@@ -20176,8 +20432,8 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="18">
-        <v>135</v>
+      <c r="A139" s="43">
+        <v>137</v>
       </c>
       <c r="B139" s="24"/>
       <c r="F139" s="40" t="str">
@@ -20186,8 +20442,8 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="18">
-        <v>136</v>
+      <c r="A140" s="43">
+        <v>138</v>
       </c>
       <c r="B140" s="24"/>
       <c r="F140" s="40" t="str">
@@ -20196,8 +20452,8 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="18">
-        <v>137</v>
+      <c r="A141" s="43">
+        <v>139</v>
       </c>
       <c r="B141" s="24"/>
       <c r="F141" s="40" t="str">
@@ -20206,8 +20462,8 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="18">
-        <v>138</v>
+      <c r="A142" s="43">
+        <v>140</v>
       </c>
       <c r="B142" s="24"/>
       <c r="F142" s="40" t="str">
@@ -20216,8 +20472,8 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="18">
-        <v>139</v>
+      <c r="A143" s="43">
+        <v>141</v>
       </c>
       <c r="B143" s="24"/>
       <c r="F143" s="40" t="str">
@@ -20226,8 +20482,8 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="18">
-        <v>140</v>
+      <c r="A144" s="43">
+        <v>142</v>
       </c>
       <c r="B144" s="24"/>
       <c r="F144" s="40" t="str">
@@ -20236,8 +20492,8 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="18">
-        <v>141</v>
+      <c r="A145" s="43">
+        <v>143</v>
       </c>
       <c r="B145" s="24"/>
       <c r="F145" s="40" t="str">
@@ -20246,8 +20502,8 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="18">
-        <v>142</v>
+      <c r="A146" s="43">
+        <v>144</v>
       </c>
       <c r="B146" s="24"/>
       <c r="F146" s="40" t="str">
@@ -20256,8 +20512,8 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="18">
-        <v>143</v>
+      <c r="A147" s="43">
+        <v>145</v>
       </c>
       <c r="B147" s="24"/>
       <c r="F147" s="40" t="str">
@@ -20266,8 +20522,8 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="18">
-        <v>144</v>
+      <c r="A148" s="43">
+        <v>146</v>
       </c>
       <c r="B148" s="24"/>
       <c r="F148" s="40" t="str">
@@ -20276,8 +20532,8 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="18">
-        <v>145</v>
+      <c r="A149" s="43">
+        <v>147</v>
       </c>
       <c r="B149" s="24"/>
       <c r="F149" s="40" t="str">
@@ -20286,8 +20542,8 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="18">
-        <v>146</v>
+      <c r="A150" s="43">
+        <v>148</v>
       </c>
       <c r="B150" s="24"/>
       <c r="F150" s="40" t="str">
@@ -20296,8 +20552,8 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="18">
-        <v>147</v>
+      <c r="A151" s="43">
+        <v>149</v>
       </c>
       <c r="B151" s="24"/>
       <c r="F151" s="40" t="str">
@@ -20306,8 +20562,8 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="18">
-        <v>148</v>
+      <c r="A152" s="43">
+        <v>150</v>
       </c>
       <c r="B152" s="24"/>
       <c r="F152" s="40" t="str">
@@ -20316,8 +20572,8 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="18">
-        <v>149</v>
+      <c r="A153" s="43">
+        <v>151</v>
       </c>
       <c r="B153" s="24"/>
       <c r="F153" s="40" t="str">
@@ -20326,8 +20582,8 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="18">
-        <v>150</v>
+      <c r="A154" s="43">
+        <v>152</v>
       </c>
       <c r="B154" s="24"/>
       <c r="F154" s="40" t="str">
@@ -20336,8 +20592,8 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="18">
-        <v>151</v>
+      <c r="A155" s="43">
+        <v>153</v>
       </c>
       <c r="B155" s="24"/>
       <c r="F155" s="40" t="str">
@@ -20346,8 +20602,8 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="18">
-        <v>152</v>
+      <c r="A156" s="43">
+        <v>154</v>
       </c>
       <c r="B156" s="24"/>
       <c r="F156" s="40" t="str">
@@ -20356,8 +20612,8 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="18">
-        <v>153</v>
+      <c r="A157" s="43">
+        <v>155</v>
       </c>
       <c r="B157" s="24"/>
       <c r="F157" s="40" t="str">
@@ -20366,8 +20622,8 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="18">
-        <v>154</v>
+      <c r="A158" s="43">
+        <v>156</v>
       </c>
       <c r="B158" s="24"/>
       <c r="F158" s="40" t="str">
@@ -20376,8 +20632,8 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="18">
-        <v>155</v>
+      <c r="A159" s="43">
+        <v>157</v>
       </c>
       <c r="B159" s="24"/>
       <c r="F159" s="40" t="str">
@@ -20386,8 +20642,8 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="18">
-        <v>156</v>
+      <c r="A160" s="43">
+        <v>158</v>
       </c>
       <c r="B160" s="24"/>
       <c r="F160" s="40" t="str">
@@ -20396,8 +20652,8 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="18">
-        <v>157</v>
+      <c r="A161" s="43">
+        <v>159</v>
       </c>
       <c r="B161" s="24"/>
       <c r="F161" s="40" t="str">
@@ -20406,8 +20662,8 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="18">
-        <v>158</v>
+      <c r="A162" s="43">
+        <v>160</v>
       </c>
       <c r="B162" s="24"/>
       <c r="F162" s="40" t="str">
@@ -20416,8 +20672,8 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="18">
-        <v>159</v>
+      <c r="A163" s="43">
+        <v>161</v>
       </c>
       <c r="B163" s="24"/>
       <c r="F163" s="40" t="str">
@@ -20426,8 +20682,8 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="18">
-        <v>160</v>
+      <c r="A164" s="43">
+        <v>162</v>
       </c>
       <c r="B164" s="24"/>
       <c r="F164" s="40" t="str">
@@ -20436,8 +20692,8 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="18">
-        <v>161</v>
+      <c r="A165" s="43">
+        <v>163</v>
       </c>
       <c r="B165" s="24"/>
       <c r="F165" s="40" t="str">
@@ -20446,8 +20702,8 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="18">
-        <v>162</v>
+      <c r="A166" s="43">
+        <v>164</v>
       </c>
       <c r="B166" s="24"/>
       <c r="F166" s="40" t="str">
@@ -20456,8 +20712,8 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="18">
-        <v>163</v>
+      <c r="A167" s="43">
+        <v>165</v>
       </c>
       <c r="B167" s="24"/>
       <c r="F167" s="40" t="str">
@@ -20466,8 +20722,8 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="18">
-        <v>164</v>
+      <c r="A168" s="43">
+        <v>166</v>
       </c>
       <c r="B168" s="24"/>
       <c r="F168" s="40" t="str">
@@ -20476,8 +20732,8 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="18">
-        <v>165</v>
+      <c r="A169" s="43">
+        <v>167</v>
       </c>
       <c r="B169" s="24"/>
       <c r="F169" s="40" t="str">
@@ -20486,8 +20742,8 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="18">
-        <v>166</v>
+      <c r="A170" s="43">
+        <v>168</v>
       </c>
       <c r="B170" s="24"/>
       <c r="F170" s="40" t="str">
@@ -20496,8 +20752,8 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="18">
-        <v>167</v>
+      <c r="A171" s="43">
+        <v>169</v>
       </c>
       <c r="B171" s="24"/>
       <c r="F171" s="40" t="str">
@@ -20506,8 +20762,8 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="18">
-        <v>168</v>
+      <c r="A172" s="43">
+        <v>170</v>
       </c>
       <c r="B172" s="24"/>
       <c r="F172" s="40" t="str">
@@ -20516,8 +20772,8 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="18">
-        <v>169</v>
+      <c r="A173" s="43">
+        <v>171</v>
       </c>
       <c r="B173" s="24"/>
       <c r="F173" s="40" t="str">
@@ -20526,8 +20782,8 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="18">
-        <v>170</v>
+      <c r="A174" s="43">
+        <v>172</v>
       </c>
       <c r="B174" s="24"/>
       <c r="F174" s="40" t="str">
@@ -20536,8 +20792,8 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="18">
-        <v>171</v>
+      <c r="A175" s="43">
+        <v>173</v>
       </c>
       <c r="B175" s="24"/>
       <c r="F175" s="40" t="str">
@@ -20546,8 +20802,8 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="18">
-        <v>172</v>
+      <c r="A176" s="43">
+        <v>174</v>
       </c>
       <c r="B176" s="24"/>
       <c r="F176" s="40" t="str">
@@ -20556,8 +20812,8 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="18">
-        <v>173</v>
+      <c r="A177" s="43">
+        <v>175</v>
       </c>
       <c r="B177" s="24"/>
       <c r="F177" s="40" t="str">
@@ -20566,8 +20822,8 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="18">
-        <v>174</v>
+      <c r="A178" s="43">
+        <v>176</v>
       </c>
       <c r="B178" s="24"/>
       <c r="F178" s="40" t="str">
@@ -20576,8 +20832,8 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="18">
-        <v>175</v>
+      <c r="A179" s="43">
+        <v>177</v>
       </c>
       <c r="B179" s="24"/>
       <c r="F179" s="40" t="str">
@@ -20586,8 +20842,8 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="18">
-        <v>176</v>
+      <c r="A180" s="43">
+        <v>178</v>
       </c>
       <c r="B180" s="24"/>
       <c r="F180" s="40" t="str">
@@ -20596,8 +20852,8 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="18">
-        <v>177</v>
+      <c r="A181" s="43">
+        <v>179</v>
       </c>
       <c r="B181" s="24"/>
       <c r="F181" s="40" t="str">
@@ -20606,8 +20862,8 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="18">
-        <v>178</v>
+      <c r="A182" s="43">
+        <v>180</v>
       </c>
       <c r="B182" s="24"/>
       <c r="F182" s="40" t="str">
@@ -20616,8 +20872,8 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="18">
-        <v>179</v>
+      <c r="A183" s="43">
+        <v>181</v>
       </c>
       <c r="B183" s="24"/>
       <c r="F183" s="40" t="str">
@@ -20626,8 +20882,8 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="18">
-        <v>180</v>
+      <c r="A184" s="43">
+        <v>182</v>
       </c>
       <c r="B184" s="24"/>
       <c r="F184" s="40" t="str">
@@ -20636,8 +20892,8 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="18">
-        <v>181</v>
+      <c r="A185" s="43">
+        <v>183</v>
       </c>
       <c r="B185" s="24"/>
       <c r="F185" s="40" t="str">
@@ -20646,8 +20902,8 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="18">
-        <v>182</v>
+      <c r="A186" s="43">
+        <v>184</v>
       </c>
       <c r="B186" s="24"/>
       <c r="F186" s="40" t="str">
@@ -20656,8 +20912,8 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="18">
-        <v>183</v>
+      <c r="A187" s="43">
+        <v>185</v>
       </c>
       <c r="B187" s="24"/>
       <c r="F187" s="40" t="str">
@@ -20666,8 +20922,8 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="18">
-        <v>184</v>
+      <c r="A188" s="43">
+        <v>186</v>
       </c>
       <c r="B188" s="24"/>
       <c r="F188" s="40" t="str">
@@ -20676,8 +20932,8 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="18">
-        <v>185</v>
+      <c r="A189" s="43">
+        <v>187</v>
       </c>
       <c r="B189" s="24"/>
       <c r="F189" s="40" t="str">
@@ -20686,8 +20942,8 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="18">
-        <v>186</v>
+      <c r="A190" s="43">
+        <v>188</v>
       </c>
       <c r="B190" s="24"/>
       <c r="F190" s="40" t="str">
@@ -20696,8 +20952,8 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="18">
-        <v>187</v>
+      <c r="A191" s="43">
+        <v>189</v>
       </c>
       <c r="B191" s="24"/>
       <c r="F191" s="40" t="str">
@@ -20706,8 +20962,8 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="18">
-        <v>188</v>
+      <c r="A192" s="43">
+        <v>190</v>
       </c>
       <c r="B192" s="24"/>
       <c r="F192" s="40" t="str">
@@ -20716,8 +20972,8 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="18">
-        <v>189</v>
+      <c r="A193" s="43">
+        <v>191</v>
       </c>
       <c r="B193" s="24"/>
       <c r="F193" s="40" t="str">
@@ -20726,8 +20982,8 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="18">
-        <v>190</v>
+      <c r="A194" s="43">
+        <v>192</v>
       </c>
       <c r="B194" s="24"/>
       <c r="F194" s="40" t="str">
@@ -20736,8 +20992,8 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="18">
-        <v>191</v>
+      <c r="A195" s="43">
+        <v>193</v>
       </c>
       <c r="B195" s="24"/>
       <c r="F195" s="40" t="str">
@@ -20746,8 +21002,8 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="18">
-        <v>192</v>
+      <c r="A196" s="43">
+        <v>194</v>
       </c>
       <c r="B196" s="24"/>
       <c r="F196" s="40" t="str">
@@ -20756,8 +21012,8 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="18">
-        <v>193</v>
+      <c r="A197" s="43">
+        <v>195</v>
       </c>
       <c r="B197" s="24"/>
       <c r="F197" s="40" t="str">
@@ -20766,8 +21022,8 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="18">
-        <v>194</v>
+      <c r="A198" s="43">
+        <v>196</v>
       </c>
       <c r="B198" s="24"/>
       <c r="F198" s="40" t="str">
@@ -24019,119 +24275,124 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H2 H12:H21 H41:H1048576 H37:H39">
-    <cfRule type="containsText" dxfId="86" priority="38" operator="containsText" text="Stop current Development">
+  <conditionalFormatting sqref="H1:H2 H12:H21 H37:H39 H42:H1048576">
+    <cfRule type="containsText" dxfId="94" priority="39" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="85" priority="37" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="93" priority="38" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="84" priority="31" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="92" priority="32" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="83" priority="29" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="91" priority="30" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="82" priority="25" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="90" priority="26" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="81" priority="24" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="89" priority="25" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="80" priority="23" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="88" priority="24" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="79" priority="19" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="87" priority="20" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="78" priority="18" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="86" priority="19" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="77" priority="17" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="85" priority="18" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="76" priority="16" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="84" priority="17" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="75" priority="14" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="83" priority="15" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="74" priority="11" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="82" priority="12" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="73" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="72" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="80" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="71" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="70" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="78" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="69" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="76" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="75" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H36">
-    <cfRule type="containsText" dxfId="65" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="72" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -24147,8 +24408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24165,16 +24426,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -25295,247 +25556,515 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
-        <f>'Our Bug Metrics'!B43</f>
-        <v>0</v>
+        <f>'Our Bug Metrics'!$A41</f>
+        <v>39</v>
       </c>
       <c r="B41" s="30">
-        <f>'Our Bug Metrics'!B43</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="30">
-        <f>'Our Bug Metrics'!C43</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="15">
-        <f>'Our Bug Metrics'!D43</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+        <f>'Our Bug Metrics'!B41</f>
+        <v>4</v>
+      </c>
+      <c r="C41" s="30" t="str">
+        <f>'Our Bug Metrics'!C41</f>
+        <v>JSON Dump</v>
+      </c>
+      <c r="D41" s="15" t="str">
+        <f>'Our Bug Metrics'!D41</f>
+        <v>JSON output for Dump did not show the correct format for exam start, end and date</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="17">
+        <v>43768</v>
+      </c>
+      <c r="G41" s="17">
+        <v>43768</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
-        <f>'Our Bug Metrics'!B44</f>
-        <v>0</v>
+        <f>'Our Bug Metrics'!$A42</f>
+        <v>40</v>
       </c>
       <c r="B42" s="30">
-        <f>'Our Bug Metrics'!B44</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="30">
-        <f>'Our Bug Metrics'!C44</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="15">
-        <f>'Our Bug Metrics'!D44</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="11"/>
+        <f>'Our Bug Metrics'!B42</f>
+        <v>4</v>
+      </c>
+      <c r="C42" s="30" t="str">
+        <f>'Our Bug Metrics'!C42</f>
+        <v>JSON Authenticate</v>
+      </c>
+      <c r="D42" s="15" t="str">
+        <f>'Our Bug Metrics'!D42</f>
+        <v>JSON output for authenticate is incorrect as we used 'messages' instead of 'message'</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="17">
+        <v>43769</v>
+      </c>
+      <c r="G42" s="17">
+        <v>43769</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
+        <f>'Our Bug Metrics'!$A43</f>
+        <v>41</v>
+      </c>
+      <c r="B43" s="30">
+        <f>'Our Bug Metrics'!B43</f>
+        <v>4</v>
+      </c>
+      <c r="C43" s="30" t="str">
+        <f>'Our Bug Metrics'!C43</f>
+        <v>JSON Bid-dump</v>
+      </c>
+      <c r="D43" s="15" t="str">
+        <f>'Our Bug Metrics'!D43</f>
+        <v xml:space="preserve">JSON output incorrect for amount as it returns string, not float </v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="17">
+        <v>43769</v>
+      </c>
+      <c r="G43" s="17">
+        <v>43769</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="30">
+        <f>'Our Bug Metrics'!$A44</f>
+        <v>42</v>
+      </c>
+      <c r="B44" s="30">
+        <f>'Our Bug Metrics'!B44</f>
+        <v>4</v>
+      </c>
+      <c r="C44" s="30" t="str">
+        <f>'Our Bug Metrics'!C44</f>
+        <v>JSON Dump</v>
+      </c>
+      <c r="D44" s="15" t="str">
+        <f>'Our Bug Metrics'!D44</f>
+        <v xml:space="preserve">JSON output incorrect for amount as it returns string, not float </v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="17">
+        <v>43769</v>
+      </c>
+      <c r="G44" s="17">
+        <v>43769</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="30">
+        <f>'Our Bug Metrics'!$A45</f>
+        <v>43</v>
+      </c>
+      <c r="B45" s="30">
         <f>'Our Bug Metrics'!B45</f>
+        <v>4</v>
+      </c>
+      <c r="C45" s="30" t="str">
+        <f>'Our Bug Metrics'!C45</f>
+        <v>JSON section-dump</v>
+      </c>
+      <c r="D45" s="15" t="str">
+        <f>'Our Bug Metrics'!D45</f>
+        <v xml:space="preserve">JSON output incorrect for amount as it returns string, not float </v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="17">
+        <v>43769</v>
+      </c>
+      <c r="G45" s="17">
+        <v>43769</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="30">
+        <f>'Our Bug Metrics'!$A46</f>
+        <v>44</v>
+      </c>
+      <c r="B46" s="30">
+        <f>'Our Bug Metrics'!B46</f>
+        <v>4</v>
+      </c>
+      <c r="C46" s="30" t="str">
+        <f>'Our Bug Metrics'!C46</f>
+        <v>JSON update-bid</v>
+      </c>
+      <c r="D46" s="15" t="str">
+        <f>'Our Bug Metrics'!D46</f>
+        <v xml:space="preserve">JSON output incorrect for amount as it returns string, not float </v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="17">
+        <v>43769</v>
+      </c>
+      <c r="G46" s="17">
+        <v>43769</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="30">
+        <f>'Our Bug Metrics'!$A47</f>
+        <v>45</v>
+      </c>
+      <c r="B47" s="30">
+        <f>'Our Bug Metrics'!B47</f>
+        <v>4</v>
+      </c>
+      <c r="C47" s="30" t="str">
+        <f>'Our Bug Metrics'!C47</f>
+        <v>JSON user-dump</v>
+      </c>
+      <c r="D47" s="15" t="str">
+        <f>'Our Bug Metrics'!D47</f>
+        <v xml:space="preserve">JSON output incorrect for amount as it returns string, not float </v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="17">
+        <v>43769</v>
+      </c>
+      <c r="G47" s="17">
+        <v>43769</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="30">
+        <f>'Our Bug Metrics'!$A48</f>
+        <v>46</v>
+      </c>
+      <c r="B48" s="30">
+        <f>'Our Bug Metrics'!B48</f>
+        <v>4</v>
+      </c>
+      <c r="C48" s="30" t="str">
+        <f>'Our Bug Metrics'!C48</f>
+        <v>JSON Dump</v>
+      </c>
+      <c r="D48" s="15" t="str">
+        <f>'Our Bug Metrics'!D48</f>
+        <v>JSON output did not show Day as days, but instead as numbers</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="17">
+        <v>43769</v>
+      </c>
+      <c r="G48" s="17">
+        <v>43769</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="30">
+        <f>'Our Bug Metrics'!$A49</f>
+        <v>47</v>
+      </c>
+      <c r="B49" s="30">
+        <f>'Our Bug Metrics'!B49</f>
         <v>0</v>
       </c>
-      <c r="B43" s="30">
-        <f>'Our Bug Metrics'!B45</f>
+      <c r="C49" s="30">
+        <f>'Our Bug Metrics'!C49</f>
         <v>0</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="15">
-        <f>'Our Bug Metrics'!D45</f>
+      <c r="D49" s="15">
+        <f>'Our Bug Metrics'!D49</f>
         <v>0</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="15">
-        <f>'Our Bug Metrics'!D46</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
       <c r="E49" s="11"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="30">
+        <f>'Our Bug Metrics'!$A50</f>
+        <v>48</v>
+      </c>
+      <c r="B50" s="30">
+        <f>'Our Bug Metrics'!B50</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="30">
+        <f>'Our Bug Metrics'!C50</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="15">
+        <f>'Our Bug Metrics'!D50</f>
+        <v>0</v>
+      </c>
       <c r="E50" s="11"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="13"/>
+      <c r="A51" s="30">
+        <f>'Our Bug Metrics'!$A51</f>
+        <v>49</v>
+      </c>
+      <c r="B51" s="30">
+        <f>'Our Bug Metrics'!B51</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="30">
+        <f>'Our Bug Metrics'!C51</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="15">
+        <f>'Our Bug Metrics'!D51</f>
+        <v>0</v>
+      </c>
       <c r="E51" s="11"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9"/>
+      <c r="A52" s="30">
+        <f>'Our Bug Metrics'!$A52</f>
+        <v>50</v>
+      </c>
+      <c r="B52" s="30">
+        <f>'Our Bug Metrics'!B52</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="30">
+        <f>'Our Bug Metrics'!C52</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="15">
+        <f>'Our Bug Metrics'!D52</f>
+        <v>0</v>
+      </c>
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9"/>
+      <c r="A53" s="30">
+        <f>'Our Bug Metrics'!$A53</f>
+        <v>51</v>
+      </c>
+      <c r="B53" s="30">
+        <f>'Our Bug Metrics'!B53</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="30">
+        <f>'Our Bug Metrics'!C53</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="15">
+        <f>'Our Bug Metrics'!D53</f>
+        <v>0</v>
+      </c>
       <c r="E53" s="11"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9"/>
+      <c r="A54" s="30">
+        <f>'Our Bug Metrics'!$A54</f>
+        <v>52</v>
+      </c>
+      <c r="B54" s="30">
+        <f>'Our Bug Metrics'!B54</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="30">
+        <f>'Our Bug Metrics'!C54</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="15">
+        <f>'Our Bug Metrics'!D54</f>
+        <v>0</v>
+      </c>
       <c r="E54" s="11"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="13"/>
+      <c r="A55" s="30">
+        <f>'Our Bug Metrics'!$A55</f>
+        <v>53</v>
+      </c>
+      <c r="B55" s="30">
+        <f>'Our Bug Metrics'!B55</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="30">
+        <f>'Our Bug Metrics'!C55</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="15">
+        <f>'Our Bug Metrics'!D55</f>
+        <v>0</v>
+      </c>
       <c r="E55" s="11"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9"/>
+      <c r="A56" s="30">
+        <f>'Our Bug Metrics'!$A56</f>
+        <v>54</v>
+      </c>
+      <c r="B56" s="30">
+        <f>'Our Bug Metrics'!B56</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="30">
+        <f>'Our Bug Metrics'!C56</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="15">
+        <f>'Our Bug Metrics'!D56</f>
+        <v>0</v>
+      </c>
       <c r="E56" s="11"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9"/>
+      <c r="A57" s="30">
+        <f>'Our Bug Metrics'!$A57</f>
+        <v>55</v>
+      </c>
+      <c r="B57" s="30">
+        <f>'Our Bug Metrics'!B57</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="30">
+        <f>'Our Bug Metrics'!C57</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="15">
+        <f>'Our Bug Metrics'!D57</f>
+        <v>0</v>
+      </c>
       <c r="E57" s="11"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9"/>
+      <c r="A58" s="30">
+        <f>'Our Bug Metrics'!$A58</f>
+        <v>56</v>
+      </c>
+      <c r="B58" s="30">
+        <f>'Our Bug Metrics'!B58</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="30">
+        <f>'Our Bug Metrics'!C58</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="15">
+        <f>'Our Bug Metrics'!D58</f>
+        <v>0</v>
+      </c>
       <c r="E58" s="11"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="13"/>
+      <c r="A59" s="30">
+        <f>'Our Bug Metrics'!$A59</f>
+        <v>57</v>
+      </c>
+      <c r="B59" s="30">
+        <f>'Our Bug Metrics'!B59</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="30">
+        <f>'Our Bug Metrics'!C59</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="15">
+        <f>'Our Bug Metrics'!D59</f>
+        <v>0</v>
+      </c>
       <c r="E59" s="11"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
+      <c r="A60" s="30">
+        <f>'Our Bug Metrics'!$A60</f>
+        <v>58</v>
+      </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="9"/>
+      <c r="D60" s="15">
+        <f>'Our Bug Metrics'!D60</f>
+        <v>0</v>
+      </c>
       <c r="E60" s="11"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="8"/>
+      <c r="A61" s="30">
+        <f>'Our Bug Metrics'!$A61</f>
+        <v>59</v>
+      </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="9"/>
+      <c r="D61" s="15">
+        <f>'Our Bug Metrics'!D61</f>
+        <v>0</v>
+      </c>
       <c r="E61" s="11"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
@@ -34937,322 +35466,352 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="62" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="61" priority="78">
+    <cfRule type="containsBlanks" dxfId="68" priority="84">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="58" priority="63">
+    <cfRule type="containsBlanks" dxfId="65" priority="69">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="55" priority="60">
+    <cfRule type="containsBlanks" dxfId="62" priority="66">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="52" priority="57">
+    <cfRule type="containsBlanks" dxfId="59" priority="63">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="49" priority="54">
+    <cfRule type="containsBlanks" dxfId="56" priority="60">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="46" priority="51">
+    <cfRule type="containsBlanks" dxfId="53" priority="57">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="43" priority="48">
+    <cfRule type="containsBlanks" dxfId="50" priority="54">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="40" priority="45">
+    <cfRule type="containsBlanks" dxfId="47" priority="51">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="37" priority="42">
+    <cfRule type="containsBlanks" dxfId="44" priority="48">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="34" priority="39">
+    <cfRule type="containsBlanks" dxfId="41" priority="45">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="31" priority="36">
+    <cfRule type="containsBlanks" dxfId="38" priority="42">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsBlanks" dxfId="28" priority="33">
+    <cfRule type="containsBlanks" dxfId="35" priority="39">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsBlanks" dxfId="25" priority="30">
+    <cfRule type="containsBlanks" dxfId="32" priority="36">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsBlanks" dxfId="22" priority="27">
+    <cfRule type="containsBlanks" dxfId="29" priority="33">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsBlanks" dxfId="19" priority="24">
+    <cfRule type="containsBlanks" dxfId="26" priority="30">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="16" priority="21">
+    <cfRule type="containsBlanks" dxfId="23" priority="27">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsBlanks" dxfId="13" priority="15">
+    <cfRule type="containsBlanks" dxfId="20" priority="21">
       <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+    <cfRule type="containsBlanks" dxfId="17" priority="18">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="14" priority="15">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(E40))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(E41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E40))=0</formula>
+      <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E40" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E48" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35283,16 +35842,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -35340,7 +35899,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="48">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -35369,7 +35928,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="46"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -35392,7 +35951,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -35415,7 +35974,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="46"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -35438,7 +35997,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -35461,7 +36020,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -35484,7 +36043,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="48">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -35513,7 +36072,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="46"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -35536,7 +36095,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="46"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -35559,7 +36118,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="46"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -35582,7 +36141,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="46"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -35605,7 +36164,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -35628,7 +36187,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="46"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -35651,7 +36210,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="48">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -35680,7 +36239,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="46"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -35703,7 +36262,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="46"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -35726,7 +36285,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="46"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -35749,7 +36308,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="48">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -35777,7 +36336,7 @@
       <c r="F21" s="25">
         <v>5</v>
       </c>
-      <c r="G21" s="46"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -35800,7 +36359,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="46"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -35823,7 +36382,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -40953,7 +41512,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEA7127-A059-4CB5-B3BB-7C506BDC1003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E143AD13-BB12-4875-84F9-E452E81192D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="0" windowWidth="11620" windowHeight="10210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="139">
   <si>
     <t>Bug Log</t>
   </si>
@@ -440,6 +440,15 @@
   <si>
     <t>JSON output did not show Day as days, but instead as numbers</t>
   </si>
+  <si>
+    <t>wrong naming of errors</t>
+  </si>
+  <si>
+    <t>User-Dump</t>
+  </si>
+  <si>
+    <t>wrong output for amount</t>
+  </si>
 </sst>
 </file>
 
@@ -739,7 +748,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="97">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -772,12 +781,23 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1483,27 +1503,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1895,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A34" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19531,27 +19530,60 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A49" s="43">
         <v>47</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="F49" s="40" t="str">
+      <c r="B49" s="24">
+        <v>4</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="40">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G49" s="40">
+        <v>1</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A50" s="43">
         <v>48</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="F50" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="24">
+        <v>4</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="40">
+        <v>1</v>
+      </c>
+      <c r="G50" s="40">
+        <v>1</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A51" s="43">
         <v>49</v>
       </c>
@@ -19561,7 +19593,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A52" s="43">
         <v>50</v>
       </c>
@@ -19571,7 +19603,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
         <v>51</v>
       </c>
@@ -19581,7 +19613,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A54" s="43">
         <v>52</v>
       </c>
@@ -19591,7 +19623,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
         <v>53</v>
       </c>
@@ -19601,7 +19633,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
         <v>54</v>
       </c>
@@ -19611,7 +19643,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A57" s="43">
         <v>55</v>
       </c>
@@ -19621,7 +19653,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A58" s="43">
         <v>56</v>
       </c>
@@ -19631,7 +19663,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
         <v>57</v>
       </c>
@@ -19641,7 +19673,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A60" s="43">
         <v>58</v>
       </c>
@@ -19651,7 +19683,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A61" s="43">
         <v>59</v>
       </c>
@@ -19661,7 +19693,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A62" s="43">
         <v>60</v>
       </c>
@@ -19671,7 +19703,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A63" s="43">
         <v>61</v>
       </c>
@@ -19681,7 +19713,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A64" s="43">
         <v>62</v>
       </c>
@@ -24276,122 +24308,122 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2 H12:H21 H37:H39 H42:H1048576">
-    <cfRule type="containsText" dxfId="94" priority="39" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="96" priority="39" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="93" priority="38" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="95" priority="38" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="92" priority="32" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="94" priority="32" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="91" priority="30" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="93" priority="30" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="90" priority="26" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="92" priority="26" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="89" priority="25" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="91" priority="25" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="88" priority="24" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="90" priority="24" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="87" priority="20" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="89" priority="20" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="86" priority="19" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="88" priority="19" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="85" priority="18" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="87" priority="18" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="84" priority="17" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="86" priority="17" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="83" priority="15" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="85" priority="15" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="82" priority="12" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="83" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="80" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="82" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="81" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="78" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="80" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="79" priority="7" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="76" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="75" priority="5" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H36">
-    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="containsText" dxfId="72" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H41)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24408,8 +24440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25803,20 +25835,28 @@
       </c>
       <c r="B49" s="30">
         <f>'Our Bug Metrics'!B49</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="30">
+        <v>4</v>
+      </c>
+      <c r="C49" s="30" t="str">
         <f>'Our Bug Metrics'!C49</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="15">
+        <v>Bootstrap</v>
+      </c>
+      <c r="D49" s="15" t="str">
         <f>'Our Bug Metrics'!D49</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="11"/>
+        <v>wrong naming of errors</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="17">
+        <v>43775</v>
+      </c>
+      <c r="G49" s="17">
+        <v>43775</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
@@ -25825,20 +25865,28 @@
       </c>
       <c r="B50" s="30">
         <f>'Our Bug Metrics'!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="30">
+        <v>4</v>
+      </c>
+      <c r="C50" s="30" t="str">
         <f>'Our Bug Metrics'!C50</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="15">
+        <v>User-Dump</v>
+      </c>
+      <c r="D50" s="15" t="str">
         <f>'Our Bug Metrics'!D50</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="11"/>
+        <v>wrong output for amount</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="17">
+        <v>43775</v>
+      </c>
+      <c r="G50" s="17">
+        <v>43775</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
@@ -35466,352 +35514,367 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="85" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="86" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="68" priority="84">
+    <cfRule type="containsBlanks" dxfId="70" priority="87">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="65" priority="69">
+    <cfRule type="containsBlanks" dxfId="67" priority="72">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="62" priority="66">
+    <cfRule type="containsBlanks" dxfId="64" priority="69">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="59" priority="63">
+    <cfRule type="containsBlanks" dxfId="61" priority="66">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="56" priority="60">
+    <cfRule type="containsBlanks" dxfId="58" priority="63">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="53" priority="57">
+    <cfRule type="containsBlanks" dxfId="55" priority="60">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="50" priority="54">
+    <cfRule type="containsBlanks" dxfId="52" priority="57">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="47" priority="51">
+    <cfRule type="containsBlanks" dxfId="49" priority="54">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="44" priority="48">
+    <cfRule type="containsBlanks" dxfId="46" priority="51">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="41" priority="45">
+    <cfRule type="containsBlanks" dxfId="43" priority="48">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="38" priority="42">
+    <cfRule type="containsBlanks" dxfId="40" priority="45">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsBlanks" dxfId="35" priority="39">
+    <cfRule type="containsBlanks" dxfId="37" priority="42">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsBlanks" dxfId="32" priority="36">
+    <cfRule type="containsBlanks" dxfId="34" priority="39">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsBlanks" dxfId="29" priority="33">
+    <cfRule type="containsBlanks" dxfId="31" priority="36">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsBlanks" dxfId="26" priority="30">
+    <cfRule type="containsBlanks" dxfId="28" priority="33">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="23" priority="27">
+    <cfRule type="containsBlanks" dxfId="25" priority="30">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsBlanks" dxfId="20" priority="21">
+    <cfRule type="containsBlanks" dxfId="22" priority="24">
       <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsBlanks" dxfId="17" priority="18">
+    <cfRule type="containsBlanks" dxfId="19" priority="21">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsBlanks" dxfId="14" priority="15">
+    <cfRule type="containsBlanks" dxfId="16" priority="18">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="containsBlanks" dxfId="11" priority="12">
+    <cfRule type="containsBlanks" dxfId="13" priority="15">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
+    <cfRule type="containsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E48">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E48">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
+      <formula>LEN(TRIM(E42))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E42))=0</formula>
+      <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E48" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E50" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -41512,7 +41575,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E143AD13-BB12-4875-84F9-E452E81192D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A6E536-6CC5-49BF-85D5-B848A1F7638D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="144">
   <si>
     <t>Bug Log</t>
   </si>
@@ -449,6 +449,21 @@
   <si>
     <t>wrong output for amount</t>
   </si>
+  <si>
+    <t>common.php</t>
+  </si>
+  <si>
+    <t>wrong validation of student edollar for bootstrap</t>
+  </si>
+  <si>
+    <t>wrong validation for student edollar for bootstrap</t>
+  </si>
+  <si>
+    <t>bid-dump.php</t>
+  </si>
+  <si>
+    <t>JSON output includes round 1 successful bids</t>
+  </si>
 </sst>
 </file>
 
@@ -543,6 +558,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -748,7 +764,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="103">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -777,6 +814,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1894,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19587,20 +19645,52 @@
       <c r="A51" s="43">
         <v>49</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="F51" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B51" s="24">
+        <v>4</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="40">
+        <v>1</v>
+      </c>
+      <c r="G51" s="40">
+        <v>1</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A52" s="43">
         <v>50</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="F52" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B52" s="24">
+        <v>4</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="40">
+        <v>1</v>
+      </c>
+      <c r="G52" s="40">
+        <v>1</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -24308,122 +24398,122 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2 H12:H21 H37:H39 H42:H1048576">
-    <cfRule type="containsText" dxfId="96" priority="39" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="102" priority="39" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="95" priority="38" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="101" priority="38" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="94" priority="32" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="100" priority="32" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="93" priority="30" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="99" priority="30" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="92" priority="26" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="98" priority="26" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="91" priority="25" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="97" priority="25" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="90" priority="24" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="96" priority="24" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="89" priority="20" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="95" priority="20" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="88" priority="19" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="94" priority="19" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="87" priority="18" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="93" priority="18" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="86" priority="17" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="92" priority="17" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="85" priority="15" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="91" priority="15" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="83" priority="11" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="89" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="82" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="88" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="81" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="80" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="86" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="79" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="82" priority="4" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H36">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="80" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H41)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24440,8 +24530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25895,20 +25985,26 @@
       </c>
       <c r="B51" s="30">
         <f>'Our Bug Metrics'!B51</f>
-        <v>0</v>
-      </c>
-      <c r="C51" s="30">
-        <f>'Our Bug Metrics'!C51</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="15">
-        <f>'Our Bug Metrics'!D51</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="17">
+        <v>43775</v>
+      </c>
+      <c r="G51" s="17">
+        <v>43775</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
@@ -25917,20 +26013,28 @@
       </c>
       <c r="B52" s="30">
         <f>'Our Bug Metrics'!B52</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="30">
+        <v>4</v>
+      </c>
+      <c r="C52" s="30" t="str">
         <f>'Our Bug Metrics'!C52</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="15">
+        <v>bid-dump.php</v>
+      </c>
+      <c r="D52" s="15" t="str">
         <f>'Our Bug Metrics'!D52</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="11"/>
+        <v>JSON output includes round 1 successful bids</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="17">
+        <v>43775</v>
+      </c>
+      <c r="G52" s="17">
+        <v>43775</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
@@ -35514,367 +35618,397 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="72" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="91" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="71" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="92" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="70" priority="87">
+    <cfRule type="containsBlanks" dxfId="76" priority="93">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsBlanks" dxfId="73" priority="78">
+      <formula>LEN(TRIM(E10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="containsBlanks" dxfId="70" priority="75">
+      <formula>LEN(TRIM(E11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E9">
     <cfRule type="containsBlanks" dxfId="67" priority="72">
-      <formula>LEN(TRIM(E10))=0</formula>
+      <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E8">
     <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E8">
     <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E8">
     <cfRule type="containsBlanks" dxfId="64" priority="69">
-      <formula>LEN(TRIM(E11))=0</formula>
+      <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E7">
     <cfRule type="containsBlanks" dxfId="61" priority="66">
-      <formula>LEN(TRIM(E9))=0</formula>
+      <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E12">
     <cfRule type="containsBlanks" dxfId="58" priority="63">
-      <formula>LEN(TRIM(E8))=0</formula>
+      <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E6">
     <cfRule type="containsBlanks" dxfId="55" priority="60">
-      <formula>LEN(TRIM(E7))=0</formula>
+      <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E21">
     <cfRule type="containsBlanks" dxfId="52" priority="57">
-      <formula>LEN(TRIM(E12))=0</formula>
+      <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E22">
     <cfRule type="containsBlanks" dxfId="49" priority="54">
-      <formula>LEN(TRIM(E6))=0</formula>
+      <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E23">
     <cfRule type="containsBlanks" dxfId="46" priority="51">
-      <formula>LEN(TRIM(E21))=0</formula>
+      <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E24">
     <cfRule type="containsBlanks" dxfId="43" priority="48">
-      <formula>LEN(TRIM(E22))=0</formula>
+      <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E25">
     <cfRule type="containsBlanks" dxfId="40" priority="45">
-      <formula>LEN(TRIM(E23))=0</formula>
+      <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="containsBlanks" dxfId="37" priority="42">
-      <formula>LEN(TRIM(E24))=0</formula>
+      <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E28">
     <cfRule type="containsBlanks" dxfId="34" priority="39">
-      <formula>LEN(TRIM(E25))=0</formula>
+      <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="E29">
     <cfRule type="containsBlanks" dxfId="31" priority="36">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="containsBlanks" dxfId="28" priority="33">
-      <formula>LEN(TRIM(E28))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="25" priority="30">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="containsBlanks" dxfId="28" priority="30">
+      <formula>LEN(TRIM(E30))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsBlanks" dxfId="25" priority="27">
+      <formula>LEN(TRIM(E31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E32">
     <cfRule type="containsBlanks" dxfId="22" priority="24">
-      <formula>LEN(TRIM(E30))=0</formula>
+      <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="containsBlanks" dxfId="19" priority="21">
-      <formula>LEN(TRIM(E31))=0</formula>
+      <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E40">
     <cfRule type="containsBlanks" dxfId="16" priority="18">
-      <formula>LEN(TRIM(E32))=0</formula>
+      <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E41">
     <cfRule type="containsBlanks" dxfId="13" priority="15">
-      <formula>LEN(TRIM(E33))=0</formula>
+      <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="containsBlanks" dxfId="10" priority="12">
-      <formula>LEN(TRIM(E40))=0</formula>
+      <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="containsBlanks" dxfId="7" priority="9">
-      <formula>LEN(TRIM(E41))=0</formula>
+      <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
-      <formula>LEN(TRIM(E42))=0</formula>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
+      <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E52">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E49))=0</formula>
+      <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E50" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E52" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -41575,7 +41709,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A6E536-6CC5-49BF-85D5-B848A1F7638D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CABB2C-B308-41D9-A6FC-59FFA5808C24}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="143">
   <si>
     <t>Bug Log</t>
   </si>
@@ -402,9 +402,6 @@
     <t>For a section vacancy of 2 in IS003 S1, 2 students first bid $10. Then, a third person bids $11 but the original 2 were not kicked out of the section</t>
   </si>
   <si>
-    <t>Unresolved</t>
-  </si>
-  <si>
     <t>SH &amp; LW</t>
   </si>
   <si>
@@ -766,6 +763,16 @@
   </cellStyles>
   <dxfs count="103">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -804,16 +811,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1952,7 +1949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -19382,10 +19379,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="E41" s="40" t="s">
         <v>38</v>
@@ -19409,10 +19406,10 @@
         <v>4</v>
       </c>
       <c r="C42" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="E42" s="40" t="s">
         <v>31</v>
@@ -19435,10 +19432,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" s="43" t="s">
         <v>31</v>
@@ -19462,10 +19459,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E44" s="40" t="s">
         <v>31</v>
@@ -19489,10 +19486,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E45" s="40" t="s">
         <v>31</v>
@@ -19516,10 +19513,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>31</v>
@@ -19543,10 +19540,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>134</v>
       </c>
       <c r="E47" s="40" t="s">
         <v>31</v>
@@ -19570,10 +19567,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E48" s="40" t="s">
         <v>31</v>
@@ -19599,7 +19596,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E49" s="40" t="s">
         <v>31</v>
@@ -19623,10 +19620,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="22" t="s">
         <v>137</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>138</v>
       </c>
       <c r="E50" s="40" t="s">
         <v>31</v>
@@ -19649,10 +19646,10 @@
         <v>4</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E51" s="40" t="s">
         <v>31</v>
@@ -19675,10 +19672,10 @@
         <v>4</v>
       </c>
       <c r="C52" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>143</v>
       </c>
       <c r="E52" s="40" t="s">
         <v>31</v>
@@ -24530,8 +24527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25668,14 +25665,16 @@
         <v>For a section vacancy of 2 in IS003 S1, 2 students first bid $10. Then, a third person bids $11 but the original 2 were not kicked out of the section</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="F40" s="12">
         <v>43774</v>
       </c>
-      <c r="G40" s="12"/>
+      <c r="G40" s="12">
+        <v>43775</v>
+      </c>
       <c r="H40" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -25705,7 +25704,7 @@
         <v>43768</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -25735,7 +25734,7 @@
         <v>43769</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25765,7 +25764,7 @@
         <v>43769</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25795,7 +25794,7 @@
         <v>43769</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25825,7 +25824,7 @@
         <v>43769</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25855,7 +25854,7 @@
         <v>43769</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25885,7 +25884,7 @@
         <v>43769</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25915,7 +25914,7 @@
         <v>43769</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25945,7 +25944,7 @@
         <v>43775</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25975,7 +25974,7 @@
         <v>43775</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25988,10 +25987,10 @@
         <v>4</v>
       </c>
       <c r="C51" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>26</v>
@@ -26003,7 +26002,7 @@
         <v>43775</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -26033,7 +26032,7 @@
         <v>43775</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -35978,32 +35977,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41709,7 +41708,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CABB2C-B308-41D9-A6FC-59FFA5808C24}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A6E536-6CC5-49BF-85D5-B848A1F7638D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="144">
   <si>
     <t>Bug Log</t>
   </si>
@@ -402,6 +402,9 @@
     <t>For a section vacancy of 2 in IS003 S1, 2 students first bid $10. Then, a third person bids $11 but the original 2 were not kicked out of the section</t>
   </si>
   <si>
+    <t>Unresolved</t>
+  </si>
+  <si>
     <t>SH &amp; LW</t>
   </si>
   <si>
@@ -763,16 +766,6 @@
   </cellStyles>
   <dxfs count="103">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -811,6 +804,16 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1949,7 +1952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -19379,10 +19382,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E41" s="40" t="s">
         <v>38</v>
@@ -19406,10 +19409,10 @@
         <v>4</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E42" s="40" t="s">
         <v>31</v>
@@ -19432,10 +19435,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E43" s="43" t="s">
         <v>31</v>
@@ -19459,10 +19462,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E44" s="40" t="s">
         <v>31</v>
@@ -19486,10 +19489,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E45" s="40" t="s">
         <v>31</v>
@@ -19513,10 +19516,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>31</v>
@@ -19540,10 +19543,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E47" s="40" t="s">
         <v>31</v>
@@ -19567,10 +19570,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E48" s="40" t="s">
         <v>31</v>
@@ -19596,7 +19599,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E49" s="40" t="s">
         <v>31</v>
@@ -19620,10 +19623,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E50" s="40" t="s">
         <v>31</v>
@@ -19646,10 +19649,10 @@
         <v>4</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E51" s="40" t="s">
         <v>31</v>
@@ -19672,10 +19675,10 @@
         <v>4</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E52" s="40" t="s">
         <v>31</v>
@@ -24527,8 +24530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25665,16 +25668,14 @@
         <v>For a section vacancy of 2 in IS003 S1, 2 students first bid $10. Then, a third person bids $11 but the original 2 were not kicked out of the section</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="F40" s="12">
         <v>43774</v>
       </c>
-      <c r="G40" s="12">
-        <v>43775</v>
-      </c>
+      <c r="G40" s="12"/>
       <c r="H40" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -25704,7 +25705,7 @@
         <v>43768</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -25734,7 +25735,7 @@
         <v>43769</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25764,7 +25765,7 @@
         <v>43769</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25794,7 +25795,7 @@
         <v>43769</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25824,7 +25825,7 @@
         <v>43769</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25854,7 +25855,7 @@
         <v>43769</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25884,7 +25885,7 @@
         <v>43769</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25914,7 +25915,7 @@
         <v>43769</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25944,7 +25945,7 @@
         <v>43775</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25974,7 +25975,7 @@
         <v>43775</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -25987,10 +25988,10 @@
         <v>4</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>26</v>
@@ -26002,7 +26003,7 @@
         <v>43775</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -26032,7 +26033,7 @@
         <v>43775</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -35977,32 +35978,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41708,7 +41709,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CABB2C-B308-41D9-A6FC-59FFA5808C24}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA23892-98FD-41CE-A951-DAEC0A4913E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="146">
   <si>
     <t>Bug Log</t>
   </si>
@@ -461,6 +461,15 @@
   <si>
     <t>JSON output includes round 1 successful bids</t>
   </si>
+  <si>
+    <t>bid-status.php</t>
+  </si>
+  <si>
+    <t>Vacancy for round 2 inactive is deducted twice</t>
+  </si>
+  <si>
+    <t>SA &amp; SH</t>
+  </si>
 </sst>
 </file>
 
@@ -761,7 +770,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="106">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1950,7 +1980,7 @@
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19694,10 +19724,26 @@
       <c r="A53" s="43">
         <v>51</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="F53" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B53" s="24">
+        <v>5</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="40">
+        <v>1</v>
+      </c>
+      <c r="G53" s="40">
+        <v>1</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -24395,122 +24441,122 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2 H12:H21 H37:H39 H42:H1048576">
-    <cfRule type="containsText" dxfId="102" priority="39" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="105" priority="39" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="101" priority="38" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="104" priority="38" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="100" priority="32" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="103" priority="32" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="99" priority="30" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="102" priority="30" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="98" priority="26" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="101" priority="26" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="97" priority="25" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="100" priority="25" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="96" priority="24" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="99" priority="24" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="95" priority="20" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="98" priority="20" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="94" priority="19" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="97" priority="19" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="93" priority="18" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="96" priority="18" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="92" priority="17" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="95" priority="17" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="91" priority="15" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="94" priority="15" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="93" priority="12" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="89" priority="11" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="92" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="88" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="91" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="90" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="86" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="89" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="88" priority="7" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="87" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="82" priority="4" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="85" priority="4" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H36">
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="84" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="containsText" dxfId="80" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="83" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H41)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24528,7 +24574,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26042,20 +26088,28 @@
       </c>
       <c r="B53" s="30">
         <f>'Our Bug Metrics'!B53</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="30">
+        <v>5</v>
+      </c>
+      <c r="C53" s="30" t="str">
         <f>'Our Bug Metrics'!C53</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="15">
+        <v>bid-status.php</v>
+      </c>
+      <c r="D53" s="15" t="str">
         <f>'Our Bug Metrics'!D53</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="11"/>
+        <v>Vacancy for round 2 inactive is deducted twice</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="12">
+        <v>43810</v>
+      </c>
+      <c r="G53" s="12">
+        <v>43810</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
@@ -35617,397 +35671,412 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="78" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="94" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="77" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="95" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="76" priority="93">
+    <cfRule type="containsBlanks" dxfId="79" priority="96">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsBlanks" dxfId="76" priority="81">
+      <formula>LEN(TRIM(E10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E11">
     <cfRule type="containsBlanks" dxfId="73" priority="78">
-      <formula>LEN(TRIM(E10))=0</formula>
+      <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E9">
     <cfRule type="containsBlanks" dxfId="70" priority="75">
-      <formula>LEN(TRIM(E11))=0</formula>
+      <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E8">
     <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E8">
     <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E8">
     <cfRule type="containsBlanks" dxfId="67" priority="72">
-      <formula>LEN(TRIM(E9))=0</formula>
+      <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E7">
     <cfRule type="containsBlanks" dxfId="64" priority="69">
-      <formula>LEN(TRIM(E8))=0</formula>
+      <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E12">
     <cfRule type="containsBlanks" dxfId="61" priority="66">
-      <formula>LEN(TRIM(E7))=0</formula>
+      <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E6">
     <cfRule type="containsBlanks" dxfId="58" priority="63">
-      <formula>LEN(TRIM(E12))=0</formula>
+      <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E21">
     <cfRule type="containsBlanks" dxfId="55" priority="60">
-      <formula>LEN(TRIM(E6))=0</formula>
+      <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="containsBlanks" dxfId="52" priority="57">
-      <formula>LEN(TRIM(E21))=0</formula>
+      <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="containsBlanks" dxfId="49" priority="54">
-      <formula>LEN(TRIM(E22))=0</formula>
+      <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="containsBlanks" dxfId="46" priority="51">
-      <formula>LEN(TRIM(E23))=0</formula>
+      <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="containsBlanks" dxfId="43" priority="48">
-      <formula>LEN(TRIM(E24))=0</formula>
+      <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="containsBlanks" dxfId="40" priority="45">
-      <formula>LEN(TRIM(E25))=0</formula>
+      <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="containsBlanks" dxfId="37" priority="42">
-      <formula>LEN(TRIM(E26))=0</formula>
+      <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29">
     <cfRule type="containsBlanks" dxfId="34" priority="39">
-      <formula>LEN(TRIM(E28))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="31" priority="36">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="containsBlanks" dxfId="31" priority="33">
+      <formula>LEN(TRIM(E30))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E31">
     <cfRule type="containsBlanks" dxfId="28" priority="30">
-      <formula>LEN(TRIM(E30))=0</formula>
+      <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="containsBlanks" dxfId="25" priority="27">
-      <formula>LEN(TRIM(E31))=0</formula>
+      <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="containsBlanks" dxfId="22" priority="24">
-      <formula>LEN(TRIM(E32))=0</formula>
+      <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="containsBlanks" dxfId="19" priority="21">
-      <formula>LEN(TRIM(E33))=0</formula>
+      <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="containsBlanks" dxfId="16" priority="18">
-      <formula>LEN(TRIM(E40))=0</formula>
+      <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="containsBlanks" dxfId="13" priority="15">
-      <formula>LEN(TRIM(E41))=0</formula>
+      <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="containsBlanks" dxfId="10" priority="12">
-      <formula>LEN(TRIM(E42))=0</formula>
+      <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E51">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E51">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E51">
     <cfRule type="containsBlanks" dxfId="7" priority="9">
-      <formula>LEN(TRIM(E49))=0</formula>
+      <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="containsBlanks" dxfId="4" priority="6">
-      <formula>LEN(TRIM(E51))=0</formula>
+      <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(E52))=0</formula>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(E53))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E52" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E53" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -41708,7 +41777,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CABB2C-B308-41D9-A6FC-59FFA5808C24}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E7EF4F-EAC2-4948-A383-99A0B9FD771C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="145">
   <si>
     <t>Bug Log</t>
   </si>
@@ -461,6 +461,12 @@
   <si>
     <t>JSON output includes round 1 successful bids</t>
   </si>
+  <si>
+    <t>section-dump.php</t>
+  </si>
+  <si>
+    <t>JSON output indicates NULL for student instead of empty array</t>
+  </si>
 </sst>
 </file>
 
@@ -761,7 +767,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="106">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -769,6 +775,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1949,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A38" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19694,10 +19721,27 @@
       <c r="A53" s="43">
         <v>51</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="F53" s="40" t="str">
+      <c r="B53" s="24">
+        <v>4</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="40">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="40">
+        <v>1</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -24395,122 +24439,122 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2 H12:H21 H37:H39 H42:H1048576">
-    <cfRule type="containsText" dxfId="102" priority="39" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="105" priority="39" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="101" priority="38" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="104" priority="38" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="100" priority="32" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="103" priority="32" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="99" priority="30" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="102" priority="30" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="98" priority="26" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="101" priority="26" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="97" priority="25" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="100" priority="25" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="96" priority="24" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="99" priority="24" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="95" priority="20" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="98" priority="20" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="94" priority="19" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="97" priority="19" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="93" priority="18" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="96" priority="18" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="92" priority="17" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="95" priority="17" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="91" priority="15" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="94" priority="15" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="93" priority="12" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="89" priority="11" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="92" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="88" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="91" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="90" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="86" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="89" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="88" priority="7" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="87" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="82" priority="4" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="85" priority="4" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H36">
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="84" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="containsText" dxfId="80" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="83" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H41)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24528,7 +24572,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26042,20 +26086,28 @@
       </c>
       <c r="B53" s="30">
         <f>'Our Bug Metrics'!B53</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="30">
+        <v>4</v>
+      </c>
+      <c r="C53" s="30" t="str">
         <f>'Our Bug Metrics'!C53</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="15">
+        <v>section-dump.php</v>
+      </c>
+      <c r="D53" s="15" t="str">
         <f>'Our Bug Metrics'!D53</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="11"/>
+        <v>JSON output indicates NULL for student instead of empty array</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="12">
+        <v>43781</v>
+      </c>
+      <c r="G53" s="12">
+        <v>43781</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
@@ -35617,397 +35669,412 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="78" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="94" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="77" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="95" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="76" priority="93">
+    <cfRule type="containsBlanks" dxfId="79" priority="96">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsBlanks" dxfId="76" priority="81">
+      <formula>LEN(TRIM(E10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E11">
     <cfRule type="containsBlanks" dxfId="73" priority="78">
-      <formula>LEN(TRIM(E10))=0</formula>
+      <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E9">
     <cfRule type="containsBlanks" dxfId="70" priority="75">
-      <formula>LEN(TRIM(E11))=0</formula>
+      <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E8">
     <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E8">
     <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E8">
     <cfRule type="containsBlanks" dxfId="67" priority="72">
-      <formula>LEN(TRIM(E9))=0</formula>
+      <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E7">
     <cfRule type="containsBlanks" dxfId="64" priority="69">
-      <formula>LEN(TRIM(E8))=0</formula>
+      <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E12">
     <cfRule type="containsBlanks" dxfId="61" priority="66">
-      <formula>LEN(TRIM(E7))=0</formula>
+      <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E6">
     <cfRule type="containsBlanks" dxfId="58" priority="63">
-      <formula>LEN(TRIM(E12))=0</formula>
+      <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E21">
     <cfRule type="containsBlanks" dxfId="55" priority="60">
-      <formula>LEN(TRIM(E6))=0</formula>
+      <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="containsBlanks" dxfId="52" priority="57">
-      <formula>LEN(TRIM(E21))=0</formula>
+      <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="containsBlanks" dxfId="49" priority="54">
-      <formula>LEN(TRIM(E22))=0</formula>
+      <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="containsBlanks" dxfId="46" priority="51">
-      <formula>LEN(TRIM(E23))=0</formula>
+      <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="containsBlanks" dxfId="43" priority="48">
-      <formula>LEN(TRIM(E24))=0</formula>
+      <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="containsBlanks" dxfId="40" priority="45">
-      <formula>LEN(TRIM(E25))=0</formula>
+      <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="containsBlanks" dxfId="37" priority="42">
-      <formula>LEN(TRIM(E26))=0</formula>
+      <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29">
     <cfRule type="containsBlanks" dxfId="34" priority="39">
-      <formula>LEN(TRIM(E28))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="31" priority="36">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="containsBlanks" dxfId="31" priority="33">
+      <formula>LEN(TRIM(E30))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E31">
     <cfRule type="containsBlanks" dxfId="28" priority="30">
-      <formula>LEN(TRIM(E30))=0</formula>
+      <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="containsBlanks" dxfId="25" priority="27">
-      <formula>LEN(TRIM(E31))=0</formula>
+      <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="containsBlanks" dxfId="22" priority="24">
-      <formula>LEN(TRIM(E32))=0</formula>
+      <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="containsBlanks" dxfId="19" priority="21">
-      <formula>LEN(TRIM(E33))=0</formula>
+      <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="containsBlanks" dxfId="16" priority="18">
-      <formula>LEN(TRIM(E40))=0</formula>
+      <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="containsBlanks" dxfId="13" priority="15">
-      <formula>LEN(TRIM(E41))=0</formula>
+      <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="containsBlanks" dxfId="10" priority="12">
-      <formula>LEN(TRIM(E42))=0</formula>
+      <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E51">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E51">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E51">
     <cfRule type="containsBlanks" dxfId="7" priority="9">
-      <formula>LEN(TRIM(E49))=0</formula>
+      <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="containsBlanks" dxfId="4" priority="6">
-      <formula>LEN(TRIM(E51))=0</formula>
+      <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E53">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E53">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E53">
     <cfRule type="containsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(E52))=0</formula>
+      <formula>LEN(TRIM(E53))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E52" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E53" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E7EF4F-EAC2-4948-A383-99A0B9FD771C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CABB2C-B308-41D9-A6FC-59FFA5808C24}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="143">
   <si>
     <t>Bug Log</t>
   </si>
@@ -461,12 +461,6 @@
   <si>
     <t>JSON output includes round 1 successful bids</t>
   </si>
-  <si>
-    <t>section-dump.php</t>
-  </si>
-  <si>
-    <t>JSON output indicates NULL for student instead of empty array</t>
-  </si>
 </sst>
 </file>
 
@@ -767,7 +761,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="103">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -775,27 +769,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1976,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52:H53"/>
+    <sheetView topLeftCell="A41" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19721,27 +19694,10 @@
       <c r="A53" s="43">
         <v>51</v>
       </c>
-      <c r="B53" s="24">
-        <v>4</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="40">
+      <c r="B53" s="24"/>
+      <c r="F53" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G53" s="40">
-        <v>1</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>64</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -24439,122 +24395,122 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2 H12:H21 H37:H39 H42:H1048576">
-    <cfRule type="containsText" dxfId="105" priority="39" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="102" priority="39" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="104" priority="38" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="101" priority="38" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="103" priority="32" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="100" priority="32" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="102" priority="30" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="99" priority="30" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="101" priority="26" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="98" priority="26" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="100" priority="25" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="97" priority="25" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="99" priority="24" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="96" priority="24" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="98" priority="20" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="95" priority="20" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="97" priority="19" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="94" priority="19" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="96" priority="18" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="93" priority="18" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="95" priority="17" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="92" priority="17" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="94" priority="15" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="91" priority="15" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="93" priority="12" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="92" priority="11" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="89" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="91" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="88" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="90" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="89" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="86" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="88" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="87" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="85" priority="4" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="82" priority="4" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H36">
-    <cfRule type="containsText" dxfId="84" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="containsText" dxfId="83" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="80" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H41)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24572,7 +24528,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26086,28 +26042,20 @@
       </c>
       <c r="B53" s="30">
         <f>'Our Bug Metrics'!B53</f>
-        <v>4</v>
-      </c>
-      <c r="C53" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="C53" s="30">
         <f>'Our Bug Metrics'!C53</f>
-        <v>section-dump.php</v>
-      </c>
-      <c r="D53" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="D53" s="15">
         <f>'Our Bug Metrics'!D53</f>
-        <v>JSON output indicates NULL for student instead of empty array</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="12">
-        <v>43781</v>
-      </c>
-      <c r="G53" s="12">
-        <v>43781</v>
-      </c>
-      <c r="H53" s="16" t="s">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
@@ -35669,412 +35617,397 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="81" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="91" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="80" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="92" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="79" priority="96">
+    <cfRule type="containsBlanks" dxfId="76" priority="93">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="76" priority="81">
+    <cfRule type="containsBlanks" dxfId="73" priority="78">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="73" priority="78">
+    <cfRule type="containsBlanks" dxfId="70" priority="75">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="70" priority="75">
+    <cfRule type="containsBlanks" dxfId="67" priority="72">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="67" priority="72">
+    <cfRule type="containsBlanks" dxfId="64" priority="69">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="64" priority="69">
+    <cfRule type="containsBlanks" dxfId="61" priority="66">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="61" priority="66">
+    <cfRule type="containsBlanks" dxfId="58" priority="63">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="58" priority="63">
+    <cfRule type="containsBlanks" dxfId="55" priority="60">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="55" priority="60">
+    <cfRule type="containsBlanks" dxfId="52" priority="57">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="52" priority="57">
+    <cfRule type="containsBlanks" dxfId="49" priority="54">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="49" priority="54">
+    <cfRule type="containsBlanks" dxfId="46" priority="51">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsBlanks" dxfId="46" priority="51">
+    <cfRule type="containsBlanks" dxfId="43" priority="48">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsBlanks" dxfId="43" priority="48">
+    <cfRule type="containsBlanks" dxfId="40" priority="45">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsBlanks" dxfId="40" priority="45">
+    <cfRule type="containsBlanks" dxfId="37" priority="42">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsBlanks" dxfId="37" priority="42">
+    <cfRule type="containsBlanks" dxfId="34" priority="39">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="34" priority="39">
+    <cfRule type="containsBlanks" dxfId="31" priority="36">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsBlanks" dxfId="31" priority="33">
+    <cfRule type="containsBlanks" dxfId="28" priority="30">
       <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsBlanks" dxfId="28" priority="30">
+    <cfRule type="containsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsBlanks" dxfId="25" priority="27">
+    <cfRule type="containsBlanks" dxfId="22" priority="24">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="containsBlanks" dxfId="22" priority="24">
+    <cfRule type="containsBlanks" dxfId="19" priority="21">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsBlanks" dxfId="19" priority="21">
+    <cfRule type="containsBlanks" dxfId="16" priority="18">
       <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsBlanks" dxfId="16" priority="18">
+    <cfRule type="containsBlanks" dxfId="13" priority="15">
       <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="containsBlanks" dxfId="13" priority="15">
+    <cfRule type="containsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(E53))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E53" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E52" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Documents\GitHub\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA23892-98FD-41CE-A951-DAEC0A4913E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F412092-198D-40A0-BD3D-904DDA3D4234}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="148">
   <si>
     <t>Bug Log</t>
   </si>
@@ -470,6 +470,12 @@
   <si>
     <t>SA &amp; SH</t>
   </si>
+  <si>
+    <t>section-dump.php</t>
+  </si>
+  <si>
+    <t>Json shows Null when no students in section instead of empty array</t>
+  </si>
 </sst>
 </file>
 
@@ -770,7 +776,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="109">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -793,12 +809,23 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1980,7 +2007,7 @@
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="H53" sqref="H53:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19746,14 +19773,31 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="43">
         <v>52</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="F54" s="40" t="str">
+      <c r="B54" s="30">
+        <v>5</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="40">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="40">
+        <v>1</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -24441,122 +24485,122 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2 H12:H21 H37:H39 H42:H1048576">
-    <cfRule type="containsText" dxfId="105" priority="39" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="108" priority="39" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="104" priority="38" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="107" priority="38" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="103" priority="32" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="106" priority="32" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="102" priority="30" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="105" priority="30" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="101" priority="26" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="104" priority="26" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="100" priority="25" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="103" priority="25" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="99" priority="24" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="102" priority="24" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="98" priority="20" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="101" priority="20" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="97" priority="19" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="100" priority="19" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="96" priority="18" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="99" priority="18" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="95" priority="17" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="98" priority="17" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="94" priority="15" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="97" priority="15" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="93" priority="12" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="92" priority="11" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="91" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="94" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="90" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="89" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="92" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="88" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="91" priority="7" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="87" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="89" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="85" priority="4" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="88" priority="4" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H36">
-    <cfRule type="containsText" dxfId="84" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="containsText" dxfId="83" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="85" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H41)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24574,7 +24618,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26118,20 +26162,28 @@
       </c>
       <c r="B54" s="30">
         <f>'Our Bug Metrics'!B54</f>
-        <v>0</v>
-      </c>
-      <c r="C54" s="30">
+        <v>5</v>
+      </c>
+      <c r="C54" s="30" t="str">
         <f>'Our Bug Metrics'!C54</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="15">
+        <v>section-dump.php</v>
+      </c>
+      <c r="D54" s="15" t="str">
         <f>'Our Bug Metrics'!D54</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="11"/>
+        <v>Json shows Null when no students in section instead of empty array</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="12">
+        <v>43810</v>
+      </c>
+      <c r="G54" s="12">
+        <v>43810</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
@@ -35671,412 +35723,427 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="81" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="97" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="80" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="98" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="79" priority="96">
+    <cfRule type="containsBlanks" dxfId="82" priority="99">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="80" priority="83" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsBlanks" dxfId="79" priority="84">
+      <formula>LEN(TRIM(E10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E11">
     <cfRule type="containsBlanks" dxfId="76" priority="81">
-      <formula>LEN(TRIM(E10))=0</formula>
+      <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E9">
     <cfRule type="containsBlanks" dxfId="73" priority="78">
-      <formula>LEN(TRIM(E11))=0</formula>
+      <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E8">
     <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E8">
     <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E8">
     <cfRule type="containsBlanks" dxfId="70" priority="75">
-      <formula>LEN(TRIM(E9))=0</formula>
+      <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E7">
     <cfRule type="containsBlanks" dxfId="67" priority="72">
-      <formula>LEN(TRIM(E8))=0</formula>
+      <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E12">
     <cfRule type="containsBlanks" dxfId="64" priority="69">
-      <formula>LEN(TRIM(E7))=0</formula>
+      <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E6">
     <cfRule type="containsBlanks" dxfId="61" priority="66">
-      <formula>LEN(TRIM(E12))=0</formula>
+      <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E21">
     <cfRule type="containsBlanks" dxfId="58" priority="63">
-      <formula>LEN(TRIM(E6))=0</formula>
+      <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="containsBlanks" dxfId="55" priority="60">
-      <formula>LEN(TRIM(E21))=0</formula>
+      <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="containsBlanks" dxfId="52" priority="57">
-      <formula>LEN(TRIM(E22))=0</formula>
+      <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="containsBlanks" dxfId="49" priority="54">
-      <formula>LEN(TRIM(E23))=0</formula>
+      <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="containsBlanks" dxfId="46" priority="51">
-      <formula>LEN(TRIM(E24))=0</formula>
+      <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="containsBlanks" dxfId="43" priority="48">
-      <formula>LEN(TRIM(E25))=0</formula>
+      <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="E28">
     <cfRule type="containsBlanks" dxfId="40" priority="45">
-      <formula>LEN(TRIM(E26))=0</formula>
+      <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E29">
     <cfRule type="containsBlanks" dxfId="37" priority="42">
-      <formula>LEN(TRIM(E28))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="34" priority="39">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="containsBlanks" dxfId="34" priority="36">
+      <formula>LEN(TRIM(E30))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E31">
     <cfRule type="containsBlanks" dxfId="31" priority="33">
-      <formula>LEN(TRIM(E30))=0</formula>
+      <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="containsBlanks" dxfId="28" priority="30">
-      <formula>LEN(TRIM(E31))=0</formula>
+      <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="containsBlanks" dxfId="25" priority="27">
-      <formula>LEN(TRIM(E32))=0</formula>
+      <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="containsBlanks" dxfId="22" priority="24">
-      <formula>LEN(TRIM(E33))=0</formula>
+      <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="containsBlanks" dxfId="19" priority="21">
-      <formula>LEN(TRIM(E40))=0</formula>
+      <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="containsBlanks" dxfId="16" priority="18">
-      <formula>LEN(TRIM(E41))=0</formula>
+      <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="containsBlanks" dxfId="13" priority="15">
-      <formula>LEN(TRIM(E42))=0</formula>
+      <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E51">
     <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E51">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E51">
     <cfRule type="containsBlanks" dxfId="10" priority="12">
-      <formula>LEN(TRIM(E49))=0</formula>
+      <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="containsBlanks" dxfId="7" priority="9">
-      <formula>LEN(TRIM(E51))=0</formula>
+      <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E53">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E53">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E53">
     <cfRule type="containsBlanks" dxfId="4" priority="6">
-      <formula>LEN(TRIM(E52))=0</formula>
+      <formula>LEN(TRIM(E53))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E53))=0</formula>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
+      <formula>LEN(TRIM(E54))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E53" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E54" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -41777,7 +41844,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F412092-198D-40A0-BD3D-904DDA3D4234}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9A5A46-9AB8-431F-9C19-A8F1E677B5EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="150">
   <si>
     <t>Bug Log</t>
   </si>
@@ -476,6 +476,12 @@
   <si>
     <t>Json shows Null when no students in section instead of empty array</t>
   </si>
+  <si>
+    <t xml:space="preserve">Student edollar is invalid when it is 1d.p. </t>
+  </si>
+  <si>
+    <t>Unresolved</t>
+  </si>
 </sst>
 </file>
 
@@ -776,7 +782,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="113">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2006,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53:H54"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19800,14 +19837,31 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
         <v>53</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="F55" s="40" t="str">
+      <c r="B55" s="24">
+        <v>5</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="40">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="G55" s="40">
+        <v>5</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -24484,124 +24538,129 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H2 H12:H21 H37:H39 H42:H1048576">
-    <cfRule type="containsText" dxfId="108" priority="39" operator="containsText" text="Stop current Development">
+  <conditionalFormatting sqref="H1:H2 H12:H21 H37:H39 H42:H54 H56:H1048576">
+    <cfRule type="containsText" dxfId="112" priority="40" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="107" priority="38" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="111" priority="39" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="106" priority="32" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="110" priority="33" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="105" priority="30" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="109" priority="31" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="104" priority="26" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="108" priority="27" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="103" priority="25" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="107" priority="26" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="102" priority="24" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="106" priority="25" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="101" priority="20" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="105" priority="21" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="100" priority="19" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="104" priority="20" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="99" priority="18" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="103" priority="19" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="98" priority="17" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="102" priority="18" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="97" priority="15" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="101" priority="16" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="100" priority="13" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="99" priority="12" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="94" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="98" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="97" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="92" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="96" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="91" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="95" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="94" priority="7" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="89" priority="5" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="93" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="88" priority="4" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="92" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H36">
-    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="91" priority="4" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="90" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="85" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="89" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -24617,8 +24676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26192,20 +26251,26 @@
       </c>
       <c r="B55" s="30">
         <f>'Our Bug Metrics'!B55</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="30">
+        <v>5</v>
+      </c>
+      <c r="C55" s="30" t="str">
         <f>'Our Bug Metrics'!C55</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="15">
+        <v>Bootstrap</v>
+      </c>
+      <c r="D55" s="15" t="str">
         <f>'Our Bug Metrics'!D55</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12"/>
+        <v xml:space="preserve">Student edollar is invalid when it is 1d.p. </v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="12">
+        <v>43811</v>
+      </c>
       <c r="G55" s="12"/>
-      <c r="H55" s="11"/>
+      <c r="H55" s="16" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
@@ -35723,427 +35788,442 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="84" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="100" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="83" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="101" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="82" priority="99">
+    <cfRule type="containsBlanks" dxfId="86" priority="102">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="80" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="79" priority="84">
+    <cfRule type="containsBlanks" dxfId="83" priority="87">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="76" priority="81">
+    <cfRule type="containsBlanks" dxfId="80" priority="84">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="79" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="80" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="73" priority="78">
+    <cfRule type="containsBlanks" dxfId="77" priority="81">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="70" priority="75">
+    <cfRule type="containsBlanks" dxfId="74" priority="78">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="67" priority="72">
+    <cfRule type="containsBlanks" dxfId="71" priority="75">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="64" priority="69">
+    <cfRule type="containsBlanks" dxfId="68" priority="72">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="61" priority="66">
+    <cfRule type="containsBlanks" dxfId="65" priority="69">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="58" priority="63">
+    <cfRule type="containsBlanks" dxfId="62" priority="66">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="55" priority="60">
+    <cfRule type="containsBlanks" dxfId="59" priority="63">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="52" priority="57">
+    <cfRule type="containsBlanks" dxfId="56" priority="60">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsBlanks" dxfId="49" priority="54">
+    <cfRule type="containsBlanks" dxfId="53" priority="57">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsBlanks" dxfId="46" priority="51">
+    <cfRule type="containsBlanks" dxfId="50" priority="54">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsBlanks" dxfId="43" priority="48">
+    <cfRule type="containsBlanks" dxfId="47" priority="51">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsBlanks" dxfId="40" priority="45">
+    <cfRule type="containsBlanks" dxfId="44" priority="48">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="37" priority="42">
+    <cfRule type="containsBlanks" dxfId="41" priority="45">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsBlanks" dxfId="34" priority="36">
+    <cfRule type="containsBlanks" dxfId="38" priority="39">
       <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsBlanks" dxfId="31" priority="33">
+    <cfRule type="containsBlanks" dxfId="35" priority="36">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsBlanks" dxfId="28" priority="30">
+    <cfRule type="containsBlanks" dxfId="32" priority="33">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="containsBlanks" dxfId="25" priority="27">
+    <cfRule type="containsBlanks" dxfId="29" priority="30">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsBlanks" dxfId="22" priority="24">
+    <cfRule type="containsBlanks" dxfId="26" priority="27">
       <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsBlanks" dxfId="19" priority="21">
+    <cfRule type="containsBlanks" dxfId="23" priority="24">
       <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="containsBlanks" dxfId="16" priority="18">
+    <cfRule type="containsBlanks" dxfId="20" priority="21">
       <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="containsBlanks" dxfId="13" priority="15">
+    <cfRule type="containsBlanks" dxfId="17" priority="18">
       <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+    <cfRule type="containsBlanks" dxfId="14" priority="15">
       <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
       <formula>LEN(TRIM(E53))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(E54))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(E55))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E54" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E55" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -41844,7 +41924,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9A5A46-9AB8-431F-9C19-A8F1E677B5EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA9D4F-6FC2-4977-97CA-0F2BDE7FAA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="150">
   <si>
     <t>Bug Log</t>
   </si>
@@ -638,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -768,6 +768,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,7 +788,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="113">
+  <dxfs count="116">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -815,12 +821,23 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1652,6 +1669,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2043,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A40" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2061,16 +2088,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -19438,32 +19465,12 @@
       <c r="XFC39" s="30"/>
       <c r="XFD39" s="15"/>
     </row>
-    <row r="40" spans="1:16384" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>38</v>
       </c>
-      <c r="B40" s="24">
-        <v>4</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="40">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G40" s="40">
-        <v>5</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>63</v>
-      </c>
+      <c r="B40" s="24"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" spans="1:16384" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A41" s="43">
@@ -19679,7 +19686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A49" s="43">
         <v>47</v>
       </c>
@@ -19687,23 +19694,23 @@
         <v>4</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G49" s="40">
-        <v>1</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>64</v>
+        <v>122</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="45">
+        <f>IF($E49="Critical", 10, IF($E49="High",5, IF($E49="Low",1,"")))</f>
+        <v>5</v>
+      </c>
+      <c r="G49" s="45">
+        <v>5</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -19714,18 +19721,19 @@
         <v>4</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="40">
+      <c r="F50" s="45">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G50" s="40">
+      <c r="G50" s="45">
         <v>1</v>
       </c>
       <c r="H50" s="19" t="s">
@@ -19740,18 +19748,18 @@
         <v>4</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="40">
+      <c r="F51" s="45">
         <v>1</v>
       </c>
-      <c r="G51" s="40">
+      <c r="G51" s="45">
         <v>1</v>
       </c>
       <c r="H51" s="19" t="s">
@@ -19766,18 +19774,18 @@
         <v>4</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="40">
+      <c r="F52" s="45">
         <v>1</v>
       </c>
-      <c r="G52" s="40">
+      <c r="G52" s="45">
         <v>1</v>
       </c>
       <c r="H52" s="19" t="s">
@@ -19789,89 +19797,104 @@
         <v>51</v>
       </c>
       <c r="B53" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="40">
+      <c r="F53" s="45">
         <v>1</v>
       </c>
-      <c r="G53" s="40">
+      <c r="G53" s="45">
         <v>1</v>
       </c>
       <c r="H53" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A54" s="43">
         <v>52</v>
       </c>
-      <c r="B54" s="30">
+      <c r="B54" s="24">
         <v>5</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="45">
+        <v>1</v>
+      </c>
+      <c r="G54" s="45">
+        <v>1</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="43">
+        <v>53</v>
+      </c>
+      <c r="B55" s="30">
+        <v>5</v>
+      </c>
+      <c r="C55" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D55" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E54" s="40" t="s">
+      <c r="E55" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="40">
+      <c r="F55" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G54" s="40">
+      <c r="G55" s="46">
         <v>1</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H55" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="43">
-        <v>53</v>
-      </c>
-      <c r="B55" s="24">
-        <v>5</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="40">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G55" s="40">
-        <v>5</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
         <v>54</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="F56" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B56" s="24">
+        <v>5</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="46">
+        <v>5</v>
+      </c>
+      <c r="G56" s="46">
+        <v>5</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -24538,129 +24561,129 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H2 H12:H21 H37:H39 H42:H54 H56:H1048576">
-    <cfRule type="containsText" dxfId="112" priority="40" operator="containsText" text="Stop current Development">
+  <conditionalFormatting sqref="H1:H2 H12:H21 H37:H39 H42:H48 H50:H1048576">
+    <cfRule type="containsText" dxfId="115" priority="40" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="111" priority="39" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="114" priority="39" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="110" priority="33" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="113" priority="33" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="109" priority="31" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="112" priority="31" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="108" priority="27" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="111" priority="27" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="107" priority="26" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="110" priority="26" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="106" priority="25" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="105" priority="21" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="108" priority="21" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="104" priority="20" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="107" priority="20" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="103" priority="19" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="106" priority="19" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="102" priority="18" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="105" priority="18" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="101" priority="16" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="104" priority="16" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="100" priority="13" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="103" priority="13" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="99" priority="12" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="102" priority="12" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="98" priority="11" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="101" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="97" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="100" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="96" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="95" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="98" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="94" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="97" priority="7" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="93" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="92" priority="5" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="95" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H36">
-    <cfRule type="containsText" dxfId="91" priority="4" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="94" priority="4" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="containsText" dxfId="90" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="89" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="92" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
-      <formula>NOT(ISERROR(SEARCH("Stop current Development",H55)))</formula>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -24676,8 +24699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54:H55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24694,16 +24717,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -25796,22 +25819,22 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <f>'Our Bug Metrics'!$A40</f>
         <v>38</v>
       </c>
       <c r="B40" s="30">
         <f>'Our Bug Metrics'!B40</f>
-        <v>4</v>
-      </c>
-      <c r="C40" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="C40" s="30">
         <f>'Our Bug Metrics'!C40</f>
-        <v>View Bidding results</v>
-      </c>
-      <c r="D40" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="D40" s="15">
         <f>'Our Bug Metrics'!D40</f>
-        <v>For a section vacancy of 2 in IS003 S1, 2 students first bid $10. Then, a third person bids $11 but the original 2 were not kicked out of the section</v>
+        <v>0</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>26</v>
@@ -26066,7 +26089,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <f>'Our Bug Metrics'!$A49</f>
         <v>47</v>
@@ -26077,23 +26100,23 @@
       </c>
       <c r="C49" s="30" t="str">
         <f>'Our Bug Metrics'!C49</f>
-        <v>Bootstrap</v>
+        <v>View Bidding results</v>
       </c>
       <c r="D49" s="15" t="str">
         <f>'Our Bug Metrics'!D49</f>
-        <v>wrong naming of errors</v>
+        <v>For a section vacancy of 2 in IS003 S1, 2 students first bid $10. Then, a third person bids $11 but the original 2 were not kicked out of the section</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="12">
+        <v>43774</v>
+      </c>
+      <c r="G49" s="12">
         <v>43775</v>
       </c>
-      <c r="G49" s="17">
-        <v>43775</v>
-      </c>
       <c r="H49" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -26107,11 +26130,11 @@
       </c>
       <c r="C50" s="30" t="str">
         <f>'Our Bug Metrics'!C50</f>
-        <v>User-Dump</v>
+        <v>Bootstrap</v>
       </c>
       <c r="D50" s="15" t="str">
         <f>'Our Bug Metrics'!D50</f>
-        <v>wrong output for amount</v>
+        <v>wrong naming of errors</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>26</v>
@@ -26165,11 +26188,11 @@
       </c>
       <c r="C52" s="30" t="str">
         <f>'Our Bug Metrics'!C52</f>
-        <v>bid-dump.php</v>
+        <v>common.php</v>
       </c>
       <c r="D52" s="15" t="str">
         <f>'Our Bug Metrics'!D52</f>
-        <v>JSON output includes round 1 successful bids</v>
+        <v>wrong validation for student edollar for bootstrap</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>26</v>
@@ -26191,15 +26214,15 @@
       </c>
       <c r="B53" s="30">
         <f>'Our Bug Metrics'!B53</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="30" t="str">
         <f>'Our Bug Metrics'!C53</f>
-        <v>bid-status.php</v>
+        <v>bid-dump.php</v>
       </c>
       <c r="D53" s="15" t="str">
         <f>'Our Bug Metrics'!D53</f>
-        <v>Vacancy for round 2 inactive is deducted twice</v>
+        <v>JSON output includes round 1 successful bids</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>26</v>
@@ -26225,11 +26248,11 @@
       </c>
       <c r="C54" s="30" t="str">
         <f>'Our Bug Metrics'!C54</f>
-        <v>section-dump.php</v>
+        <v>bid-status.php</v>
       </c>
       <c r="D54" s="15" t="str">
         <f>'Our Bug Metrics'!D54</f>
-        <v>Json shows Null when no students in section instead of empty array</v>
+        <v>Vacancy for round 2 inactive is deducted twice</v>
       </c>
       <c r="E54" s="29" t="s">
         <v>26</v>
@@ -26255,19 +26278,21 @@
       </c>
       <c r="C55" s="30" t="str">
         <f>'Our Bug Metrics'!C55</f>
-        <v>Bootstrap</v>
+        <v>section-dump.php</v>
       </c>
       <c r="D55" s="15" t="str">
         <f>'Our Bug Metrics'!D55</f>
-        <v xml:space="preserve">Student edollar is invalid when it is 1d.p. </v>
+        <v>Json shows Null when no students in section instead of empty array</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="F55" s="12">
-        <v>43811</v>
-      </c>
-      <c r="G55" s="12"/>
+        <v>43810</v>
+      </c>
+      <c r="G55" s="12">
+        <v>43810</v>
+      </c>
       <c r="H55" s="16" t="s">
         <v>145</v>
       </c>
@@ -26279,18 +26304,22 @@
       </c>
       <c r="B56" s="30">
         <f>'Our Bug Metrics'!B56</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="30">
+        <v>5</v>
+      </c>
+      <c r="C56" s="30" t="str">
         <f>'Our Bug Metrics'!C56</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="15">
+        <v>Bootstrap</v>
+      </c>
+      <c r="D56" s="15" t="str">
         <f>'Our Bug Metrics'!D56</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12"/>
+        <v xml:space="preserve">Student edollar is invalid when it is 1d.p. </v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="12">
+        <v>43810</v>
+      </c>
       <c r="G56" s="12"/>
       <c r="H56" s="11"/>
     </row>
@@ -35788,442 +35817,457 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="88" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="103" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="87" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="104" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="86" priority="102">
+    <cfRule type="containsBlanks" dxfId="88" priority="105">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="89" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="83" priority="87">
+    <cfRule type="containsBlanks" dxfId="85" priority="90">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="80" priority="84">
+    <cfRule type="containsBlanks" dxfId="82" priority="87">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="79" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="78" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="83" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="77" priority="81">
+    <cfRule type="containsBlanks" dxfId="79" priority="84">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="74" priority="78">
+    <cfRule type="containsBlanks" dxfId="76" priority="81">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="71" priority="75">
+    <cfRule type="containsBlanks" dxfId="73" priority="78">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="68" priority="72">
+    <cfRule type="containsBlanks" dxfId="70" priority="75">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="65" priority="69">
+    <cfRule type="containsBlanks" dxfId="67" priority="72">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="62" priority="66">
+    <cfRule type="containsBlanks" dxfId="64" priority="69">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="59" priority="63">
+    <cfRule type="containsBlanks" dxfId="61" priority="66">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="56" priority="60">
+    <cfRule type="containsBlanks" dxfId="58" priority="63">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsBlanks" dxfId="53" priority="57">
+    <cfRule type="containsBlanks" dxfId="55" priority="60">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsBlanks" dxfId="50" priority="54">
+    <cfRule type="containsBlanks" dxfId="52" priority="57">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsBlanks" dxfId="47" priority="51">
+    <cfRule type="containsBlanks" dxfId="49" priority="54">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsBlanks" dxfId="44" priority="48">
+    <cfRule type="containsBlanks" dxfId="46" priority="51">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="41" priority="45">
+    <cfRule type="containsBlanks" dxfId="43" priority="48">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsBlanks" dxfId="38" priority="39">
+    <cfRule type="containsBlanks" dxfId="40" priority="42">
       <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsBlanks" dxfId="35" priority="36">
+    <cfRule type="containsBlanks" dxfId="37" priority="39">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsBlanks" dxfId="32" priority="33">
+    <cfRule type="containsBlanks" dxfId="34" priority="36">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="containsBlanks" dxfId="29" priority="30">
+    <cfRule type="containsBlanks" dxfId="31" priority="33">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsBlanks" dxfId="26" priority="27">
+    <cfRule type="containsBlanks" dxfId="28" priority="30">
       <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsBlanks" dxfId="23" priority="24">
+    <cfRule type="containsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="containsBlanks" dxfId="20" priority="21">
+    <cfRule type="containsBlanks" dxfId="22" priority="24">
       <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="containsBlanks" dxfId="17" priority="18">
+    <cfRule type="containsBlanks" dxfId="19" priority="21">
       <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsBlanks" dxfId="14" priority="15">
+    <cfRule type="containsBlanks" dxfId="16" priority="18">
       <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsBlanks" dxfId="11" priority="12">
+    <cfRule type="containsBlanks" dxfId="13" priority="15">
       <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
+    <cfRule type="containsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(E53))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(E54))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
+      <formula>LEN(TRIM(E55))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
+  <conditionalFormatting sqref="E56">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
+  <conditionalFormatting sqref="E56">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E55))=0</formula>
+      <formula>LEN(TRIM(E56))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E55" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E56" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36236,7 +36280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4BB8BE-3D13-4259-8D54-ADCE08905D94}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -36254,16 +36298,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -36311,7 +36355,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="50">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -36340,7 +36384,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36363,7 +36407,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -36386,7 +36430,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36409,7 +36453,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -36432,7 +36476,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="48"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -36455,7 +36499,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="50">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -36484,7 +36528,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="48"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36507,7 +36551,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="48"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36530,7 +36574,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="48"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36553,7 +36597,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36576,7 +36620,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36599,7 +36643,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -36622,7 +36666,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="50">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -36651,7 +36695,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36674,7 +36718,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36697,7 +36741,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -36720,7 +36764,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="50">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -36748,7 +36792,7 @@
       <c r="F21" s="25">
         <v>5</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36771,7 +36815,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36794,7 +36838,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -41924,7 +41968,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA9D4F-6FC2-4977-97CA-0F2BDE7FAA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D4D761-1282-4841-8CE0-A7358E4DE443}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="149">
   <si>
     <t>Bug Log</t>
   </si>
@@ -479,9 +479,6 @@
   <si>
     <t xml:space="preserve">Student edollar is invalid when it is 1d.p. </t>
   </si>
-  <si>
-    <t>Unresolved</t>
-  </si>
 </sst>
 </file>
 
@@ -790,6 +787,16 @@
   </cellStyles>
   <dxfs count="116">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -807,16 +814,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -24700,7 +24697,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26228,10 +26225,10 @@
         <v>26</v>
       </c>
       <c r="F53" s="12">
-        <v>43810</v>
+        <v>43781</v>
       </c>
       <c r="G53" s="12">
-        <v>43810</v>
+        <v>43781</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>145</v>
@@ -26258,10 +26255,10 @@
         <v>26</v>
       </c>
       <c r="F54" s="12">
-        <v>43810</v>
+        <v>43781</v>
       </c>
       <c r="G54" s="12">
-        <v>43810</v>
+        <v>43781</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>145</v>
@@ -26288,10 +26285,10 @@
         <v>26</v>
       </c>
       <c r="F55" s="12">
-        <v>43810</v>
+        <v>43781</v>
       </c>
       <c r="G55" s="12">
-        <v>43810</v>
+        <v>43781</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>145</v>
@@ -26315,13 +26312,17 @@
         <v xml:space="preserve">Student edollar is invalid when it is 1d.p. </v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="F56" s="12">
-        <v>43810</v>
-      </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="11"/>
+        <v>43781</v>
+      </c>
+      <c r="G56" s="12">
+        <v>43782</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
@@ -36252,17 +36253,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(E56))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41968,7 +41969,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D4D761-1282-4841-8CE0-A7358E4DE443}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FA6711-DF49-4B57-A5C9-9F210080C99C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="151">
   <si>
     <t>Bug Log</t>
   </si>
@@ -478,6 +478,12 @@
   </si>
   <si>
     <t xml:space="preserve">Student edollar is invalid when it is 1d.p. </t>
+  </si>
+  <si>
+    <t>Json Drop section</t>
+  </si>
+  <si>
+    <t>Incorrect error message in Json dropsection</t>
   </si>
 </sst>
 </file>
@@ -24696,8 +24702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25825,22 +25831,20 @@
         <f>'Our Bug Metrics'!B40</f>
         <v>0</v>
       </c>
-      <c r="C40" s="30">
-        <f>'Our Bug Metrics'!C40</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="15">
-        <f>'Our Bug Metrics'!D40</f>
-        <v>0</v>
+      <c r="C40" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F40" s="12">
-        <v>43774</v>
+        <v>43767</v>
       </c>
       <c r="G40" s="12">
-        <v>43775</v>
+        <v>43767</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>123</v>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FA6711-DF49-4B57-A5C9-9F210080C99C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2BDAFD-033F-4D3E-91CC-75D94CEF93E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="151">
   <si>
     <t>Bug Log</t>
   </si>
@@ -2073,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19468,12 +19468,31 @@
       <c r="XFC39" s="30"/>
       <c r="XFD39" s="15"/>
     </row>
-    <row r="40" spans="1:16384" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16384" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="42">
         <v>38</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="H40" s="22"/>
+      <c r="B40" s="24">
+        <v>4</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="30">
+        <v>1</v>
+      </c>
+      <c r="G40" s="30">
+        <v>1</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="41" spans="1:16384" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A41" s="43">
@@ -24564,7 +24583,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H2 H12:H21 H37:H39 H42:H48 H50:H1048576">
+  <conditionalFormatting sqref="H1:H2 H12:H21 H42:H48 H50:H1048576 H37:H40">
     <cfRule type="containsText" dxfId="115" priority="40" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
@@ -24674,11 +24693,6 @@
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Stop current Development">
-      <formula>NOT(ISERROR(SEARCH("Stop current Development",H40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H41">
     <cfRule type="containsText" dxfId="92" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H41)))</formula>
@@ -24702,8 +24716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="A28" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25828,8 +25842,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="30">
-        <f>'Our Bug Metrics'!B40</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>149</v>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2BDAFD-033F-4D3E-91CC-75D94CEF93E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ADD36E-B616-46AA-811C-26634C8666B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="152">
   <si>
     <t>Bug Log</t>
   </si>
@@ -485,6 +485,9 @@
   <si>
     <t>Incorrect error message in Json dropsection</t>
   </si>
+  <si>
+    <t>S01 in section number is accepted when it shouldn’t be</t>
+  </si>
 </sst>
 </file>
 
@@ -641,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -777,6 +780,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,6 +798,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="116">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1672,16 +1688,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2073,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A48" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2091,16 +2097,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -19919,14 +19925,31 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A57" s="43">
         <v>55</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="F57" s="40" t="str">
+      <c r="B57" s="24">
+        <v>5</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="40">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="G57" s="47">
+        <v>5</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -24583,124 +24606,129 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H2 H12:H21 H42:H48 H50:H1048576 H37:H40">
-    <cfRule type="containsText" dxfId="115" priority="40" operator="containsText" text="Stop current Development">
+  <conditionalFormatting sqref="H1:H2 H12:H21 H42:H48 H50:H56 H37:H40 H58:H1048576">
+    <cfRule type="containsText" dxfId="115" priority="41" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="114" priority="39" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="114" priority="40" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="113" priority="33" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="113" priority="34" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="112" priority="31" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="112" priority="32" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="111" priority="27" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="111" priority="28" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="110" priority="26" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="110" priority="27" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="109" priority="26" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="108" priority="21" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="108" priority="22" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="107" priority="20" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="107" priority="21" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="106" priority="19" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="106" priority="20" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="105" priority="18" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="105" priority="19" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="104" priority="16" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="104" priority="17" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="103" priority="13" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="103" priority="14" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="102" priority="12" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="102" priority="13" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="101" priority="11" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="101" priority="12" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="100" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="100" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="99" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="98" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="98" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="97" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="97" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="96" priority="7" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="95" priority="5" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="95" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H36">
-    <cfRule type="containsText" dxfId="94" priority="4" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="94" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="92" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="92" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
+      <formula>NOT(ISERROR(SEARCH("Stop current Development",H57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -24716,8 +24744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24734,16 +24762,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -26348,20 +26376,28 @@
       </c>
       <c r="B57" s="30">
         <f>'Our Bug Metrics'!B57</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="30">
+        <v>5</v>
+      </c>
+      <c r="C57" s="30" t="str">
         <f>'Our Bug Metrics'!C57</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="15">
+        <v>Bootstrap</v>
+      </c>
+      <c r="D57" s="15" t="str">
         <f>'Our Bug Metrics'!D57</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="11"/>
+        <v>S01 in section number is accepted when it shouldn’t be</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="12">
+        <v>43785</v>
+      </c>
+      <c r="G57" s="12">
+        <v>43785</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
@@ -35835,457 +35871,457 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="90" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="103" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="89" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="104" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="88" priority="105">
+    <cfRule type="containsBlanks" dxfId="89" priority="105">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="88" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="86" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="89" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="85" priority="90">
+    <cfRule type="containsBlanks" dxfId="86" priority="90">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="82" priority="87">
+    <cfRule type="containsBlanks" dxfId="83" priority="87">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="80" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="79" priority="84">
+    <cfRule type="containsBlanks" dxfId="80" priority="84">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="79" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="80" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="76" priority="81">
+    <cfRule type="containsBlanks" dxfId="77" priority="81">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="73" priority="78">
+    <cfRule type="containsBlanks" dxfId="74" priority="78">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="70" priority="75">
+    <cfRule type="containsBlanks" dxfId="71" priority="75">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="67" priority="72">
+    <cfRule type="containsBlanks" dxfId="68" priority="72">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="64" priority="69">
+    <cfRule type="containsBlanks" dxfId="65" priority="69">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="61" priority="66">
+    <cfRule type="containsBlanks" dxfId="62" priority="66">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="58" priority="63">
+    <cfRule type="containsBlanks" dxfId="59" priority="63">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsBlanks" dxfId="55" priority="60">
+    <cfRule type="containsBlanks" dxfId="56" priority="60">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsBlanks" dxfId="52" priority="57">
+    <cfRule type="containsBlanks" dxfId="53" priority="57">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsBlanks" dxfId="49" priority="54">
+    <cfRule type="containsBlanks" dxfId="50" priority="54">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsBlanks" dxfId="46" priority="51">
+    <cfRule type="containsBlanks" dxfId="47" priority="51">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="43" priority="48">
+    <cfRule type="containsBlanks" dxfId="44" priority="48">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsBlanks" dxfId="40" priority="42">
+    <cfRule type="containsBlanks" dxfId="41" priority="42">
       <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsBlanks" dxfId="37" priority="39">
+    <cfRule type="containsBlanks" dxfId="38" priority="39">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsBlanks" dxfId="34" priority="36">
+    <cfRule type="containsBlanks" dxfId="35" priority="36">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="containsBlanks" dxfId="31" priority="33">
+    <cfRule type="containsBlanks" dxfId="32" priority="33">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsBlanks" dxfId="28" priority="30">
+    <cfRule type="containsBlanks" dxfId="29" priority="30">
       <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsBlanks" dxfId="25" priority="27">
+    <cfRule type="containsBlanks" dxfId="26" priority="27">
       <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="containsBlanks" dxfId="22" priority="24">
+    <cfRule type="containsBlanks" dxfId="23" priority="24">
       <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="containsBlanks" dxfId="19" priority="21">
+    <cfRule type="containsBlanks" dxfId="20" priority="21">
       <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsBlanks" dxfId="16" priority="18">
+    <cfRule type="containsBlanks" dxfId="17" priority="18">
       <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsBlanks" dxfId="13" priority="15">
+    <cfRule type="containsBlanks" dxfId="14" priority="15">
       <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+    <cfRule type="containsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(E53))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
       <formula>LEN(TRIM(E54))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="E56:E57">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="E56:E57">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+  <conditionalFormatting sqref="E56:E57">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(E56))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E56" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E57" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36316,16 +36352,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -36373,7 +36409,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="51">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -36402,7 +36438,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36425,7 +36461,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -36448,7 +36484,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="50"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36471,7 +36507,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -36494,7 +36530,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="50"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -36517,7 +36553,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="51">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -36546,7 +36582,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36569,7 +36605,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="50"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36592,7 +36628,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="50"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36615,7 +36651,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36638,7 +36674,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36661,7 +36697,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -36684,7 +36720,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="51">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -36713,7 +36749,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="50"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36736,7 +36772,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="50"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36759,7 +36795,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -36782,7 +36818,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="51">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -36810,7 +36846,7 @@
       <c r="F21" s="25">
         <v>5</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36833,7 +36869,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36856,7 +36892,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="50"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -41986,7 +42022,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Fake-repo-for-SPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ADD36E-B616-46AA-811C-26634C8666B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C472F97D-76D4-4976-8ADB-DD3767E0734A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7580" yWindow="0" windowWidth="11620" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="163">
   <si>
     <t>Bug Log</t>
   </si>
@@ -488,6 +488,39 @@
   <si>
     <t>S01 in section number is accepted when it shouldn’t be</t>
   </si>
+  <si>
+    <t>blank fields not properly validated, as 0 validates as blank</t>
+  </si>
+  <si>
+    <t>Update-bid.php</t>
+  </si>
+  <si>
+    <t>Wrong SQL statement ordering</t>
+  </si>
+  <si>
+    <t>Drop-section.php</t>
+  </si>
+  <si>
+    <t>Delete-bid.php</t>
+  </si>
+  <si>
+    <t>wrong error message, empty changed to blank</t>
+  </si>
+  <si>
+    <t>authenticate.php</t>
+  </si>
+  <si>
+    <t>wrong error message</t>
+  </si>
+  <si>
+    <t>fail_bidDAO.php</t>
+  </si>
+  <si>
+    <t>wrong sql statement</t>
+  </si>
+  <si>
+    <t>JT &amp; LW</t>
+  </si>
 </sst>
 </file>
 
@@ -644,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -783,6 +816,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,16 +834,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="116">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1688,6 +1714,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2000,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2080,7 +2116,7 @@
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2097,16 +2133,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -19956,70 +19992,187 @@
       <c r="A58" s="43">
         <v>56</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="F58" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B58" s="24">
+        <v>5</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="40">
+        <v>1</v>
+      </c>
+      <c r="G58" s="40">
+        <v>1</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
         <v>57</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="F59" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B59" s="24">
+        <v>5</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="40">
+        <v>1</v>
+      </c>
+      <c r="G59" s="40">
+        <v>1</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A60" s="43">
         <v>58</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="F60" s="40" t="str">
+      <c r="B60" s="24">
+        <v>5</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="40">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G60" s="40">
+        <v>1</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A61" s="43">
         <v>59</v>
       </c>
-      <c r="B61" s="24"/>
-      <c r="F61" s="40" t="str">
+      <c r="B61" s="24">
+        <v>5</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="48">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G61" s="48">
+        <v>2</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A62" s="43">
         <v>60</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="F62" s="40" t="str">
+      <c r="B62" s="24">
+        <v>5</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="48">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="48">
+        <v>3</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A63" s="43">
         <v>61</v>
       </c>
-      <c r="B63" s="24"/>
-      <c r="F63" s="40" t="str">
+      <c r="B63" s="24">
+        <v>5</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="40">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="40">
+        <v>1</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A64" s="43">
         <v>62</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="F64" s="40" t="str">
+      <c r="B64" s="24">
+        <v>5</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" s="48">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G64" s="48">
+        <v>2</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
@@ -24727,7 +24880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H57)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24744,8 +24897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView topLeftCell="D50" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24762,16 +24915,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -26406,20 +26559,28 @@
       </c>
       <c r="B58" s="30">
         <f>'Our Bug Metrics'!B58</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="30">
+        <v>5</v>
+      </c>
+      <c r="C58" s="30" t="str">
         <f>'Our Bug Metrics'!C58</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="15">
+        <v>Update-bid.php</v>
+      </c>
+      <c r="D58" s="15" t="str">
         <f>'Our Bug Metrics'!D58</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="11"/>
+        <v>blank fields not properly validated, as 0 validates as blank</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="12">
+        <v>43786</v>
+      </c>
+      <c r="G58" s="12">
+        <v>43786</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
@@ -26428,88 +26589,196 @@
       </c>
       <c r="B59" s="30">
         <f>'Our Bug Metrics'!B59</f>
-        <v>0</v>
-      </c>
-      <c r="C59" s="30">
+        <v>5</v>
+      </c>
+      <c r="C59" s="30" t="str">
         <f>'Our Bug Metrics'!C59</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="15">
+        <v>section-dump.php</v>
+      </c>
+      <c r="D59" s="15" t="str">
         <f>'Our Bug Metrics'!D59</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="11"/>
+        <v>Wrong SQL statement ordering</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="12">
+        <v>43786</v>
+      </c>
+      <c r="G59" s="12">
+        <v>43786</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <f>'Our Bug Metrics'!$A60</f>
         <v>58</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="15">
+      <c r="B60" s="30">
+        <f>'Our Bug Metrics'!B60</f>
+        <v>5</v>
+      </c>
+      <c r="C60" s="30" t="str">
+        <f>'Our Bug Metrics'!C60</f>
+        <v>Drop-section.php</v>
+      </c>
+      <c r="D60" s="15" t="str">
         <f>'Our Bug Metrics'!D60</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="11"/>
+        <v>blank fields not properly validated, as 0 validates as blank</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="12">
+        <v>43786</v>
+      </c>
+      <c r="G60" s="12">
+        <v>43786</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <f>'Our Bug Metrics'!$A61</f>
         <v>59</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="15">
+      <c r="B61" s="30">
+        <f>'Our Bug Metrics'!B61</f>
+        <v>5</v>
+      </c>
+      <c r="C61" s="30" t="str">
+        <f>'Our Bug Metrics'!C61</f>
+        <v>Delete-bid.php</v>
+      </c>
+      <c r="D61" s="15" t="str">
         <f>'Our Bug Metrics'!D61</f>
+        <v>blank fields not properly validated, as 0 validates as blank</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="12">
+        <v>43786</v>
+      </c>
+      <c r="G61" s="12">
+        <v>43786</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="30">
+        <f>'Our Bug Metrics'!$A62</f>
+        <v>60</v>
+      </c>
+      <c r="B62" s="30">
+        <f>'Our Bug Metrics'!B62</f>
+        <v>5</v>
+      </c>
+      <c r="C62" s="30" t="str">
+        <f>'Our Bug Metrics'!C62</f>
+        <v>bid-dump.php</v>
+      </c>
+      <c r="D62" s="15" t="str">
+        <f>'Our Bug Metrics'!D62</f>
+        <v>wrong error message, empty changed to blank</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="12">
+        <v>43786</v>
+      </c>
+      <c r="G62" s="12">
+        <v>43786</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="30">
+        <f>'Our Bug Metrics'!$A63</f>
+        <v>61</v>
+      </c>
+      <c r="B63" s="30">
+        <f>'Our Bug Metrics'!B63</f>
+        <v>5</v>
+      </c>
+      <c r="C63" s="30" t="str">
+        <f>'Our Bug Metrics'!C63</f>
+        <v>authenticate.php</v>
+      </c>
+      <c r="D63" s="15" t="str">
+        <f>'Our Bug Metrics'!D63</f>
+        <v>wrong error message</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="12">
+        <v>43786</v>
+      </c>
+      <c r="G63" s="12">
+        <v>43786</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="30">
+        <f>'Our Bug Metrics'!$A64</f>
+        <v>62</v>
+      </c>
+      <c r="B64" s="30">
+        <f>'Our Bug Metrics'!B64</f>
+        <v>5</v>
+      </c>
+      <c r="C64" s="30" t="str">
+        <f>'Our Bug Metrics'!C64</f>
+        <v>fail_bidDAO.php</v>
+      </c>
+      <c r="D64" s="15" t="str">
+        <f>'Our Bug Metrics'!D64</f>
+        <v>wrong sql statement</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="12">
+        <v>43786</v>
+      </c>
+      <c r="G64" s="12">
+        <v>43786</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="30">
+        <f>'Our Bug Metrics'!$A65</f>
+        <v>63</v>
+      </c>
+      <c r="B65" s="30">
+        <f>'Our Bug Metrics'!B65</f>
         <v>0</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="9"/>
+      <c r="C65" s="30">
+        <f>'Our Bug Metrics'!C65</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="15">
+        <f>'Our Bug Metrics'!D65</f>
+        <v>0</v>
+      </c>
       <c r="E65" s="11"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
@@ -35871,457 +36140,457 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="91" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="103" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="90" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="104" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="89" priority="105">
+    <cfRule type="containsBlanks" dxfId="88" priority="105">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="88" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="87" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="89" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsBlanks" dxfId="86" priority="90">
+    <cfRule type="containsBlanks" dxfId="85" priority="90">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsBlanks" dxfId="83" priority="87">
+    <cfRule type="containsBlanks" dxfId="82" priority="87">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="83" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsBlanks" dxfId="80" priority="84">
+    <cfRule type="containsBlanks" dxfId="79" priority="84">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="79" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="78" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsBlanks" dxfId="77" priority="81">
+    <cfRule type="containsBlanks" dxfId="76" priority="81">
       <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="74" priority="78">
+    <cfRule type="containsBlanks" dxfId="73" priority="78">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="71" priority="75">
+    <cfRule type="containsBlanks" dxfId="70" priority="75">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsBlanks" dxfId="68" priority="72">
+    <cfRule type="containsBlanks" dxfId="67" priority="72">
       <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="65" priority="69">
+    <cfRule type="containsBlanks" dxfId="64" priority="69">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="62" priority="66">
+    <cfRule type="containsBlanks" dxfId="61" priority="66">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="59" priority="63">
+    <cfRule type="containsBlanks" dxfId="58" priority="63">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsBlanks" dxfId="56" priority="60">
+    <cfRule type="containsBlanks" dxfId="55" priority="60">
       <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsBlanks" dxfId="53" priority="57">
+    <cfRule type="containsBlanks" dxfId="52" priority="57">
       <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsBlanks" dxfId="50" priority="54">
+    <cfRule type="containsBlanks" dxfId="49" priority="54">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsBlanks" dxfId="47" priority="51">
+    <cfRule type="containsBlanks" dxfId="46" priority="51">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="44" priority="48">
+    <cfRule type="containsBlanks" dxfId="43" priority="48">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsBlanks" dxfId="41" priority="42">
+    <cfRule type="containsBlanks" dxfId="40" priority="42">
       <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsBlanks" dxfId="38" priority="39">
+    <cfRule type="containsBlanks" dxfId="37" priority="39">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsBlanks" dxfId="35" priority="36">
+    <cfRule type="containsBlanks" dxfId="34" priority="36">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E39">
-    <cfRule type="containsBlanks" dxfId="32" priority="33">
+    <cfRule type="containsBlanks" dxfId="31" priority="33">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsBlanks" dxfId="29" priority="30">
+    <cfRule type="containsBlanks" dxfId="28" priority="30">
       <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsBlanks" dxfId="26" priority="27">
+    <cfRule type="containsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="containsBlanks" dxfId="23" priority="24">
+    <cfRule type="containsBlanks" dxfId="22" priority="24">
       <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="containsBlanks" dxfId="20" priority="21">
+    <cfRule type="containsBlanks" dxfId="19" priority="21">
       <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsBlanks" dxfId="17" priority="18">
+    <cfRule type="containsBlanks" dxfId="16" priority="18">
       <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsBlanks" dxfId="14" priority="15">
+    <cfRule type="containsBlanks" dxfId="13" priority="15">
       <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="containsBlanks" dxfId="11" priority="12">
+    <cfRule type="containsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(E53))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(E54))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E57">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="E56:E64">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E57">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="E56:E64">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E57">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="E56:E64">
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(E56))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E57" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E64" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36352,16 +36621,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -36409,7 +36678,7 @@
         <f t="shared" ref="F3:F200" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="52">
         <f>SUM($F3:$F8)</f>
         <v>27</v>
       </c>
@@ -36438,7 +36707,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36461,7 +36730,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -36484,7 +36753,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="51"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36507,7 +36776,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -36530,7 +36799,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -36553,7 +36822,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="52">
         <f>SUM(F9:F15)</f>
         <v>20</v>
       </c>
@@ -36582,7 +36851,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="51"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36605,7 +36874,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="51"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36628,7 +36897,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="51"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36651,7 +36920,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="51"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36674,7 +36943,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="51"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36697,7 +36966,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G15" s="51"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -36720,7 +36989,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="52">
         <f>SUM(F16:F19)</f>
         <v>20</v>
       </c>
@@ -36749,7 +37018,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="51"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36772,7 +37041,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="51"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36795,7 +37064,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="51"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
@@ -36818,7 +37087,7 @@
         <f>IF($E20="Critical", 10, IF($E20="High",5, IF($E20="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="52">
         <f>SUM(F20:F23)</f>
         <v>12</v>
       </c>
@@ -36846,7 +37115,7 @@
       <c r="F21" s="25">
         <v>5</v>
       </c>
-      <c r="G21" s="51"/>
+      <c r="G21" s="52"/>
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36869,7 +37138,7 @@
         <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="51"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -36892,7 +37161,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="51"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -42022,7 +42291,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Fake-repo-for-SPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C472F97D-76D4-4976-8ADB-DD3767E0734A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8F7D7D-49AE-4316-B938-E969C564FDFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="0" windowWidth="11620" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="166">
   <si>
     <t>Bug Log</t>
   </si>
@@ -521,6 +521,15 @@
   <si>
     <t>JT &amp; LW</t>
   </si>
+  <si>
+    <t>vacancy was calculated wrongly in round 2 active</t>
+  </si>
+  <si>
+    <t>min_bid was retrieved from studentsection table instead of bid table in round 2 - inactive</t>
+  </si>
+  <si>
+    <t>min_bid could not display correctly in round 2 active</t>
+  </si>
 </sst>
 </file>
 
@@ -833,7 +842,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="116">
+  <dxfs count="125">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2036,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2115,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20175,37 +20247,97 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A65" s="43">
         <v>63</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="F65" s="40" t="str">
+      <c r="B65" s="24">
+        <f>'Our Bug Log1'!B65</f>
+        <v>5</v>
+      </c>
+      <c r="C65" s="38" t="str">
+        <f>'Our Bug Log1'!C65</f>
+        <v>bid-status.php</v>
+      </c>
+      <c r="D65" s="22" t="str">
+        <f>'Our Bug Log1'!D65</f>
+        <v>vacancy was calculated wrongly in round 2 active</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="40">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G65" s="40">
+        <v>3</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
         <v>64</v>
       </c>
-      <c r="B66" s="24"/>
-      <c r="F66" s="40" t="str">
+      <c r="B66" s="24">
+        <f>'Our Bug Log1'!B66</f>
+        <v>5</v>
+      </c>
+      <c r="C66" s="38" t="str">
+        <f>'Our Bug Log1'!C66</f>
+        <v>bid-status.php</v>
+      </c>
+      <c r="D66" s="22" t="str">
+        <f>'Our Bug Log1'!D66</f>
+        <v>min_bid was retrieved from studentsection table instead of bid table in round 2 - inactive</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="40">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G66" s="40">
+        <v>4</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
         <v>65</v>
       </c>
-      <c r="B67" s="24"/>
-      <c r="F67" s="40" t="str">
+      <c r="B67" s="24">
+        <f>'Our Bug Log1'!B67</f>
+        <v>5</v>
+      </c>
+      <c r="C67" s="38" t="str">
+        <f>'Our Bug Log1'!C67</f>
+        <v>bid-status.php</v>
+      </c>
+      <c r="D67" s="22" t="str">
+        <f>'Our Bug Log1'!D67</f>
+        <v>min_bid could not display correctly in round 2 active</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="40">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G67" s="40">
+        <v>5</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
         <v>66</v>
       </c>
@@ -20215,7 +20347,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A69" s="43">
         <v>67</v>
       </c>
@@ -20225,7 +20357,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A70" s="43">
         <v>68</v>
       </c>
@@ -20235,7 +20367,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A71" s="43">
         <v>69</v>
       </c>
@@ -20245,7 +20377,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A72" s="43">
         <v>70</v>
       </c>
@@ -20255,7 +20387,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A73" s="43">
         <v>71</v>
       </c>
@@ -20265,7 +20397,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A74" s="43">
         <v>72</v>
       </c>
@@ -20275,7 +20407,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A75" s="43">
         <v>73</v>
       </c>
@@ -20285,7 +20417,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A76" s="43">
         <v>74</v>
       </c>
@@ -20295,7 +20427,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A77" s="43">
         <v>75</v>
       </c>
@@ -20305,7 +20437,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A78" s="43">
         <v>76</v>
       </c>
@@ -20315,7 +20447,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A79" s="43">
         <v>77</v>
       </c>
@@ -20325,7 +20457,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A80" s="43">
         <v>78</v>
       </c>
@@ -24760,127 +24892,127 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H2 H12:H21 H42:H48 H50:H56 H37:H40 H58:H1048576">
-    <cfRule type="containsText" dxfId="115" priority="41" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="124" priority="41" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="114" priority="40" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="123" priority="40" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="113" priority="34" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="122" priority="34" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="112" priority="32" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="121" priority="32" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="111" priority="28" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="120" priority="28" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="110" priority="27" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="119" priority="27" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="109" priority="26" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="118" priority="26" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="108" priority="22" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="117" priority="22" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="107" priority="21" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="116" priority="21" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="106" priority="20" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="115" priority="20" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="105" priority="19" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="114" priority="19" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="104" priority="17" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="113" priority="17" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="103" priority="14" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="112" priority="14" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="102" priority="13" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="111" priority="13" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="101" priority="12" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="110" priority="12" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="100" priority="11" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="99" priority="10" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="108" priority="10" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="98" priority="9" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="107" priority="9" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="97" priority="8" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="106" priority="8" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="96" priority="7" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="105" priority="7" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="95" priority="6" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="104" priority="6" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H36">
-    <cfRule type="containsText" dxfId="94" priority="5" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="102" priority="3" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="containsText" dxfId="92" priority="2" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="101" priority="2" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="100" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H57)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24897,8 +25029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D50" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView topLeftCell="A50" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26768,41 +26900,80 @@
         <v>63</v>
       </c>
       <c r="B65" s="30">
-        <f>'Our Bug Metrics'!B65</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="30">
-        <f>'Our Bug Metrics'!C65</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="15">
-        <f>'Our Bug Metrics'!D65</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="11"/>
-    </row>
-    <row r="66" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="12">
+        <v>43786</v>
+      </c>
+      <c r="G65" s="12">
+        <v>43786</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="30">
+        <f>'Our Bug Metrics'!$A66</f>
+        <v>64</v>
+      </c>
+      <c r="B66" s="8">
+        <v>5</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="12">
+        <v>43786</v>
+      </c>
+      <c r="G66" s="12">
+        <v>43786</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="11"/>
+      <c r="A67" s="30">
+        <f>'Our Bug Metrics'!$A67</f>
+        <v>65</v>
+      </c>
+      <c r="B67" s="8">
+        <v>5</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="12">
+        <v>43786</v>
+      </c>
+      <c r="G67" s="12">
+        <v>43786</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
@@ -36140,457 +36311,502 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="90" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="112" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="cellIs" dxfId="89" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="113" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E13:E20">
-    <cfRule type="containsBlanks" dxfId="88" priority="105">
+    <cfRule type="containsBlanks" dxfId="97" priority="114">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="95" priority="98" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsBlanks" dxfId="94" priority="99">
+      <formula>LEN(TRIM(E10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="92" priority="95" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="containsBlanks" dxfId="91" priority="96">
+      <formula>LEN(TRIM(E11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="89" priority="92" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsBlanks" dxfId="88" priority="93">
+      <formula>LEN(TRIM(E9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
     <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E8">
     <cfRule type="cellIs" dxfId="86" priority="89" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E8">
     <cfRule type="containsBlanks" dxfId="85" priority="90">
-      <formula>LEN(TRIM(E10))=0</formula>
+      <formula>LEN(TRIM(E8))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E7">
     <cfRule type="containsBlanks" dxfId="82" priority="87">
-      <formula>LEN(TRIM(E11))=0</formula>
+      <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="80" priority="83" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E12">
     <cfRule type="containsBlanks" dxfId="79" priority="84">
-      <formula>LEN(TRIM(E9))=0</formula>
+      <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="77" priority="80" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E6">
     <cfRule type="containsBlanks" dxfId="76" priority="81">
-      <formula>LEN(TRIM(E8))=0</formula>
+      <formula>LEN(TRIM(E6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="E21">
     <cfRule type="containsBlanks" dxfId="73" priority="78">
-      <formula>LEN(TRIM(E7))=0</formula>
+      <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E22">
     <cfRule type="containsBlanks" dxfId="70" priority="75">
-      <formula>LEN(TRIM(E12))=0</formula>
+      <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="68" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E23">
     <cfRule type="containsBlanks" dxfId="67" priority="72">
-      <formula>LEN(TRIM(E6))=0</formula>
+      <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="65" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E24">
     <cfRule type="containsBlanks" dxfId="64" priority="69">
-      <formula>LEN(TRIM(E21))=0</formula>
+      <formula>LEN(TRIM(E24))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="62" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E25">
     <cfRule type="containsBlanks" dxfId="61" priority="66">
-      <formula>LEN(TRIM(E22))=0</formula>
+      <formula>LEN(TRIM(E25))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E26:E27">
     <cfRule type="containsBlanks" dxfId="58" priority="63">
-      <formula>LEN(TRIM(E23))=0</formula>
+      <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E28">
     <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E28">
     <cfRule type="containsBlanks" dxfId="55" priority="60">
-      <formula>LEN(TRIM(E24))=0</formula>
+      <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E29">
     <cfRule type="containsBlanks" dxfId="52" priority="57">
-      <formula>LEN(TRIM(E25))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsBlanks" dxfId="49" priority="54">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="containsBlanks" dxfId="46" priority="51">
-      <formula>LEN(TRIM(E28))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
-      <formula>"Unresolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
-      <formula>"Resolved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="containsBlanks" dxfId="43" priority="48">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="containsBlanks" dxfId="49" priority="51">
+      <formula>LEN(TRIM(E30))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsBlanks" dxfId="46" priority="48">
+      <formula>LEN(TRIM(E31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="containsBlanks" dxfId="43" priority="45">
+      <formula>LEN(TRIM(E32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E33:E39">
     <cfRule type="containsBlanks" dxfId="40" priority="42">
-      <formula>LEN(TRIM(E30))=0</formula>
+      <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E40">
     <cfRule type="containsBlanks" dxfId="37" priority="39">
-      <formula>LEN(TRIM(E31))=0</formula>
+      <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E41">
     <cfRule type="containsBlanks" dxfId="34" priority="36">
-      <formula>LEN(TRIM(E32))=0</formula>
+      <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E39">
+  <conditionalFormatting sqref="E42:E48">
     <cfRule type="containsBlanks" dxfId="31" priority="33">
-      <formula>LEN(TRIM(E33))=0</formula>
+      <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="containsBlanks" dxfId="28" priority="30">
-      <formula>LEN(TRIM(E40))=0</formula>
+      <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E51">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E51">
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E51">
     <cfRule type="containsBlanks" dxfId="25" priority="27">
-      <formula>LEN(TRIM(E41))=0</formula>
+      <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
+  <conditionalFormatting sqref="E52">
     <cfRule type="containsBlanks" dxfId="22" priority="24">
-      <formula>LEN(TRIM(E42))=0</formula>
+      <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E53">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E53">
     <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
+  <conditionalFormatting sqref="E53">
     <cfRule type="containsBlanks" dxfId="19" priority="21">
-      <formula>LEN(TRIM(E49))=0</formula>
+      <formula>LEN(TRIM(E53))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E54">
     <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E54">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E54">
     <cfRule type="containsBlanks" dxfId="16" priority="18">
-      <formula>LEN(TRIM(E51))=0</formula>
+      <formula>LEN(TRIM(E54))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E55">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E55">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E55">
     <cfRule type="containsBlanks" dxfId="13" priority="15">
-      <formula>LEN(TRIM(E52))=0</formula>
+      <formula>LEN(TRIM(E55))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E56:E64">
     <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E56:E64">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E56:E64">
     <cfRule type="containsBlanks" dxfId="10" priority="12">
-      <formula>LEN(TRIM(E53))=0</formula>
+      <formula>LEN(TRIM(E56))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
-      <formula>LEN(TRIM(E54))=0</formula>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="containsBlanks" dxfId="6" priority="9">
+      <formula>LEN(TRIM(E65))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
-      <formula>LEN(TRIM(E55))=0</formula>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
+      <formula>LEN(TRIM(E66))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E64">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E64">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E64">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(E56))=0</formula>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(E67))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E64" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E67" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -42291,7 +42507,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serene\Documents\GitHub\project-g5t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lai See Hoe\Documents\GitHub\project-g5t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8F7D7D-49AE-4316-B938-E969C564FDFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C464D10A-4529-4EF9-9F92-D3F69FE19C8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="167">
   <si>
     <t>Bug Log</t>
   </si>
@@ -530,6 +530,9 @@
   <si>
     <t>min_bid could not display correctly in round 2 active</t>
   </si>
+  <si>
+    <t>error message not out put correctly ie(invalid username\/password instead of invalid username, invalid password)</t>
+  </si>
 </sst>
 </file>
 
@@ -844,6 +847,16 @@
   </cellStyles>
   <dxfs count="125">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -903,16 +916,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2187,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView topLeftCell="A55" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20160,7 +20163,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="19" t="s">
         <v>64</v>
@@ -20187,7 +20190,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" s="19" t="s">
         <v>64</v>
@@ -20241,7 +20244,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="19" t="s">
         <v>64</v>
@@ -20271,13 +20274,13 @@
         <v>1</v>
       </c>
       <c r="G65" s="40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
         <v>64</v>
       </c>
@@ -20301,7 +20304,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66" s="19" t="s">
         <v>64</v>
@@ -20331,20 +20334,37 @@
         <v>1</v>
       </c>
       <c r="G67" s="40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H67" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
         <v>66</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="F68" s="40" t="str">
+      <c r="B68" s="24">
+        <v>5</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="40">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G68" s="40">
+        <v>1</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -25029,8 +25049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2379E37-0698-4E89-97BA-D491A2AF9566}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26975,15 +26995,33 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="11"/>
+    <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="30">
+        <f>'Our Bug Metrics'!$A68</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="8">
+        <v>6</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="13" t="str">
+        <f>'Our Bug Metrics'!D68</f>
+        <v>error message not out put correctly ie(invalid username\/password instead of invalid username, invalid password)</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="12">
+        <v>43786</v>
+      </c>
+      <c r="G68" s="12">
+        <v>43786</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
@@ -36761,52 +36799,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="containsBlanks" dxfId="6" priority="9">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(E65))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(E66))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(E67))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E67" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E68" xr:uid="{4D59F0F2-CE8D-4011-9D85-26CF084AD911}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>
@@ -42507,7 +42545,7 @@
     <mergeCell ref="G20:G23"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
